--- a/server/测试数据.xlsx
+++ b/server/测试数据.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="224">
   <si>
     <t>省</t>
   </si>
@@ -761,9 +761,6 @@
     <t>甘肃1</t>
   </si>
   <si>
-    <t>oHUM441Lx1-pPIlSyUGMvnr2Hdq8</t>
-  </si>
-  <si>
     <t>22.281414，114.14076</t>
   </si>
   <si>
@@ -777,9 +774,6 @@
   </si>
   <si>
     <t>34.218263,108.964176</t>
-  </si>
-  <si>
-    <t>时间戳和lcontent不一定是正确对应的</t>
   </si>
   <si>
     <t>香港大學(地铁站)</t>
@@ -1155,7 +1149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
@@ -1382,14 +1376,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
-      <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
@@ -4497,7 +4485,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R191"/>
+  <dimension ref="A1:R190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4536,40 +4524,40 @@
       <c r="D1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2">
       <c r="A2" s="68"/>
       <c r="B2" s="73"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
     </row>
     <row r="3">
       <c r="A3" s="69" t="s">
@@ -4584,22 +4572,22 @@
       <c r="D3" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
+      <c r="M3" s="82"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="82"/>
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
@@ -4614,22 +4602,22 @@
       <c r="D4" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
@@ -4644,22 +4632,22 @@
       <c r="D5" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
     </row>
     <row r="6">
       <c r="A6" s="69" t="s">
@@ -4674,22 +4662,22 @@
       <c r="D6" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
+      <c r="Q6" s="82"/>
+      <c r="R6" s="82"/>
     </row>
     <row r="7">
       <c r="A7" s="69" t="s">
@@ -4704,22 +4692,22 @@
       <c r="D7" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
@@ -4734,22 +4722,22 @@
       <c r="D8" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
     </row>
     <row r="9">
       <c r="A9" s="69" t="s">
@@ -4764,20 +4752,20 @@
       <c r="D9" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
     </row>
     <row r="10">
       <c r="A10" s="69" t="s">
@@ -4792,20 +4780,20 @@
       <c r="D10" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
     </row>
     <row r="11">
       <c r="A11" s="69" t="s">
@@ -4820,20 +4808,20 @@
       <c r="D11" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="81"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
     </row>
     <row r="12">
       <c r="A12" s="69" t="s">
@@ -4848,20 +4836,20 @@
       <c r="D12" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="81"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="84"/>
-      <c r="Q12" s="84"/>
-      <c r="R12" s="84"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
     </row>
     <row r="13">
       <c r="A13" s="69" t="s">
@@ -4876,20 +4864,20 @@
       <c r="D13" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="82"/>
     </row>
     <row r="14">
       <c r="A14" s="69" t="s">
@@ -4904,20 +4892,20 @@
       <c r="D14" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="82"/>
     </row>
     <row r="15">
       <c r="A15" s="69" t="s">
@@ -4926,54 +4914,56 @@
       <c r="B15" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="76" t="n">
-        <v>1.529251199999E12</v>
+      <c r="C15" s="74" t="n">
+        <v>1.529263462E12</v>
       </c>
       <c r="D15" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-    </row>
-    <row r="16" ht="19.0">
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="82"/>
+    </row>
+    <row r="16">
       <c r="A16" s="70" t="s">
         <v>166</v>
       </c>
       <c r="B16" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="74" t="n">
+        <v>1.541445862E12</v>
+      </c>
+      <c r="D16" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
     </row>
     <row r="17">
       <c r="A17" s="69" t="s">
@@ -4988,22 +4978,22 @@
       <c r="D17" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
     </row>
     <row r="18">
       <c r="A18" s="69" t="s">
@@ -5018,22 +5008,22 @@
       <c r="D18" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
     </row>
     <row r="19">
       <c r="A19" s="71" t="s">
@@ -5042,28 +5032,28 @@
       <c r="B19" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="76" t="n">
-        <v>1.537631999999E12</v>
+      <c r="C19" s="74" t="n">
+        <v>1.537730662E12</v>
       </c>
       <c r="D19" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="82"/>
     </row>
     <row r="20">
       <c r="A20" s="69" t="s">
@@ -5078,22 +5068,22 @@
       <c r="D20" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="84"/>
-      <c r="R20" s="84"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
     </row>
     <row r="21">
       <c r="A21" s="69" t="s">
@@ -5108,22 +5098,22 @@
       <c r="D21" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="84"/>
-      <c r="R21" s="84"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
     </row>
     <row r="22">
       <c r="A22" s="71" t="s">
@@ -5138,22 +5128,22 @@
       <c r="D22" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="82" t="s">
+      <c r="E22" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
     </row>
     <row r="23">
       <c r="A23" s="69" t="s">
@@ -5168,20 +5158,20 @@
       <c r="D23" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
     </row>
     <row r="24">
       <c r="A24" s="69" t="s">
@@ -5190,3366 +5180,3346 @@
       <c r="B24" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="77" t="n">
+      <c r="C24" s="76" t="n">
         <v>1.5388416E12</v>
       </c>
       <c r="D24" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
     </row>
     <row r="25">
       <c r="A25" s="72"/>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
       <c r="D25" s="75"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-      <c r="R25" s="83"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
     </row>
     <row r="26">
       <c r="A26" s="72"/>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
       <c r="D26" s="75"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="83"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="81"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
     </row>
     <row r="27">
       <c r="A27" s="72"/>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
       <c r="D27" s="75"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
     </row>
     <row r="28">
       <c r="A28" s="72"/>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
       <c r="D28" s="75"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
     </row>
     <row r="29">
       <c r="A29" s="72"/>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
       <c r="D29" s="75"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="83"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
     </row>
     <row r="30">
       <c r="A30" s="72"/>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
       <c r="D30" s="75"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="83"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
+      <c r="M30" s="81"/>
+      <c r="N30" s="81"/>
+      <c r="O30" s="81"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
     </row>
     <row r="31">
       <c r="A31" s="72"/>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
       <c r="D31" s="75"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-      <c r="O31" s="83"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+      <c r="O31" s="81"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
     </row>
     <row r="32">
       <c r="A32" s="72"/>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
       <c r="D32" s="75"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+      <c r="O32" s="81"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
     </row>
     <row r="33">
       <c r="A33" s="72"/>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
       <c r="D33" s="75"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
     </row>
     <row r="34">
       <c r="A34" s="72"/>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
       <c r="D34" s="75"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
     </row>
     <row r="35">
       <c r="A35" s="72"/>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
       <c r="D35" s="75"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
-      <c r="Q35" s="83"/>
-      <c r="R35" s="83"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
     </row>
     <row r="36">
       <c r="A36" s="72"/>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
       <c r="D36" s="75"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
     </row>
     <row r="37">
       <c r="A37" s="72"/>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
       <c r="D37" s="75"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
-      <c r="Q37" s="83"/>
-      <c r="R37" s="83"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+      <c r="N37" s="81"/>
+      <c r="O37" s="81"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
     </row>
     <row r="38">
       <c r="A38" s="72"/>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
       <c r="D38" s="75"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+      <c r="N38" s="81"/>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
     </row>
     <row r="39">
       <c r="A39" s="72"/>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
       <c r="D39" s="75"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
-      <c r="Q39" s="83"/>
-      <c r="R39" s="83"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="81"/>
+      <c r="O39" s="81"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
     </row>
     <row r="40">
       <c r="A40" s="72"/>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
       <c r="D40" s="75"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
-      <c r="Q40" s="83"/>
-      <c r="R40" s="83"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
     </row>
     <row r="41">
       <c r="A41" s="72"/>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
       <c r="D41" s="75"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+      <c r="N41" s="81"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
     </row>
     <row r="42">
       <c r="A42" s="72"/>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
       <c r="D42" s="75"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="83"/>
-      <c r="R42" s="83"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="81"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
     </row>
     <row r="43">
       <c r="A43" s="72"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
       <c r="D43" s="75"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
-      <c r="Q43" s="83"/>
-      <c r="R43" s="83"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
+      <c r="N43" s="81"/>
+      <c r="O43" s="81"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
     </row>
     <row r="44">
       <c r="A44" s="72"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
       <c r="D44" s="75"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
-      <c r="Q44" s="83"/>
-      <c r="R44" s="83"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+      <c r="L44" s="81"/>
+      <c r="M44" s="81"/>
+      <c r="N44" s="81"/>
+      <c r="O44" s="81"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
     </row>
     <row r="45">
       <c r="A45" s="72"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
       <c r="D45" s="75"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
-      <c r="Q45" s="83"/>
-      <c r="R45" s="83"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+      <c r="L45" s="81"/>
+      <c r="M45" s="81"/>
+      <c r="N45" s="81"/>
+      <c r="O45" s="81"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
     </row>
     <row r="46">
       <c r="A46" s="72"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
       <c r="D46" s="75"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="83"/>
-      <c r="R46" s="83"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+      <c r="L46" s="81"/>
+      <c r="M46" s="81"/>
+      <c r="N46" s="81"/>
+      <c r="O46" s="81"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
     </row>
     <row r="47">
       <c r="A47" s="72"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
       <c r="D47" s="75"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
-      <c r="Q47" s="83"/>
-      <c r="R47" s="83"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
     </row>
     <row r="48">
       <c r="A48" s="72"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
       <c r="D48" s="75"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
-      <c r="Q48" s="83"/>
-      <c r="R48" s="83"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
     </row>
     <row r="49">
       <c r="A49" s="72"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
       <c r="D49" s="75"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
-      <c r="Q49" s="83"/>
-      <c r="R49" s="83"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="81"/>
+      <c r="P49" s="81"/>
+      <c r="Q49" s="81"/>
+      <c r="R49" s="81"/>
     </row>
     <row r="50">
       <c r="A50" s="72"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
       <c r="D50" s="75"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="83"/>
-      <c r="R50" s="83"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="81"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="81"/>
+      <c r="R50" s="81"/>
     </row>
     <row r="51">
       <c r="A51" s="72"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
       <c r="D51" s="75"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
-      <c r="Q51" s="83"/>
-      <c r="R51" s="83"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="81"/>
+      <c r="O51" s="81"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
     </row>
     <row r="52">
       <c r="A52" s="72"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
       <c r="D52" s="75"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+      <c r="L52" s="81"/>
+      <c r="M52" s="81"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="81"/>
+      <c r="P52" s="81"/>
+      <c r="Q52" s="81"/>
+      <c r="R52" s="81"/>
     </row>
     <row r="53">
       <c r="A53" s="72"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
       <c r="D53" s="75"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
-      <c r="Q53" s="83"/>
-      <c r="R53" s="83"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="81"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="81"/>
+      <c r="P53" s="81"/>
+      <c r="Q53" s="81"/>
+      <c r="R53" s="81"/>
     </row>
     <row r="54">
       <c r="A54" s="72"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
       <c r="D54" s="75"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
-      <c r="Q54" s="83"/>
-      <c r="R54" s="83"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="81"/>
+      <c r="L54" s="81"/>
+      <c r="M54" s="81"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="81"/>
+      <c r="P54" s="81"/>
+      <c r="Q54" s="81"/>
+      <c r="R54" s="81"/>
     </row>
     <row r="55">
       <c r="A55" s="72"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
       <c r="D55" s="75"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
-      <c r="Q55" s="83"/>
-      <c r="R55" s="83"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="81"/>
+      <c r="L55" s="81"/>
+      <c r="M55" s="81"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="81"/>
+      <c r="P55" s="81"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="81"/>
     </row>
     <row r="56">
       <c r="A56" s="72"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
       <c r="D56" s="75"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
-      <c r="Q56" s="83"/>
-      <c r="R56" s="83"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+      <c r="M56" s="81"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="81"/>
+      <c r="P56" s="81"/>
+      <c r="Q56" s="81"/>
+      <c r="R56" s="81"/>
     </row>
     <row r="57">
       <c r="A57" s="72"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
       <c r="D57" s="75"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
-      <c r="Q57" s="83"/>
-      <c r="R57" s="83"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+      <c r="M57" s="81"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="81"/>
+      <c r="P57" s="81"/>
+      <c r="Q57" s="81"/>
+      <c r="R57" s="81"/>
     </row>
     <row r="58">
       <c r="A58" s="72"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
       <c r="D58" s="75"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
-      <c r="Q58" s="83"/>
-      <c r="R58" s="83"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+      <c r="M58" s="81"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="81"/>
+      <c r="P58" s="81"/>
+      <c r="Q58" s="81"/>
+      <c r="R58" s="81"/>
     </row>
     <row r="59">
       <c r="A59" s="72"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
       <c r="D59" s="75"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
-      <c r="Q59" s="83"/>
-      <c r="R59" s="83"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
+      <c r="M59" s="81"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="81"/>
+      <c r="P59" s="81"/>
+      <c r="Q59" s="81"/>
+      <c r="R59" s="81"/>
     </row>
     <row r="60">
       <c r="A60" s="72"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
       <c r="D60" s="75"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
-      <c r="Q60" s="83"/>
-      <c r="R60" s="83"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="81"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="81"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="81"/>
+      <c r="P60" s="81"/>
+      <c r="Q60" s="81"/>
+      <c r="R60" s="81"/>
     </row>
     <row r="61">
       <c r="A61" s="72"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
       <c r="D61" s="75"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="81"/>
+      <c r="I61" s="81"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="81"/>
+      <c r="M61" s="81"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="81"/>
+      <c r="P61" s="81"/>
+      <c r="Q61" s="81"/>
+      <c r="R61" s="81"/>
     </row>
     <row r="62">
       <c r="A62" s="72"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
       <c r="D62" s="75"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="83"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="81"/>
+      <c r="I62" s="81"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="81"/>
+      <c r="M62" s="81"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="81"/>
+      <c r="P62" s="81"/>
+      <c r="Q62" s="81"/>
+      <c r="R62" s="81"/>
     </row>
     <row r="63">
       <c r="A63" s="72"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
       <c r="D63" s="75"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="83"/>
-      <c r="P63" s="83"/>
-      <c r="Q63" s="83"/>
-      <c r="R63" s="83"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
     </row>
     <row r="64">
       <c r="A64" s="72"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
       <c r="D64" s="75"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="83"/>
-      <c r="P64" s="83"/>
-      <c r="Q64" s="83"/>
-      <c r="R64" s="83"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="81"/>
+      <c r="R64" s="81"/>
     </row>
     <row r="65">
       <c r="A65" s="72"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
       <c r="D65" s="75"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
-      <c r="R65" s="83"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="81"/>
+      <c r="I65" s="81"/>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+      <c r="M65" s="81"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="81"/>
+      <c r="R65" s="81"/>
     </row>
     <row r="66">
       <c r="A66" s="72"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
       <c r="D66" s="75"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="83"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
+      <c r="M66" s="81"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="81"/>
+      <c r="R66" s="81"/>
     </row>
     <row r="67">
       <c r="A67" s="72"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
       <c r="D67" s="75"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="83"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="81"/>
+      <c r="I67" s="81"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="81"/>
+      <c r="M67" s="81"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="81"/>
+      <c r="R67" s="81"/>
     </row>
     <row r="68">
       <c r="A68" s="72"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
       <c r="D68" s="75"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="83"/>
-      <c r="P68" s="83"/>
-      <c r="Q68" s="83"/>
-      <c r="R68" s="83"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
     </row>
     <row r="69">
       <c r="A69" s="72"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
       <c r="D69" s="75"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="83"/>
-      <c r="P69" s="83"/>
-      <c r="Q69" s="83"/>
-      <c r="R69" s="83"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="81"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="81"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="81"/>
+      <c r="R69" s="81"/>
     </row>
     <row r="70">
       <c r="A70" s="72"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
       <c r="D70" s="75"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="83"/>
-      <c r="P70" s="83"/>
-      <c r="Q70" s="83"/>
-      <c r="R70" s="83"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
+      <c r="M70" s="81"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="81"/>
+      <c r="R70" s="81"/>
     </row>
     <row r="71">
       <c r="A71" s="72"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
       <c r="D71" s="75"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="83"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="81"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="81"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="81"/>
+      <c r="M71" s="81"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="81"/>
+      <c r="R71" s="81"/>
     </row>
     <row r="72">
       <c r="A72" s="72"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
       <c r="D72" s="75"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="83"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="81"/>
+      <c r="K72" s="81"/>
+      <c r="L72" s="81"/>
+      <c r="M72" s="81"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="81"/>
+      <c r="R72" s="81"/>
     </row>
     <row r="73">
       <c r="A73" s="72"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
       <c r="D73" s="75"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="83"/>
-      <c r="R73" s="83"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
     </row>
     <row r="74">
       <c r="A74" s="72"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
       <c r="D74" s="75"/>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="83"/>
-      <c r="I74" s="83"/>
-      <c r="J74" s="83"/>
-      <c r="K74" s="83"/>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="83"/>
-      <c r="R74" s="83"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
+      <c r="M74" s="81"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
     </row>
     <row r="75">
       <c r="A75" s="72"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
       <c r="D75" s="75"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
-      <c r="J75" s="83"/>
-      <c r="K75" s="83"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
-      <c r="Q75" s="83"/>
-      <c r="R75" s="83"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="81"/>
+      <c r="I75" s="81"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="81"/>
+      <c r="M75" s="81"/>
+      <c r="N75" s="81"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
     </row>
     <row r="76">
       <c r="A76" s="72"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
       <c r="D76" s="75"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="83"/>
-      <c r="K76" s="83"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="83"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="81"/>
+      <c r="M76" s="81"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="81"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="81"/>
     </row>
     <row r="77">
       <c r="A77" s="72"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
       <c r="D77" s="75"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="81"/>
     </row>
     <row r="78">
       <c r="A78" s="72"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
       <c r="D78" s="75"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="83"/>
-      <c r="M78" s="83"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83"/>
-      <c r="Q78" s="83"/>
-      <c r="R78" s="83"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="81"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="81"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
+      <c r="R78" s="81"/>
     </row>
     <row r="79">
       <c r="A79" s="72"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
       <c r="D79" s="75"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="83"/>
-      <c r="I79" s="83"/>
-      <c r="J79" s="83"/>
-      <c r="K79" s="83"/>
-      <c r="L79" s="83"/>
-      <c r="M79" s="83"/>
-      <c r="N79" s="83"/>
-      <c r="O79" s="83"/>
-      <c r="P79" s="83"/>
-      <c r="Q79" s="83"/>
-      <c r="R79" s="83"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
+      <c r="J79" s="81"/>
+      <c r="K79" s="81"/>
+      <c r="L79" s="81"/>
+      <c r="M79" s="81"/>
+      <c r="N79" s="81"/>
+      <c r="O79" s="81"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="81"/>
     </row>
     <row r="80">
       <c r="A80" s="72"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
       <c r="D80" s="75"/>
-      <c r="E80" s="83"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="83"/>
-      <c r="H80" s="83"/>
-      <c r="I80" s="83"/>
-      <c r="J80" s="83"/>
-      <c r="K80" s="83"/>
-      <c r="L80" s="83"/>
-      <c r="M80" s="83"/>
-      <c r="N80" s="83"/>
-      <c r="O80" s="83"/>
-      <c r="P80" s="83"/>
-      <c r="Q80" s="83"/>
-      <c r="R80" s="83"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="81"/>
+      <c r="J80" s="81"/>
+      <c r="K80" s="81"/>
+      <c r="L80" s="81"/>
+      <c r="M80" s="81"/>
+      <c r="N80" s="81"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="81"/>
     </row>
     <row r="81">
       <c r="A81" s="72"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
       <c r="D81" s="75"/>
-      <c r="E81" s="83"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="83"/>
-      <c r="H81" s="83"/>
-      <c r="I81" s="83"/>
-      <c r="J81" s="83"/>
-      <c r="K81" s="83"/>
-      <c r="L81" s="83"/>
-      <c r="M81" s="83"/>
-      <c r="N81" s="83"/>
-      <c r="O81" s="83"/>
-      <c r="P81" s="83"/>
-      <c r="Q81" s="83"/>
-      <c r="R81" s="83"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
+      <c r="M81" s="81"/>
+      <c r="N81" s="81"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
     </row>
     <row r="82">
       <c r="A82" s="72"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
       <c r="D82" s="75"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="83"/>
-      <c r="H82" s="83"/>
-      <c r="I82" s="83"/>
-      <c r="J82" s="83"/>
-      <c r="K82" s="83"/>
-      <c r="L82" s="83"/>
-      <c r="M82" s="83"/>
-      <c r="N82" s="83"/>
-      <c r="O82" s="83"/>
-      <c r="P82" s="83"/>
-      <c r="Q82" s="83"/>
-      <c r="R82" s="83"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
     </row>
     <row r="83">
       <c r="A83" s="72"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
       <c r="D83" s="75"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="83"/>
-      <c r="H83" s="83"/>
-      <c r="I83" s="83"/>
-      <c r="J83" s="83"/>
-      <c r="K83" s="83"/>
-      <c r="L83" s="83"/>
-      <c r="M83" s="83"/>
-      <c r="N83" s="83"/>
-      <c r="O83" s="83"/>
-      <c r="P83" s="83"/>
-      <c r="Q83" s="83"/>
-      <c r="R83" s="83"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
+      <c r="J83" s="81"/>
+      <c r="K83" s="81"/>
+      <c r="L83" s="81"/>
+      <c r="M83" s="81"/>
+      <c r="N83" s="81"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="81"/>
     </row>
     <row r="84">
       <c r="A84" s="72"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
       <c r="D84" s="75"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="83"/>
-      <c r="H84" s="83"/>
-      <c r="I84" s="83"/>
-      <c r="J84" s="83"/>
-      <c r="K84" s="83"/>
-      <c r="L84" s="83"/>
-      <c r="M84" s="83"/>
-      <c r="N84" s="83"/>
-      <c r="O84" s="83"/>
-      <c r="P84" s="83"/>
-      <c r="Q84" s="83"/>
-      <c r="R84" s="83"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="81"/>
+      <c r="J84" s="81"/>
+      <c r="K84" s="81"/>
+      <c r="L84" s="81"/>
+      <c r="M84" s="81"/>
+      <c r="N84" s="81"/>
+      <c r="O84" s="81"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="81"/>
+      <c r="R84" s="81"/>
     </row>
     <row r="85">
       <c r="A85" s="72"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
       <c r="D85" s="75"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="83"/>
-      <c r="H85" s="83"/>
-      <c r="I85" s="83"/>
-      <c r="J85" s="83"/>
-      <c r="K85" s="83"/>
-      <c r="L85" s="83"/>
-      <c r="M85" s="83"/>
-      <c r="N85" s="83"/>
-      <c r="O85" s="83"/>
-      <c r="P85" s="83"/>
-      <c r="Q85" s="83"/>
-      <c r="R85" s="83"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+      <c r="M85" s="81"/>
+      <c r="N85" s="81"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="81"/>
+      <c r="R85" s="81"/>
     </row>
     <row r="86">
       <c r="A86" s="72"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
       <c r="D86" s="75"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="83"/>
-      <c r="H86" s="83"/>
-      <c r="I86" s="83"/>
-      <c r="J86" s="83"/>
-      <c r="K86" s="83"/>
-      <c r="L86" s="83"/>
-      <c r="M86" s="83"/>
-      <c r="N86" s="83"/>
-      <c r="O86" s="83"/>
-      <c r="P86" s="83"/>
-      <c r="Q86" s="83"/>
-      <c r="R86" s="83"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+      <c r="K86" s="81"/>
+      <c r="L86" s="81"/>
+      <c r="M86" s="81"/>
+      <c r="N86" s="81"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="81"/>
+      <c r="R86" s="81"/>
     </row>
     <row r="87">
       <c r="A87" s="72"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
       <c r="D87" s="75"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="83"/>
-      <c r="H87" s="83"/>
-      <c r="I87" s="83"/>
-      <c r="J87" s="83"/>
-      <c r="K87" s="83"/>
-      <c r="L87" s="83"/>
-      <c r="M87" s="83"/>
-      <c r="N87" s="83"/>
-      <c r="O87" s="83"/>
-      <c r="P87" s="83"/>
-      <c r="Q87" s="83"/>
-      <c r="R87" s="83"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
+      <c r="J87" s="81"/>
+      <c r="K87" s="81"/>
+      <c r="L87" s="81"/>
+      <c r="M87" s="81"/>
+      <c r="N87" s="81"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="81"/>
+      <c r="R87" s="81"/>
     </row>
     <row r="88">
       <c r="A88" s="72"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
       <c r="D88" s="75"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="83"/>
-      <c r="I88" s="83"/>
-      <c r="J88" s="83"/>
-      <c r="K88" s="83"/>
-      <c r="L88" s="83"/>
-      <c r="M88" s="83"/>
-      <c r="N88" s="83"/>
-      <c r="O88" s="83"/>
-      <c r="P88" s="83"/>
-      <c r="Q88" s="83"/>
-      <c r="R88" s="83"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
+      <c r="J88" s="81"/>
+      <c r="K88" s="81"/>
+      <c r="L88" s="81"/>
+      <c r="M88" s="81"/>
+      <c r="N88" s="81"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="81"/>
+      <c r="R88" s="81"/>
     </row>
     <row r="89">
       <c r="A89" s="72"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
       <c r="D89" s="75"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="83"/>
-      <c r="H89" s="83"/>
-      <c r="I89" s="83"/>
-      <c r="J89" s="83"/>
-      <c r="K89" s="83"/>
-      <c r="L89" s="83"/>
-      <c r="M89" s="83"/>
-      <c r="N89" s="83"/>
-      <c r="O89" s="83"/>
-      <c r="P89" s="83"/>
-      <c r="Q89" s="83"/>
-      <c r="R89" s="83"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
+      <c r="J89" s="81"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="81"/>
+      <c r="M89" s="81"/>
+      <c r="N89" s="81"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="81"/>
+      <c r="R89" s="81"/>
     </row>
     <row r="90">
       <c r="A90" s="72"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
       <c r="D90" s="75"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="83"/>
-      <c r="H90" s="83"/>
-      <c r="I90" s="83"/>
-      <c r="J90" s="83"/>
-      <c r="K90" s="83"/>
-      <c r="L90" s="83"/>
-      <c r="M90" s="83"/>
-      <c r="N90" s="83"/>
-      <c r="O90" s="83"/>
-      <c r="P90" s="83"/>
-      <c r="Q90" s="83"/>
-      <c r="R90" s="83"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
+      <c r="J90" s="81"/>
+      <c r="K90" s="81"/>
+      <c r="L90" s="81"/>
+      <c r="M90" s="81"/>
+      <c r="N90" s="81"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="81"/>
+      <c r="R90" s="81"/>
     </row>
     <row r="91">
       <c r="A91" s="72"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
       <c r="D91" s="75"/>
-      <c r="E91" s="83"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="83"/>
-      <c r="H91" s="83"/>
-      <c r="I91" s="83"/>
-      <c r="J91" s="83"/>
-      <c r="K91" s="83"/>
-      <c r="L91" s="83"/>
-      <c r="M91" s="83"/>
-      <c r="N91" s="83"/>
-      <c r="O91" s="83"/>
-      <c r="P91" s="83"/>
-      <c r="Q91" s="83"/>
-      <c r="R91" s="83"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
+      <c r="J91" s="81"/>
+      <c r="K91" s="81"/>
+      <c r="L91" s="81"/>
+      <c r="M91" s="81"/>
+      <c r="N91" s="81"/>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="81"/>
+      <c r="R91" s="81"/>
     </row>
     <row r="92">
       <c r="A92" s="72"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
       <c r="D92" s="75"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="83"/>
-      <c r="H92" s="83"/>
-      <c r="I92" s="83"/>
-      <c r="J92" s="83"/>
-      <c r="K92" s="83"/>
-      <c r="L92" s="83"/>
-      <c r="M92" s="83"/>
-      <c r="N92" s="83"/>
-      <c r="O92" s="83"/>
-      <c r="P92" s="83"/>
-      <c r="Q92" s="83"/>
-      <c r="R92" s="83"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+      <c r="M92" s="81"/>
+      <c r="N92" s="81"/>
+      <c r="O92" s="81"/>
+      <c r="P92" s="81"/>
+      <c r="Q92" s="81"/>
+      <c r="R92" s="81"/>
     </row>
     <row r="93">
       <c r="A93" s="72"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
       <c r="D93" s="75"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="83"/>
-      <c r="H93" s="83"/>
-      <c r="I93" s="83"/>
-      <c r="J93" s="83"/>
-      <c r="K93" s="83"/>
-      <c r="L93" s="83"/>
-      <c r="M93" s="83"/>
-      <c r="N93" s="83"/>
-      <c r="O93" s="83"/>
-      <c r="P93" s="83"/>
-      <c r="Q93" s="83"/>
-      <c r="R93" s="83"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
+      <c r="J93" s="81"/>
+      <c r="K93" s="81"/>
+      <c r="L93" s="81"/>
+      <c r="M93" s="81"/>
+      <c r="N93" s="81"/>
+      <c r="O93" s="81"/>
+      <c r="P93" s="81"/>
+      <c r="Q93" s="81"/>
+      <c r="R93" s="81"/>
     </row>
     <row r="94">
       <c r="A94" s="72"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
       <c r="D94" s="75"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="83"/>
-      <c r="H94" s="83"/>
-      <c r="I94" s="83"/>
-      <c r="J94" s="83"/>
-      <c r="K94" s="83"/>
-      <c r="L94" s="83"/>
-      <c r="M94" s="83"/>
-      <c r="N94" s="83"/>
-      <c r="O94" s="83"/>
-      <c r="P94" s="83"/>
-      <c r="Q94" s="83"/>
-      <c r="R94" s="83"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="81"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="81"/>
+      <c r="J94" s="81"/>
+      <c r="K94" s="81"/>
+      <c r="L94" s="81"/>
+      <c r="M94" s="81"/>
+      <c r="N94" s="81"/>
+      <c r="O94" s="81"/>
+      <c r="P94" s="81"/>
+      <c r="Q94" s="81"/>
+      <c r="R94" s="81"/>
     </row>
     <row r="95">
       <c r="A95" s="72"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
       <c r="D95" s="75"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="83"/>
-      <c r="G95" s="83"/>
-      <c r="H95" s="83"/>
-      <c r="I95" s="83"/>
-      <c r="J95" s="83"/>
-      <c r="K95" s="83"/>
-      <c r="L95" s="83"/>
-      <c r="M95" s="83"/>
-      <c r="N95" s="83"/>
-      <c r="O95" s="83"/>
-      <c r="P95" s="83"/>
-      <c r="Q95" s="83"/>
-      <c r="R95" s="83"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="81"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
+      <c r="J95" s="81"/>
+      <c r="K95" s="81"/>
+      <c r="L95" s="81"/>
+      <c r="M95" s="81"/>
+      <c r="N95" s="81"/>
+      <c r="O95" s="81"/>
+      <c r="P95" s="81"/>
+      <c r="Q95" s="81"/>
+      <c r="R95" s="81"/>
     </row>
     <row r="96">
       <c r="A96" s="72"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
       <c r="D96" s="75"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="83"/>
-      <c r="G96" s="83"/>
-      <c r="H96" s="83"/>
-      <c r="I96" s="83"/>
-      <c r="J96" s="83"/>
-      <c r="K96" s="83"/>
-      <c r="L96" s="83"/>
-      <c r="M96" s="83"/>
-      <c r="N96" s="83"/>
-      <c r="O96" s="83"/>
-      <c r="P96" s="83"/>
-      <c r="Q96" s="83"/>
-      <c r="R96" s="83"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="81"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="81"/>
+      <c r="J96" s="81"/>
+      <c r="K96" s="81"/>
+      <c r="L96" s="81"/>
+      <c r="M96" s="81"/>
+      <c r="N96" s="81"/>
+      <c r="O96" s="81"/>
+      <c r="P96" s="81"/>
+      <c r="Q96" s="81"/>
+      <c r="R96" s="81"/>
     </row>
     <row r="97">
       <c r="A97" s="72"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
       <c r="D97" s="75"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="83"/>
-      <c r="G97" s="83"/>
-      <c r="H97" s="83"/>
-      <c r="I97" s="83"/>
-      <c r="J97" s="83"/>
-      <c r="K97" s="83"/>
-      <c r="L97" s="83"/>
-      <c r="M97" s="83"/>
-      <c r="N97" s="83"/>
-      <c r="O97" s="83"/>
-      <c r="P97" s="83"/>
-      <c r="Q97" s="83"/>
-      <c r="R97" s="83"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="81"/>
+      <c r="M97" s="81"/>
+      <c r="N97" s="81"/>
+      <c r="O97" s="81"/>
+      <c r="P97" s="81"/>
+      <c r="Q97" s="81"/>
+      <c r="R97" s="81"/>
     </row>
     <row r="98">
       <c r="A98" s="72"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
       <c r="D98" s="75"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
-      <c r="G98" s="83"/>
-      <c r="H98" s="83"/>
-      <c r="I98" s="83"/>
-      <c r="J98" s="83"/>
-      <c r="K98" s="83"/>
-      <c r="L98" s="83"/>
-      <c r="M98" s="83"/>
-      <c r="N98" s="83"/>
-      <c r="O98" s="83"/>
-      <c r="P98" s="83"/>
-      <c r="Q98" s="83"/>
-      <c r="R98" s="83"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="81"/>
+      <c r="J98" s="81"/>
+      <c r="K98" s="81"/>
+      <c r="L98" s="81"/>
+      <c r="M98" s="81"/>
+      <c r="N98" s="81"/>
+      <c r="O98" s="81"/>
+      <c r="P98" s="81"/>
+      <c r="Q98" s="81"/>
+      <c r="R98" s="81"/>
     </row>
     <row r="99">
       <c r="A99" s="72"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
       <c r="D99" s="75"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="83"/>
-      <c r="G99" s="83"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="83"/>
-      <c r="J99" s="83"/>
-      <c r="K99" s="83"/>
-      <c r="L99" s="83"/>
-      <c r="M99" s="83"/>
-      <c r="N99" s="83"/>
-      <c r="O99" s="83"/>
-      <c r="P99" s="83"/>
-      <c r="Q99" s="83"/>
-      <c r="R99" s="83"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
+      <c r="J99" s="81"/>
+      <c r="K99" s="81"/>
+      <c r="L99" s="81"/>
+      <c r="M99" s="81"/>
+      <c r="N99" s="81"/>
+      <c r="O99" s="81"/>
+      <c r="P99" s="81"/>
+      <c r="Q99" s="81"/>
+      <c r="R99" s="81"/>
     </row>
     <row r="100">
       <c r="A100" s="72"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
       <c r="D100" s="75"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="83"/>
-      <c r="G100" s="83"/>
-      <c r="H100" s="83"/>
-      <c r="I100" s="83"/>
-      <c r="J100" s="83"/>
-      <c r="K100" s="83"/>
-      <c r="L100" s="83"/>
-      <c r="M100" s="83"/>
-      <c r="N100" s="83"/>
-      <c r="O100" s="83"/>
-      <c r="P100" s="83"/>
-      <c r="Q100" s="83"/>
-      <c r="R100" s="83"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="81"/>
+      <c r="H100" s="81"/>
+      <c r="I100" s="81"/>
+      <c r="J100" s="81"/>
+      <c r="K100" s="81"/>
+      <c r="L100" s="81"/>
+      <c r="M100" s="81"/>
+      <c r="N100" s="81"/>
+      <c r="O100" s="81"/>
+      <c r="P100" s="81"/>
+      <c r="Q100" s="81"/>
+      <c r="R100" s="81"/>
     </row>
     <row r="101">
       <c r="A101" s="72"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
       <c r="D101" s="75"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
-      <c r="G101" s="83"/>
-      <c r="H101" s="83"/>
-      <c r="I101" s="83"/>
-      <c r="J101" s="83"/>
-      <c r="K101" s="83"/>
-      <c r="L101" s="83"/>
-      <c r="M101" s="83"/>
-      <c r="N101" s="83"/>
-      <c r="O101" s="83"/>
-      <c r="P101" s="83"/>
-      <c r="Q101" s="83"/>
-      <c r="R101" s="83"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
+      <c r="J101" s="81"/>
+      <c r="K101" s="81"/>
+      <c r="L101" s="81"/>
+      <c r="M101" s="81"/>
+      <c r="N101" s="81"/>
+      <c r="O101" s="81"/>
+      <c r="P101" s="81"/>
+      <c r="Q101" s="81"/>
+      <c r="R101" s="81"/>
     </row>
     <row r="102">
       <c r="A102" s="72"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
       <c r="D102" s="75"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
-      <c r="G102" s="83"/>
-      <c r="H102" s="83"/>
-      <c r="I102" s="83"/>
-      <c r="J102" s="83"/>
-      <c r="K102" s="83"/>
-      <c r="L102" s="83"/>
-      <c r="M102" s="83"/>
-      <c r="N102" s="83"/>
-      <c r="O102" s="83"/>
-      <c r="P102" s="83"/>
-      <c r="Q102" s="83"/>
-      <c r="R102" s="83"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="81"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
+      <c r="J102" s="81"/>
+      <c r="K102" s="81"/>
+      <c r="L102" s="81"/>
+      <c r="M102" s="81"/>
+      <c r="N102" s="81"/>
+      <c r="O102" s="81"/>
+      <c r="P102" s="81"/>
+      <c r="Q102" s="81"/>
+      <c r="R102" s="81"/>
     </row>
     <row r="103">
       <c r="A103" s="72"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
       <c r="D103" s="75"/>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
-      <c r="G103" s="83"/>
-      <c r="H103" s="83"/>
-      <c r="I103" s="83"/>
-      <c r="J103" s="83"/>
-      <c r="K103" s="83"/>
-      <c r="L103" s="83"/>
-      <c r="M103" s="83"/>
-      <c r="N103" s="83"/>
-      <c r="O103" s="83"/>
-      <c r="P103" s="83"/>
-      <c r="Q103" s="83"/>
-      <c r="R103" s="83"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="81"/>
+      <c r="K103" s="81"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="81"/>
+      <c r="N103" s="81"/>
+      <c r="O103" s="81"/>
+      <c r="P103" s="81"/>
+      <c r="Q103" s="81"/>
+      <c r="R103" s="81"/>
     </row>
     <row r="104">
       <c r="A104" s="72"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
       <c r="D104" s="75"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="83"/>
-      <c r="H104" s="83"/>
-      <c r="I104" s="83"/>
-      <c r="J104" s="83"/>
-      <c r="K104" s="83"/>
-      <c r="L104" s="83"/>
-      <c r="M104" s="83"/>
-      <c r="N104" s="83"/>
-      <c r="O104" s="83"/>
-      <c r="P104" s="83"/>
-      <c r="Q104" s="83"/>
-      <c r="R104" s="83"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="81"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+      <c r="M104" s="81"/>
+      <c r="N104" s="81"/>
+      <c r="O104" s="81"/>
+      <c r="P104" s="81"/>
+      <c r="Q104" s="81"/>
+      <c r="R104" s="81"/>
     </row>
     <row r="105">
       <c r="A105" s="72"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
       <c r="D105" s="75"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="83"/>
-      <c r="G105" s="83"/>
-      <c r="H105" s="83"/>
-      <c r="I105" s="83"/>
-      <c r="J105" s="83"/>
-      <c r="K105" s="83"/>
-      <c r="L105" s="83"/>
-      <c r="M105" s="83"/>
-      <c r="N105" s="83"/>
-      <c r="O105" s="83"/>
-      <c r="P105" s="83"/>
-      <c r="Q105" s="83"/>
-      <c r="R105" s="83"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="81"/>
+      <c r="L105" s="81"/>
+      <c r="M105" s="81"/>
+      <c r="N105" s="81"/>
+      <c r="O105" s="81"/>
+      <c r="P105" s="81"/>
+      <c r="Q105" s="81"/>
+      <c r="R105" s="81"/>
     </row>
     <row r="106">
       <c r="A106" s="72"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
       <c r="D106" s="75"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="83"/>
-      <c r="G106" s="83"/>
-      <c r="H106" s="83"/>
-      <c r="I106" s="83"/>
-      <c r="J106" s="83"/>
-      <c r="K106" s="83"/>
-      <c r="L106" s="83"/>
-      <c r="M106" s="83"/>
-      <c r="N106" s="83"/>
-      <c r="O106" s="83"/>
-      <c r="P106" s="83"/>
-      <c r="Q106" s="83"/>
-      <c r="R106" s="83"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="81"/>
+      <c r="L106" s="81"/>
+      <c r="M106" s="81"/>
+      <c r="N106" s="81"/>
+      <c r="O106" s="81"/>
+      <c r="P106" s="81"/>
+      <c r="Q106" s="81"/>
+      <c r="R106" s="81"/>
     </row>
     <row r="107">
       <c r="A107" s="72"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
       <c r="D107" s="75"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
-      <c r="J107" s="83"/>
-      <c r="K107" s="83"/>
-      <c r="L107" s="83"/>
-      <c r="M107" s="83"/>
-      <c r="N107" s="83"/>
-      <c r="O107" s="83"/>
-      <c r="P107" s="83"/>
-      <c r="Q107" s="83"/>
-      <c r="R107" s="83"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="81"/>
+      <c r="J107" s="81"/>
+      <c r="K107" s="81"/>
+      <c r="L107" s="81"/>
+      <c r="M107" s="81"/>
+      <c r="N107" s="81"/>
+      <c r="O107" s="81"/>
+      <c r="P107" s="81"/>
+      <c r="Q107" s="81"/>
+      <c r="R107" s="81"/>
     </row>
     <row r="108">
       <c r="A108" s="72"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
       <c r="D108" s="75"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="83"/>
-      <c r="G108" s="83"/>
-      <c r="H108" s="83"/>
-      <c r="I108" s="83"/>
-      <c r="J108" s="83"/>
-      <c r="K108" s="83"/>
-      <c r="L108" s="83"/>
-      <c r="M108" s="83"/>
-      <c r="N108" s="83"/>
-      <c r="O108" s="83"/>
-      <c r="P108" s="83"/>
-      <c r="Q108" s="83"/>
-      <c r="R108" s="83"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="81"/>
+      <c r="L108" s="81"/>
+      <c r="M108" s="81"/>
+      <c r="N108" s="81"/>
+      <c r="O108" s="81"/>
+      <c r="P108" s="81"/>
+      <c r="Q108" s="81"/>
+      <c r="R108" s="81"/>
     </row>
     <row r="109">
       <c r="A109" s="72"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
       <c r="D109" s="75"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="83"/>
-      <c r="G109" s="83"/>
-      <c r="H109" s="83"/>
-      <c r="I109" s="83"/>
-      <c r="J109" s="83"/>
-      <c r="K109" s="83"/>
-      <c r="L109" s="83"/>
-      <c r="M109" s="83"/>
-      <c r="N109" s="83"/>
-      <c r="O109" s="83"/>
-      <c r="P109" s="83"/>
-      <c r="Q109" s="83"/>
-      <c r="R109" s="83"/>
+      <c r="E109" s="81"/>
+      <c r="F109" s="81"/>
+      <c r="G109" s="81"/>
+      <c r="H109" s="81"/>
+      <c r="I109" s="81"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="81"/>
+      <c r="L109" s="81"/>
+      <c r="M109" s="81"/>
+      <c r="N109" s="81"/>
+      <c r="O109" s="81"/>
+      <c r="P109" s="81"/>
+      <c r="Q109" s="81"/>
+      <c r="R109" s="81"/>
     </row>
     <row r="110">
       <c r="A110" s="72"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
       <c r="D110" s="75"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-      <c r="H110" s="83"/>
-      <c r="I110" s="83"/>
-      <c r="J110" s="83"/>
-      <c r="K110" s="83"/>
-      <c r="L110" s="83"/>
-      <c r="M110" s="83"/>
-      <c r="N110" s="83"/>
-      <c r="O110" s="83"/>
-      <c r="P110" s="83"/>
-      <c r="Q110" s="83"/>
-      <c r="R110" s="83"/>
+      <c r="E110" s="81"/>
+      <c r="F110" s="81"/>
+      <c r="G110" s="81"/>
+      <c r="H110" s="81"/>
+      <c r="I110" s="81"/>
+      <c r="J110" s="81"/>
+      <c r="K110" s="81"/>
+      <c r="L110" s="81"/>
+      <c r="M110" s="81"/>
+      <c r="N110" s="81"/>
+      <c r="O110" s="81"/>
+      <c r="P110" s="81"/>
+      <c r="Q110" s="81"/>
+      <c r="R110" s="81"/>
     </row>
     <row r="111">
       <c r="A111" s="72"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
       <c r="D111" s="75"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
-      <c r="G111" s="83"/>
-      <c r="H111" s="83"/>
-      <c r="I111" s="83"/>
-      <c r="J111" s="83"/>
-      <c r="K111" s="83"/>
-      <c r="L111" s="83"/>
-      <c r="M111" s="83"/>
-      <c r="N111" s="83"/>
-      <c r="O111" s="83"/>
-      <c r="P111" s="83"/>
-      <c r="Q111" s="83"/>
-      <c r="R111" s="83"/>
+      <c r="E111" s="81"/>
+      <c r="F111" s="81"/>
+      <c r="G111" s="81"/>
+      <c r="H111" s="81"/>
+      <c r="I111" s="81"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="81"/>
+      <c r="L111" s="81"/>
+      <c r="M111" s="81"/>
+      <c r="N111" s="81"/>
+      <c r="O111" s="81"/>
+      <c r="P111" s="81"/>
+      <c r="Q111" s="81"/>
+      <c r="R111" s="81"/>
     </row>
     <row r="112">
       <c r="A112" s="72"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
       <c r="D112" s="75"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="83"/>
-      <c r="H112" s="83"/>
-      <c r="I112" s="83"/>
-      <c r="J112" s="83"/>
-      <c r="K112" s="83"/>
-      <c r="L112" s="83"/>
-      <c r="M112" s="83"/>
-      <c r="N112" s="83"/>
-      <c r="O112" s="83"/>
-      <c r="P112" s="83"/>
-      <c r="Q112" s="83"/>
-      <c r="R112" s="83"/>
+      <c r="E112" s="81"/>
+      <c r="F112" s="81"/>
+      <c r="G112" s="81"/>
+      <c r="H112" s="81"/>
+      <c r="I112" s="81"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="81"/>
+      <c r="L112" s="81"/>
+      <c r="M112" s="81"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
     </row>
     <row r="113">
       <c r="A113" s="72"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
       <c r="D113" s="75"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
-      <c r="G113" s="83"/>
-      <c r="H113" s="83"/>
-      <c r="I113" s="83"/>
-      <c r="J113" s="83"/>
-      <c r="K113" s="83"/>
-      <c r="L113" s="83"/>
-      <c r="M113" s="83"/>
-      <c r="N113" s="83"/>
-      <c r="O113" s="83"/>
-      <c r="P113" s="83"/>
-      <c r="Q113" s="83"/>
-      <c r="R113" s="83"/>
+      <c r="E113" s="81"/>
+      <c r="F113" s="81"/>
+      <c r="G113" s="81"/>
+      <c r="H113" s="81"/>
+      <c r="I113" s="81"/>
+      <c r="J113" s="81"/>
+      <c r="K113" s="81"/>
+      <c r="L113" s="81"/>
+      <c r="M113" s="81"/>
+      <c r="N113" s="81"/>
+      <c r="O113" s="81"/>
+      <c r="P113" s="81"/>
+      <c r="Q113" s="81"/>
+      <c r="R113" s="81"/>
     </row>
     <row r="114">
       <c r="A114" s="72"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
       <c r="D114" s="75"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="83"/>
-      <c r="I114" s="83"/>
-      <c r="J114" s="83"/>
-      <c r="K114" s="83"/>
-      <c r="L114" s="83"/>
-      <c r="M114" s="83"/>
-      <c r="N114" s="83"/>
-      <c r="O114" s="83"/>
-      <c r="P114" s="83"/>
-      <c r="Q114" s="83"/>
-      <c r="R114" s="83"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="81"/>
+      <c r="G114" s="81"/>
+      <c r="H114" s="81"/>
+      <c r="I114" s="81"/>
+      <c r="J114" s="81"/>
+      <c r="K114" s="81"/>
+      <c r="L114" s="81"/>
+      <c r="M114" s="81"/>
+      <c r="N114" s="81"/>
+      <c r="O114" s="81"/>
+      <c r="P114" s="81"/>
+      <c r="Q114" s="81"/>
+      <c r="R114" s="81"/>
     </row>
     <row r="115">
       <c r="A115" s="72"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
       <c r="D115" s="75"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-      <c r="H115" s="83"/>
-      <c r="I115" s="83"/>
-      <c r="J115" s="83"/>
-      <c r="K115" s="83"/>
-      <c r="L115" s="83"/>
-      <c r="M115" s="83"/>
-      <c r="N115" s="83"/>
-      <c r="O115" s="83"/>
-      <c r="P115" s="83"/>
-      <c r="Q115" s="83"/>
-      <c r="R115" s="83"/>
+      <c r="E115" s="81"/>
+      <c r="F115" s="81"/>
+      <c r="G115" s="81"/>
+      <c r="H115" s="81"/>
+      <c r="I115" s="81"/>
+      <c r="J115" s="81"/>
+      <c r="K115" s="81"/>
+      <c r="L115" s="81"/>
+      <c r="M115" s="81"/>
+      <c r="N115" s="81"/>
+      <c r="O115" s="81"/>
+      <c r="P115" s="81"/>
+      <c r="Q115" s="81"/>
+      <c r="R115" s="81"/>
     </row>
     <row r="116">
       <c r="A116" s="72"/>
       <c r="B116" s="75"/>
       <c r="C116" s="75"/>
       <c r="D116" s="75"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="83"/>
-      <c r="H116" s="83"/>
-      <c r="I116" s="83"/>
-      <c r="J116" s="83"/>
-      <c r="K116" s="83"/>
-      <c r="L116" s="83"/>
-      <c r="M116" s="83"/>
-      <c r="N116" s="83"/>
-      <c r="O116" s="83"/>
-      <c r="P116" s="83"/>
-      <c r="Q116" s="83"/>
-      <c r="R116" s="83"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="81"/>
+      <c r="G116" s="81"/>
+      <c r="H116" s="81"/>
+      <c r="I116" s="81"/>
+      <c r="J116" s="81"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="81"/>
+      <c r="M116" s="81"/>
+      <c r="N116" s="81"/>
+      <c r="O116" s="81"/>
+      <c r="P116" s="81"/>
+      <c r="Q116" s="81"/>
+      <c r="R116" s="81"/>
     </row>
     <row r="117">
       <c r="A117" s="72"/>
       <c r="B117" s="75"/>
       <c r="C117" s="75"/>
       <c r="D117" s="75"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="83"/>
-      <c r="H117" s="83"/>
-      <c r="I117" s="83"/>
-      <c r="J117" s="83"/>
-      <c r="K117" s="83"/>
-      <c r="L117" s="83"/>
-      <c r="M117" s="83"/>
-      <c r="N117" s="83"/>
-      <c r="O117" s="83"/>
-      <c r="P117" s="83"/>
-      <c r="Q117" s="83"/>
-      <c r="R117" s="83"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="81"/>
+      <c r="G117" s="81"/>
+      <c r="H117" s="81"/>
+      <c r="I117" s="81"/>
+      <c r="J117" s="81"/>
+      <c r="K117" s="81"/>
+      <c r="L117" s="81"/>
+      <c r="M117" s="81"/>
+      <c r="N117" s="81"/>
+      <c r="O117" s="81"/>
+      <c r="P117" s="81"/>
+      <c r="Q117" s="81"/>
+      <c r="R117" s="81"/>
     </row>
     <row r="118">
       <c r="A118" s="72"/>
       <c r="B118" s="75"/>
       <c r="C118" s="75"/>
       <c r="D118" s="75"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="83"/>
-      <c r="G118" s="83"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="83"/>
-      <c r="J118" s="83"/>
-      <c r="K118" s="83"/>
-      <c r="L118" s="83"/>
-      <c r="M118" s="83"/>
-      <c r="N118" s="83"/>
-      <c r="O118" s="83"/>
-      <c r="P118" s="83"/>
-      <c r="Q118" s="83"/>
-      <c r="R118" s="83"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="81"/>
+      <c r="I118" s="81"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="81"/>
+      <c r="M118" s="81"/>
+      <c r="N118" s="81"/>
+      <c r="O118" s="81"/>
+      <c r="P118" s="81"/>
+      <c r="Q118" s="81"/>
+      <c r="R118" s="81"/>
     </row>
     <row r="119">
       <c r="A119" s="72"/>
       <c r="B119" s="75"/>
       <c r="C119" s="75"/>
       <c r="D119" s="75"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
-      <c r="G119" s="83"/>
-      <c r="H119" s="83"/>
-      <c r="I119" s="83"/>
-      <c r="J119" s="83"/>
-      <c r="K119" s="83"/>
-      <c r="L119" s="83"/>
-      <c r="M119" s="83"/>
-      <c r="N119" s="83"/>
-      <c r="O119" s="83"/>
-      <c r="P119" s="83"/>
-      <c r="Q119" s="83"/>
-      <c r="R119" s="83"/>
+      <c r="E119" s="81"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="81"/>
+      <c r="I119" s="81"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="81"/>
+      <c r="L119" s="81"/>
+      <c r="M119" s="81"/>
+      <c r="N119" s="81"/>
+      <c r="O119" s="81"/>
+      <c r="P119" s="81"/>
+      <c r="Q119" s="81"/>
+      <c r="R119" s="81"/>
     </row>
     <row r="120">
       <c r="A120" s="72"/>
       <c r="B120" s="75"/>
       <c r="C120" s="75"/>
       <c r="D120" s="75"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
-      <c r="G120" s="83"/>
-      <c r="H120" s="83"/>
-      <c r="I120" s="83"/>
-      <c r="J120" s="83"/>
-      <c r="K120" s="83"/>
-      <c r="L120" s="83"/>
-      <c r="M120" s="83"/>
-      <c r="N120" s="83"/>
-      <c r="O120" s="83"/>
-      <c r="P120" s="83"/>
-      <c r="Q120" s="83"/>
-      <c r="R120" s="83"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="81"/>
+      <c r="G120" s="81"/>
+      <c r="H120" s="81"/>
+      <c r="I120" s="81"/>
+      <c r="J120" s="81"/>
+      <c r="K120" s="81"/>
+      <c r="L120" s="81"/>
+      <c r="M120" s="81"/>
+      <c r="N120" s="81"/>
+      <c r="O120" s="81"/>
+      <c r="P120" s="81"/>
+      <c r="Q120" s="81"/>
+      <c r="R120" s="81"/>
     </row>
     <row r="121">
       <c r="A121" s="72"/>
       <c r="B121" s="75"/>
       <c r="C121" s="75"/>
       <c r="D121" s="75"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
-      <c r="G121" s="83"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="83"/>
-      <c r="J121" s="83"/>
-      <c r="K121" s="83"/>
-      <c r="L121" s="83"/>
-      <c r="M121" s="83"/>
-      <c r="N121" s="83"/>
-      <c r="O121" s="83"/>
-      <c r="P121" s="83"/>
-      <c r="Q121" s="83"/>
-      <c r="R121" s="83"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="81"/>
+      <c r="G121" s="81"/>
+      <c r="H121" s="81"/>
+      <c r="I121" s="81"/>
+      <c r="J121" s="81"/>
+      <c r="K121" s="81"/>
+      <c r="L121" s="81"/>
+      <c r="M121" s="81"/>
+      <c r="N121" s="81"/>
+      <c r="O121" s="81"/>
+      <c r="P121" s="81"/>
+      <c r="Q121" s="81"/>
+      <c r="R121" s="81"/>
     </row>
     <row r="122">
       <c r="A122" s="72"/>
       <c r="B122" s="75"/>
       <c r="C122" s="75"/>
       <c r="D122" s="75"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
-      <c r="G122" s="83"/>
-      <c r="H122" s="83"/>
-      <c r="I122" s="83"/>
-      <c r="J122" s="83"/>
-      <c r="K122" s="83"/>
-      <c r="L122" s="83"/>
-      <c r="M122" s="83"/>
-      <c r="N122" s="83"/>
-      <c r="O122" s="83"/>
-      <c r="P122" s="83"/>
-      <c r="Q122" s="83"/>
-      <c r="R122" s="83"/>
+      <c r="E122" s="81"/>
+      <c r="F122" s="81"/>
+      <c r="G122" s="81"/>
+      <c r="H122" s="81"/>
+      <c r="I122" s="81"/>
+      <c r="J122" s="81"/>
+      <c r="K122" s="81"/>
+      <c r="L122" s="81"/>
+      <c r="M122" s="81"/>
+      <c r="N122" s="81"/>
+      <c r="O122" s="81"/>
+      <c r="P122" s="81"/>
+      <c r="Q122" s="81"/>
+      <c r="R122" s="81"/>
     </row>
     <row r="123">
       <c r="A123" s="72"/>
       <c r="B123" s="75"/>
       <c r="C123" s="75"/>
       <c r="D123" s="75"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="83"/>
-      <c r="H123" s="83"/>
-      <c r="I123" s="83"/>
-      <c r="J123" s="83"/>
-      <c r="K123" s="83"/>
-      <c r="L123" s="83"/>
-      <c r="M123" s="83"/>
-      <c r="N123" s="83"/>
-      <c r="O123" s="83"/>
-      <c r="P123" s="83"/>
-      <c r="Q123" s="83"/>
-      <c r="R123" s="83"/>
+      <c r="E123" s="81"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
+      <c r="H123" s="81"/>
+      <c r="I123" s="81"/>
+      <c r="J123" s="81"/>
+      <c r="K123" s="81"/>
+      <c r="L123" s="81"/>
+      <c r="M123" s="81"/>
+      <c r="N123" s="81"/>
+      <c r="O123" s="81"/>
+      <c r="P123" s="81"/>
+      <c r="Q123" s="81"/>
+      <c r="R123" s="81"/>
     </row>
     <row r="124">
       <c r="A124" s="72"/>
       <c r="B124" s="75"/>
       <c r="C124" s="75"/>
       <c r="D124" s="75"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
-      <c r="G124" s="83"/>
-      <c r="H124" s="83"/>
-      <c r="I124" s="83"/>
-      <c r="J124" s="83"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="83"/>
-      <c r="M124" s="83"/>
-      <c r="N124" s="83"/>
-      <c r="O124" s="83"/>
-      <c r="P124" s="83"/>
-      <c r="Q124" s="83"/>
-      <c r="R124" s="83"/>
+      <c r="E124" s="81"/>
+      <c r="F124" s="81"/>
+      <c r="G124" s="81"/>
+      <c r="H124" s="81"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="81"/>
+      <c r="K124" s="81"/>
+      <c r="L124" s="81"/>
+      <c r="M124" s="81"/>
+      <c r="N124" s="81"/>
+      <c r="O124" s="81"/>
+      <c r="P124" s="81"/>
+      <c r="Q124" s="81"/>
+      <c r="R124" s="81"/>
     </row>
     <row r="125">
       <c r="A125" s="72"/>
       <c r="B125" s="75"/>
       <c r="C125" s="75"/>
       <c r="D125" s="75"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
-      <c r="G125" s="83"/>
-      <c r="H125" s="83"/>
-      <c r="I125" s="83"/>
-      <c r="J125" s="83"/>
-      <c r="K125" s="83"/>
-      <c r="L125" s="83"/>
-      <c r="M125" s="83"/>
-      <c r="N125" s="83"/>
-      <c r="O125" s="83"/>
-      <c r="P125" s="83"/>
-      <c r="Q125" s="83"/>
-      <c r="R125" s="83"/>
+      <c r="E125" s="81"/>
+      <c r="F125" s="81"/>
+      <c r="G125" s="81"/>
+      <c r="H125" s="81"/>
+      <c r="I125" s="81"/>
+      <c r="J125" s="81"/>
+      <c r="K125" s="81"/>
+      <c r="L125" s="81"/>
+      <c r="M125" s="81"/>
+      <c r="N125" s="81"/>
+      <c r="O125" s="81"/>
+      <c r="P125" s="81"/>
+      <c r="Q125" s="81"/>
+      <c r="R125" s="81"/>
     </row>
     <row r="126">
       <c r="A126" s="72"/>
       <c r="B126" s="75"/>
       <c r="C126" s="75"/>
       <c r="D126" s="75"/>
-      <c r="E126" s="83"/>
-      <c r="F126" s="83"/>
-      <c r="G126" s="83"/>
-      <c r="H126" s="83"/>
-      <c r="I126" s="83"/>
-      <c r="J126" s="83"/>
-      <c r="K126" s="83"/>
-      <c r="L126" s="83"/>
-      <c r="M126" s="83"/>
-      <c r="N126" s="83"/>
-      <c r="O126" s="83"/>
-      <c r="P126" s="83"/>
-      <c r="Q126" s="83"/>
-      <c r="R126" s="83"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="81"/>
+      <c r="H126" s="81"/>
+      <c r="I126" s="81"/>
+      <c r="J126" s="81"/>
+      <c r="K126" s="81"/>
+      <c r="L126" s="81"/>
+      <c r="M126" s="81"/>
+      <c r="N126" s="81"/>
+      <c r="O126" s="81"/>
+      <c r="P126" s="81"/>
+      <c r="Q126" s="81"/>
+      <c r="R126" s="81"/>
     </row>
     <row r="127">
       <c r="A127" s="72"/>
       <c r="B127" s="75"/>
       <c r="C127" s="75"/>
       <c r="D127" s="75"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="83"/>
-      <c r="G127" s="83"/>
-      <c r="H127" s="83"/>
-      <c r="I127" s="83"/>
-      <c r="J127" s="83"/>
-      <c r="K127" s="83"/>
-      <c r="L127" s="83"/>
-      <c r="M127" s="83"/>
-      <c r="N127" s="83"/>
-      <c r="O127" s="83"/>
-      <c r="P127" s="83"/>
-      <c r="Q127" s="83"/>
-      <c r="R127" s="83"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="81"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="81"/>
+      <c r="K127" s="81"/>
+      <c r="L127" s="81"/>
+      <c r="M127" s="81"/>
+      <c r="N127" s="81"/>
+      <c r="O127" s="81"/>
+      <c r="P127" s="81"/>
+      <c r="Q127" s="81"/>
+      <c r="R127" s="81"/>
     </row>
     <row r="128">
       <c r="A128" s="72"/>
       <c r="B128" s="75"/>
       <c r="C128" s="75"/>
       <c r="D128" s="75"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
-      <c r="G128" s="83"/>
-      <c r="H128" s="83"/>
-      <c r="I128" s="83"/>
-      <c r="J128" s="83"/>
-      <c r="K128" s="83"/>
-      <c r="L128" s="83"/>
-      <c r="M128" s="83"/>
-      <c r="N128" s="83"/>
-      <c r="O128" s="83"/>
-      <c r="P128" s="83"/>
-      <c r="Q128" s="83"/>
-      <c r="R128" s="83"/>
+      <c r="E128" s="81"/>
+      <c r="F128" s="81"/>
+      <c r="G128" s="81"/>
+      <c r="H128" s="81"/>
+      <c r="I128" s="81"/>
+      <c r="J128" s="81"/>
+      <c r="K128" s="81"/>
+      <c r="L128" s="81"/>
+      <c r="M128" s="81"/>
+      <c r="N128" s="81"/>
+      <c r="O128" s="81"/>
+      <c r="P128" s="81"/>
+      <c r="Q128" s="81"/>
+      <c r="R128" s="81"/>
     </row>
     <row r="129">
       <c r="A129" s="72"/>
       <c r="B129" s="75"/>
       <c r="C129" s="75"/>
       <c r="D129" s="75"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
-      <c r="G129" s="83"/>
-      <c r="H129" s="83"/>
-      <c r="I129" s="83"/>
-      <c r="J129" s="83"/>
-      <c r="K129" s="83"/>
-      <c r="L129" s="83"/>
-      <c r="M129" s="83"/>
-      <c r="N129" s="83"/>
-      <c r="O129" s="83"/>
-      <c r="P129" s="83"/>
-      <c r="Q129" s="83"/>
-      <c r="R129" s="83"/>
+      <c r="E129" s="81"/>
+      <c r="F129" s="81"/>
+      <c r="G129" s="81"/>
+      <c r="H129" s="81"/>
+      <c r="I129" s="81"/>
+      <c r="J129" s="81"/>
+      <c r="K129" s="81"/>
+      <c r="L129" s="81"/>
+      <c r="M129" s="81"/>
+      <c r="N129" s="81"/>
+      <c r="O129" s="81"/>
+      <c r="P129" s="81"/>
+      <c r="Q129" s="81"/>
+      <c r="R129" s="81"/>
     </row>
     <row r="130">
       <c r="A130" s="72"/>
       <c r="B130" s="75"/>
       <c r="C130" s="75"/>
       <c r="D130" s="75"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="83"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="83"/>
-      <c r="I130" s="83"/>
-      <c r="J130" s="83"/>
-      <c r="K130" s="83"/>
-      <c r="L130" s="83"/>
-      <c r="M130" s="83"/>
-      <c r="N130" s="83"/>
-      <c r="O130" s="83"/>
-      <c r="P130" s="83"/>
-      <c r="Q130" s="83"/>
-      <c r="R130" s="83"/>
+      <c r="E130" s="81"/>
+      <c r="F130" s="81"/>
+      <c r="G130" s="81"/>
+      <c r="H130" s="81"/>
+      <c r="I130" s="81"/>
+      <c r="J130" s="81"/>
+      <c r="K130" s="81"/>
+      <c r="L130" s="81"/>
+      <c r="M130" s="81"/>
+      <c r="N130" s="81"/>
+      <c r="O130" s="81"/>
+      <c r="P130" s="81"/>
+      <c r="Q130" s="81"/>
+      <c r="R130" s="81"/>
     </row>
     <row r="131">
       <c r="A131" s="72"/>
       <c r="B131" s="75"/>
       <c r="C131" s="75"/>
       <c r="D131" s="75"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="83"/>
-      <c r="H131" s="83"/>
-      <c r="I131" s="83"/>
-      <c r="J131" s="83"/>
-      <c r="K131" s="83"/>
-      <c r="L131" s="83"/>
-      <c r="M131" s="83"/>
-      <c r="N131" s="83"/>
-      <c r="O131" s="83"/>
-      <c r="P131" s="83"/>
-      <c r="Q131" s="83"/>
-      <c r="R131" s="83"/>
+      <c r="E131" s="81"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="81"/>
+      <c r="H131" s="81"/>
+      <c r="I131" s="81"/>
+      <c r="J131" s="81"/>
+      <c r="K131" s="81"/>
+      <c r="L131" s="81"/>
+      <c r="M131" s="81"/>
+      <c r="N131" s="81"/>
+      <c r="O131" s="81"/>
+      <c r="P131" s="81"/>
+      <c r="Q131" s="81"/>
+      <c r="R131" s="81"/>
     </row>
     <row r="132">
       <c r="A132" s="72"/>
       <c r="B132" s="75"/>
       <c r="C132" s="75"/>
       <c r="D132" s="75"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="83"/>
-      <c r="J132" s="83"/>
-      <c r="K132" s="83"/>
-      <c r="L132" s="83"/>
-      <c r="M132" s="83"/>
-      <c r="N132" s="83"/>
-      <c r="O132" s="83"/>
-      <c r="P132" s="83"/>
-      <c r="Q132" s="83"/>
-      <c r="R132" s="83"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="81"/>
+      <c r="G132" s="81"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81"/>
+      <c r="K132" s="81"/>
+      <c r="L132" s="81"/>
+      <c r="M132" s="81"/>
+      <c r="N132" s="81"/>
+      <c r="O132" s="81"/>
+      <c r="P132" s="81"/>
+      <c r="Q132" s="81"/>
+      <c r="R132" s="81"/>
     </row>
     <row r="133">
       <c r="A133" s="72"/>
       <c r="B133" s="75"/>
       <c r="C133" s="75"/>
       <c r="D133" s="75"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="83"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="83"/>
-      <c r="K133" s="83"/>
-      <c r="L133" s="83"/>
-      <c r="M133" s="83"/>
-      <c r="N133" s="83"/>
-      <c r="O133" s="83"/>
-      <c r="P133" s="83"/>
-      <c r="Q133" s="83"/>
-      <c r="R133" s="83"/>
+      <c r="E133" s="81"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="81"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="81"/>
+      <c r="J133" s="81"/>
+      <c r="K133" s="81"/>
+      <c r="L133" s="81"/>
+      <c r="M133" s="81"/>
+      <c r="N133" s="81"/>
+      <c r="O133" s="81"/>
+      <c r="P133" s="81"/>
+      <c r="Q133" s="81"/>
+      <c r="R133" s="81"/>
     </row>
     <row r="134">
       <c r="A134" s="72"/>
       <c r="B134" s="75"/>
       <c r="C134" s="75"/>
       <c r="D134" s="75"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
-      <c r="G134" s="83"/>
-      <c r="H134" s="83"/>
-      <c r="I134" s="83"/>
-      <c r="J134" s="83"/>
-      <c r="K134" s="83"/>
-      <c r="L134" s="83"/>
-      <c r="M134" s="83"/>
-      <c r="N134" s="83"/>
-      <c r="O134" s="83"/>
-      <c r="P134" s="83"/>
-      <c r="Q134" s="83"/>
-      <c r="R134" s="83"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81"/>
+      <c r="G134" s="81"/>
+      <c r="H134" s="81"/>
+      <c r="I134" s="81"/>
+      <c r="J134" s="81"/>
+      <c r="K134" s="81"/>
+      <c r="L134" s="81"/>
+      <c r="M134" s="81"/>
+      <c r="N134" s="81"/>
+      <c r="O134" s="81"/>
+      <c r="P134" s="81"/>
+      <c r="Q134" s="81"/>
+      <c r="R134" s="81"/>
     </row>
     <row r="135">
       <c r="A135" s="72"/>
       <c r="B135" s="75"/>
       <c r="C135" s="75"/>
       <c r="D135" s="75"/>
-      <c r="E135" s="83"/>
-      <c r="F135" s="83"/>
-      <c r="G135" s="83"/>
-      <c r="H135" s="83"/>
-      <c r="I135" s="83"/>
-      <c r="J135" s="83"/>
-      <c r="K135" s="83"/>
-      <c r="L135" s="83"/>
-      <c r="M135" s="83"/>
-      <c r="N135" s="83"/>
-      <c r="O135" s="83"/>
-      <c r="P135" s="83"/>
-      <c r="Q135" s="83"/>
-      <c r="R135" s="83"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="81"/>
+      <c r="H135" s="81"/>
+      <c r="I135" s="81"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="81"/>
+      <c r="L135" s="81"/>
+      <c r="M135" s="81"/>
+      <c r="N135" s="81"/>
+      <c r="O135" s="81"/>
+      <c r="P135" s="81"/>
+      <c r="Q135" s="81"/>
+      <c r="R135" s="81"/>
     </row>
     <row r="136">
       <c r="A136" s="72"/>
       <c r="B136" s="75"/>
       <c r="C136" s="75"/>
       <c r="D136" s="75"/>
-      <c r="E136" s="83"/>
-      <c r="F136" s="83"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="83"/>
-      <c r="I136" s="83"/>
-      <c r="J136" s="83"/>
-      <c r="K136" s="83"/>
-      <c r="L136" s="83"/>
-      <c r="M136" s="83"/>
-      <c r="N136" s="83"/>
-      <c r="O136" s="83"/>
-      <c r="P136" s="83"/>
-      <c r="Q136" s="83"/>
-      <c r="R136" s="83"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="81"/>
+      <c r="G136" s="81"/>
+      <c r="H136" s="81"/>
+      <c r="I136" s="81"/>
+      <c r="J136" s="81"/>
+      <c r="K136" s="81"/>
+      <c r="L136" s="81"/>
+      <c r="M136" s="81"/>
+      <c r="N136" s="81"/>
+      <c r="O136" s="81"/>
+      <c r="P136" s="81"/>
+      <c r="Q136" s="81"/>
+      <c r="R136" s="81"/>
     </row>
     <row r="137">
       <c r="A137" s="72"/>
       <c r="B137" s="75"/>
       <c r="C137" s="75"/>
       <c r="D137" s="75"/>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
-      <c r="G137" s="83"/>
-      <c r="H137" s="83"/>
-      <c r="I137" s="83"/>
-      <c r="J137" s="83"/>
-      <c r="K137" s="83"/>
-      <c r="L137" s="83"/>
-      <c r="M137" s="83"/>
-      <c r="N137" s="83"/>
-      <c r="O137" s="83"/>
-      <c r="P137" s="83"/>
-      <c r="Q137" s="83"/>
-      <c r="R137" s="83"/>
+      <c r="E137" s="81"/>
+      <c r="F137" s="81"/>
+      <c r="G137" s="81"/>
+      <c r="H137" s="81"/>
+      <c r="I137" s="81"/>
+      <c r="J137" s="81"/>
+      <c r="K137" s="81"/>
+      <c r="L137" s="81"/>
+      <c r="M137" s="81"/>
+      <c r="N137" s="81"/>
+      <c r="O137" s="81"/>
+      <c r="P137" s="81"/>
+      <c r="Q137" s="81"/>
+      <c r="R137" s="81"/>
     </row>
     <row r="138">
       <c r="A138" s="72"/>
       <c r="B138" s="75"/>
       <c r="C138" s="75"/>
       <c r="D138" s="75"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="83"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="83"/>
-      <c r="J138" s="83"/>
-      <c r="K138" s="83"/>
-      <c r="L138" s="83"/>
-      <c r="M138" s="83"/>
-      <c r="N138" s="83"/>
-      <c r="O138" s="83"/>
-      <c r="P138" s="83"/>
-      <c r="Q138" s="83"/>
-      <c r="R138" s="83"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="81"/>
+      <c r="G138" s="81"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="81"/>
+      <c r="K138" s="81"/>
+      <c r="L138" s="81"/>
+      <c r="M138" s="81"/>
+      <c r="N138" s="81"/>
+      <c r="O138" s="81"/>
+      <c r="P138" s="81"/>
+      <c r="Q138" s="81"/>
+      <c r="R138" s="81"/>
     </row>
     <row r="139">
       <c r="A139" s="72"/>
       <c r="B139" s="75"/>
       <c r="C139" s="75"/>
       <c r="D139" s="75"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="83"/>
-      <c r="H139" s="83"/>
-      <c r="I139" s="83"/>
-      <c r="J139" s="83"/>
-      <c r="K139" s="83"/>
-      <c r="L139" s="83"/>
-      <c r="M139" s="83"/>
-      <c r="N139" s="83"/>
-      <c r="O139" s="83"/>
-      <c r="P139" s="83"/>
-      <c r="Q139" s="83"/>
-      <c r="R139" s="83"/>
+      <c r="E139" s="81"/>
+      <c r="F139" s="81"/>
+      <c r="G139" s="81"/>
+      <c r="H139" s="81"/>
+      <c r="I139" s="81"/>
+      <c r="J139" s="81"/>
+      <c r="K139" s="81"/>
+      <c r="L139" s="81"/>
+      <c r="M139" s="81"/>
+      <c r="N139" s="81"/>
+      <c r="O139" s="81"/>
+      <c r="P139" s="81"/>
+      <c r="Q139" s="81"/>
+      <c r="R139" s="81"/>
     </row>
     <row r="140">
       <c r="A140" s="72"/>
       <c r="B140" s="75"/>
       <c r="C140" s="75"/>
       <c r="D140" s="75"/>
-      <c r="E140" s="83"/>
-      <c r="F140" s="83"/>
-      <c r="G140" s="83"/>
-      <c r="H140" s="83"/>
-      <c r="I140" s="83"/>
-      <c r="J140" s="83"/>
-      <c r="K140" s="83"/>
-      <c r="L140" s="83"/>
-      <c r="M140" s="83"/>
-      <c r="N140" s="83"/>
-      <c r="O140" s="83"/>
-      <c r="P140" s="83"/>
-      <c r="Q140" s="83"/>
-      <c r="R140" s="83"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81"/>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="81"/>
+      <c r="L140" s="81"/>
+      <c r="M140" s="81"/>
+      <c r="N140" s="81"/>
+      <c r="O140" s="81"/>
+      <c r="P140" s="81"/>
+      <c r="Q140" s="81"/>
+      <c r="R140" s="81"/>
     </row>
     <row r="141">
       <c r="A141" s="72"/>
       <c r="B141" s="75"/>
       <c r="C141" s="75"/>
       <c r="D141" s="75"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="83"/>
-      <c r="H141" s="83"/>
-      <c r="I141" s="83"/>
-      <c r="J141" s="83"/>
-      <c r="K141" s="83"/>
-      <c r="L141" s="83"/>
-      <c r="M141" s="83"/>
-      <c r="N141" s="83"/>
-      <c r="O141" s="83"/>
-      <c r="P141" s="83"/>
-      <c r="Q141" s="83"/>
-      <c r="R141" s="83"/>
+      <c r="E141" s="81"/>
+      <c r="F141" s="81"/>
+      <c r="G141" s="81"/>
+      <c r="H141" s="81"/>
+      <c r="I141" s="81"/>
+      <c r="J141" s="81"/>
+      <c r="K141" s="81"/>
+      <c r="L141" s="81"/>
+      <c r="M141" s="81"/>
+      <c r="N141" s="81"/>
+      <c r="O141" s="81"/>
+      <c r="P141" s="81"/>
+      <c r="Q141" s="81"/>
+      <c r="R141" s="81"/>
     </row>
     <row r="142">
       <c r="A142" s="72"/>
       <c r="B142" s="75"/>
       <c r="C142" s="75"/>
       <c r="D142" s="75"/>
-      <c r="E142" s="83"/>
-      <c r="F142" s="83"/>
-      <c r="G142" s="83"/>
-      <c r="H142" s="83"/>
-      <c r="I142" s="83"/>
-      <c r="J142" s="83"/>
-      <c r="K142" s="83"/>
-      <c r="L142" s="83"/>
-      <c r="M142" s="83"/>
-      <c r="N142" s="83"/>
-      <c r="O142" s="83"/>
-      <c r="P142" s="83"/>
-      <c r="Q142" s="83"/>
-      <c r="R142" s="83"/>
+      <c r="E142" s="81"/>
+      <c r="F142" s="81"/>
+      <c r="G142" s="81"/>
+      <c r="H142" s="81"/>
+      <c r="I142" s="81"/>
+      <c r="J142" s="81"/>
+      <c r="K142" s="81"/>
+      <c r="L142" s="81"/>
+      <c r="M142" s="81"/>
+      <c r="N142" s="81"/>
+      <c r="O142" s="81"/>
+      <c r="P142" s="81"/>
+      <c r="Q142" s="81"/>
+      <c r="R142" s="81"/>
     </row>
     <row r="143">
       <c r="A143" s="72"/>
       <c r="B143" s="75"/>
       <c r="C143" s="75"/>
       <c r="D143" s="75"/>
-      <c r="E143" s="83"/>
-      <c r="F143" s="83"/>
-      <c r="G143" s="83"/>
-      <c r="H143" s="83"/>
-      <c r="I143" s="83"/>
-      <c r="J143" s="83"/>
-      <c r="K143" s="83"/>
-      <c r="L143" s="83"/>
-      <c r="M143" s="83"/>
-      <c r="N143" s="83"/>
-      <c r="O143" s="83"/>
-      <c r="P143" s="83"/>
-      <c r="Q143" s="83"/>
-      <c r="R143" s="83"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="81"/>
+      <c r="L143" s="81"/>
+      <c r="M143" s="81"/>
+      <c r="N143" s="81"/>
+      <c r="O143" s="81"/>
+      <c r="P143" s="81"/>
+      <c r="Q143" s="81"/>
+      <c r="R143" s="81"/>
     </row>
     <row r="144">
       <c r="A144" s="72"/>
       <c r="B144" s="75"/>
       <c r="C144" s="75"/>
       <c r="D144" s="75"/>
-      <c r="E144" s="83"/>
-      <c r="F144" s="83"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="83"/>
-      <c r="I144" s="83"/>
-      <c r="J144" s="83"/>
-      <c r="K144" s="83"/>
-      <c r="L144" s="83"/>
-      <c r="M144" s="83"/>
-      <c r="N144" s="83"/>
-      <c r="O144" s="83"/>
-      <c r="P144" s="83"/>
-      <c r="Q144" s="83"/>
-      <c r="R144" s="83"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="81"/>
+      <c r="G144" s="81"/>
+      <c r="H144" s="81"/>
+      <c r="I144" s="81"/>
+      <c r="J144" s="81"/>
+      <c r="K144" s="81"/>
+      <c r="L144" s="81"/>
+      <c r="M144" s="81"/>
+      <c r="N144" s="81"/>
+      <c r="O144" s="81"/>
+      <c r="P144" s="81"/>
+      <c r="Q144" s="81"/>
+      <c r="R144" s="81"/>
     </row>
     <row r="145">
       <c r="A145" s="72"/>
       <c r="B145" s="75"/>
       <c r="C145" s="75"/>
       <c r="D145" s="75"/>
-      <c r="E145" s="83"/>
-      <c r="F145" s="83"/>
-      <c r="G145" s="83"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="83"/>
-      <c r="J145" s="83"/>
-      <c r="K145" s="83"/>
-      <c r="L145" s="83"/>
-      <c r="M145" s="83"/>
-      <c r="N145" s="83"/>
-      <c r="O145" s="83"/>
-      <c r="P145" s="83"/>
-      <c r="Q145" s="83"/>
-      <c r="R145" s="83"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="81"/>
+      <c r="G145" s="81"/>
+      <c r="H145" s="81"/>
+      <c r="I145" s="81"/>
+      <c r="J145" s="81"/>
+      <c r="K145" s="81"/>
+      <c r="L145" s="81"/>
+      <c r="M145" s="81"/>
+      <c r="N145" s="81"/>
+      <c r="O145" s="81"/>
+      <c r="P145" s="81"/>
+      <c r="Q145" s="81"/>
+      <c r="R145" s="81"/>
     </row>
     <row r="146">
       <c r="A146" s="72"/>
       <c r="B146" s="75"/>
       <c r="C146" s="75"/>
       <c r="D146" s="75"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="83"/>
-      <c r="G146" s="83"/>
-      <c r="H146" s="83"/>
-      <c r="I146" s="83"/>
-      <c r="J146" s="83"/>
-      <c r="K146" s="83"/>
-      <c r="L146" s="83"/>
-      <c r="M146" s="83"/>
-      <c r="N146" s="83"/>
-      <c r="O146" s="83"/>
-      <c r="P146" s="83"/>
-      <c r="Q146" s="83"/>
-      <c r="R146" s="83"/>
+      <c r="E146" s="81"/>
+      <c r="F146" s="81"/>
+      <c r="G146" s="81"/>
+      <c r="H146" s="81"/>
+      <c r="I146" s="81"/>
+      <c r="J146" s="81"/>
+      <c r="K146" s="81"/>
+      <c r="L146" s="81"/>
+      <c r="M146" s="81"/>
+      <c r="N146" s="81"/>
+      <c r="O146" s="81"/>
+      <c r="P146" s="81"/>
+      <c r="Q146" s="81"/>
+      <c r="R146" s="81"/>
     </row>
     <row r="147">
       <c r="A147" s="72"/>
       <c r="B147" s="75"/>
       <c r="C147" s="75"/>
       <c r="D147" s="75"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="83"/>
-      <c r="G147" s="83"/>
-      <c r="H147" s="83"/>
-      <c r="I147" s="83"/>
-      <c r="J147" s="83"/>
-      <c r="K147" s="83"/>
-      <c r="L147" s="83"/>
-      <c r="M147" s="83"/>
-      <c r="N147" s="83"/>
-      <c r="O147" s="83"/>
-      <c r="P147" s="83"/>
-      <c r="Q147" s="83"/>
-      <c r="R147" s="83"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="81"/>
+      <c r="G147" s="81"/>
+      <c r="H147" s="81"/>
+      <c r="I147" s="81"/>
+      <c r="J147" s="81"/>
+      <c r="K147" s="81"/>
+      <c r="L147" s="81"/>
+      <c r="M147" s="81"/>
+      <c r="N147" s="81"/>
+      <c r="O147" s="81"/>
+      <c r="P147" s="81"/>
+      <c r="Q147" s="81"/>
+      <c r="R147" s="81"/>
     </row>
     <row r="148">
       <c r="A148" s="72"/>
       <c r="B148" s="75"/>
       <c r="C148" s="75"/>
       <c r="D148" s="75"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
-      <c r="I148" s="83"/>
-      <c r="J148" s="83"/>
-      <c r="K148" s="83"/>
-      <c r="L148" s="83"/>
-      <c r="M148" s="83"/>
-      <c r="N148" s="83"/>
-      <c r="O148" s="83"/>
-      <c r="P148" s="83"/>
-      <c r="Q148" s="83"/>
-      <c r="R148" s="83"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="81"/>
+      <c r="G148" s="81"/>
+      <c r="H148" s="81"/>
+      <c r="I148" s="81"/>
+      <c r="J148" s="81"/>
+      <c r="K148" s="81"/>
+      <c r="L148" s="81"/>
+      <c r="M148" s="81"/>
+      <c r="N148" s="81"/>
+      <c r="O148" s="81"/>
+      <c r="P148" s="81"/>
+      <c r="Q148" s="81"/>
+      <c r="R148" s="81"/>
     </row>
     <row r="149">
       <c r="A149" s="72"/>
       <c r="B149" s="75"/>
       <c r="C149" s="75"/>
       <c r="D149" s="75"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="83"/>
-      <c r="H149" s="83"/>
-      <c r="I149" s="83"/>
-      <c r="J149" s="83"/>
-      <c r="K149" s="83"/>
-      <c r="L149" s="83"/>
-      <c r="M149" s="83"/>
-      <c r="N149" s="83"/>
-      <c r="O149" s="83"/>
-      <c r="P149" s="83"/>
-      <c r="Q149" s="83"/>
-      <c r="R149" s="83"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="81"/>
+      <c r="G149" s="81"/>
+      <c r="H149" s="81"/>
+      <c r="I149" s="81"/>
+      <c r="J149" s="81"/>
+      <c r="K149" s="81"/>
+      <c r="L149" s="81"/>
+      <c r="M149" s="81"/>
+      <c r="N149" s="81"/>
+      <c r="O149" s="81"/>
+      <c r="P149" s="81"/>
+      <c r="Q149" s="81"/>
+      <c r="R149" s="81"/>
     </row>
     <row r="150">
       <c r="A150" s="72"/>
       <c r="B150" s="75"/>
       <c r="C150" s="75"/>
       <c r="D150" s="75"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="83"/>
-      <c r="G150" s="83"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="83"/>
-      <c r="J150" s="83"/>
-      <c r="K150" s="83"/>
-      <c r="L150" s="83"/>
-      <c r="M150" s="83"/>
-      <c r="N150" s="83"/>
-      <c r="O150" s="83"/>
-      <c r="P150" s="83"/>
-      <c r="Q150" s="83"/>
-      <c r="R150" s="83"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="81"/>
+      <c r="G150" s="81"/>
+      <c r="H150" s="81"/>
+      <c r="I150" s="81"/>
+      <c r="J150" s="81"/>
+      <c r="K150" s="81"/>
+      <c r="L150" s="81"/>
+      <c r="M150" s="81"/>
+      <c r="N150" s="81"/>
+      <c r="O150" s="81"/>
+      <c r="P150" s="81"/>
+      <c r="Q150" s="81"/>
+      <c r="R150" s="81"/>
     </row>
     <row r="151">
       <c r="A151" s="72"/>
       <c r="B151" s="75"/>
       <c r="C151" s="75"/>
       <c r="D151" s="75"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="83"/>
-      <c r="H151" s="83"/>
-      <c r="I151" s="83"/>
-      <c r="J151" s="83"/>
-      <c r="K151" s="83"/>
-      <c r="L151" s="83"/>
-      <c r="M151" s="83"/>
-      <c r="N151" s="83"/>
-      <c r="O151" s="83"/>
-      <c r="P151" s="83"/>
-      <c r="Q151" s="83"/>
-      <c r="R151" s="83"/>
+      <c r="E151" s="81"/>
+      <c r="F151" s="81"/>
+      <c r="G151" s="81"/>
+      <c r="H151" s="81"/>
+      <c r="I151" s="81"/>
+      <c r="J151" s="81"/>
+      <c r="K151" s="81"/>
+      <c r="L151" s="81"/>
+      <c r="M151" s="81"/>
+      <c r="N151" s="81"/>
+      <c r="O151" s="81"/>
+      <c r="P151" s="81"/>
+      <c r="Q151" s="81"/>
+      <c r="R151" s="81"/>
     </row>
     <row r="152">
       <c r="A152" s="72"/>
       <c r="B152" s="75"/>
       <c r="C152" s="75"/>
       <c r="D152" s="75"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="83"/>
-      <c r="G152" s="83"/>
-      <c r="H152" s="83"/>
-      <c r="I152" s="83"/>
-      <c r="J152" s="83"/>
-      <c r="K152" s="83"/>
-      <c r="L152" s="83"/>
-      <c r="M152" s="83"/>
-      <c r="N152" s="83"/>
-      <c r="O152" s="83"/>
-      <c r="P152" s="83"/>
-      <c r="Q152" s="83"/>
-      <c r="R152" s="83"/>
+      <c r="E152" s="81"/>
+      <c r="F152" s="81"/>
+      <c r="G152" s="81"/>
+      <c r="H152" s="81"/>
+      <c r="I152" s="81"/>
+      <c r="J152" s="81"/>
+      <c r="K152" s="81"/>
+      <c r="L152" s="81"/>
+      <c r="M152" s="81"/>
+      <c r="N152" s="81"/>
+      <c r="O152" s="81"/>
+      <c r="P152" s="81"/>
+      <c r="Q152" s="81"/>
+      <c r="R152" s="81"/>
     </row>
     <row r="153">
       <c r="A153" s="72"/>
       <c r="B153" s="75"/>
       <c r="C153" s="75"/>
       <c r="D153" s="75"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="83"/>
-      <c r="G153" s="83"/>
-      <c r="H153" s="83"/>
-      <c r="I153" s="83"/>
-      <c r="J153" s="83"/>
-      <c r="K153" s="83"/>
-      <c r="L153" s="83"/>
-      <c r="M153" s="83"/>
-      <c r="N153" s="83"/>
-      <c r="O153" s="83"/>
-      <c r="P153" s="83"/>
-      <c r="Q153" s="83"/>
-      <c r="R153" s="83"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="81"/>
+      <c r="G153" s="81"/>
+      <c r="H153" s="81"/>
+      <c r="I153" s="81"/>
+      <c r="J153" s="81"/>
+      <c r="K153" s="81"/>
+      <c r="L153" s="81"/>
+      <c r="M153" s="81"/>
+      <c r="N153" s="81"/>
+      <c r="O153" s="81"/>
+      <c r="P153" s="81"/>
+      <c r="Q153" s="81"/>
+      <c r="R153" s="81"/>
     </row>
     <row r="154">
       <c r="A154" s="72"/>
       <c r="B154" s="75"/>
       <c r="C154" s="75"/>
       <c r="D154" s="75"/>
-      <c r="E154" s="83"/>
-      <c r="F154" s="83"/>
-      <c r="G154" s="83"/>
-      <c r="H154" s="83"/>
-      <c r="I154" s="83"/>
-      <c r="J154" s="83"/>
-      <c r="K154" s="83"/>
-      <c r="L154" s="83"/>
-      <c r="M154" s="83"/>
-      <c r="N154" s="83"/>
-      <c r="O154" s="83"/>
-      <c r="P154" s="83"/>
-      <c r="Q154" s="83"/>
-      <c r="R154" s="83"/>
+      <c r="E154" s="81"/>
+      <c r="F154" s="81"/>
+      <c r="G154" s="81"/>
+      <c r="H154" s="81"/>
+      <c r="I154" s="81"/>
+      <c r="J154" s="81"/>
+      <c r="K154" s="81"/>
+      <c r="L154" s="81"/>
+      <c r="M154" s="81"/>
+      <c r="N154" s="81"/>
+      <c r="O154" s="81"/>
+      <c r="P154" s="81"/>
+      <c r="Q154" s="81"/>
+      <c r="R154" s="81"/>
     </row>
     <row r="155">
       <c r="A155" s="72"/>
       <c r="B155" s="75"/>
       <c r="C155" s="75"/>
       <c r="D155" s="75"/>
-      <c r="E155" s="83"/>
-      <c r="F155" s="83"/>
-      <c r="G155" s="83"/>
-      <c r="H155" s="83"/>
-      <c r="I155" s="83"/>
-      <c r="J155" s="83"/>
-      <c r="K155" s="83"/>
-      <c r="L155" s="83"/>
-      <c r="M155" s="83"/>
-      <c r="N155" s="83"/>
-      <c r="O155" s="83"/>
-      <c r="P155" s="83"/>
-      <c r="Q155" s="83"/>
-      <c r="R155" s="83"/>
+      <c r="E155" s="81"/>
+      <c r="F155" s="81"/>
+      <c r="G155" s="81"/>
+      <c r="H155" s="81"/>
+      <c r="I155" s="81"/>
+      <c r="J155" s="81"/>
+      <c r="K155" s="81"/>
+      <c r="L155" s="81"/>
+      <c r="M155" s="81"/>
+      <c r="N155" s="81"/>
+      <c r="O155" s="81"/>
+      <c r="P155" s="81"/>
+      <c r="Q155" s="81"/>
+      <c r="R155" s="81"/>
     </row>
     <row r="156">
       <c r="A156" s="72"/>
       <c r="B156" s="75"/>
       <c r="C156" s="75"/>
       <c r="D156" s="75"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
-      <c r="G156" s="83"/>
-      <c r="H156" s="83"/>
-      <c r="I156" s="83"/>
-      <c r="J156" s="83"/>
-      <c r="K156" s="83"/>
-      <c r="L156" s="83"/>
-      <c r="M156" s="83"/>
-      <c r="N156" s="83"/>
-      <c r="O156" s="83"/>
-      <c r="P156" s="83"/>
-      <c r="Q156" s="83"/>
-      <c r="R156" s="83"/>
+      <c r="E156" s="81"/>
+      <c r="F156" s="81"/>
+      <c r="G156" s="81"/>
+      <c r="H156" s="81"/>
+      <c r="I156" s="81"/>
+      <c r="J156" s="81"/>
+      <c r="K156" s="81"/>
+      <c r="L156" s="81"/>
+      <c r="M156" s="81"/>
+      <c r="N156" s="81"/>
+      <c r="O156" s="81"/>
+      <c r="P156" s="81"/>
+      <c r="Q156" s="81"/>
+      <c r="R156" s="81"/>
     </row>
     <row r="157">
       <c r="A157" s="72"/>
       <c r="B157" s="75"/>
       <c r="C157" s="75"/>
       <c r="D157" s="75"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
-      <c r="G157" s="83"/>
-      <c r="H157" s="83"/>
-      <c r="I157" s="83"/>
-      <c r="J157" s="83"/>
-      <c r="K157" s="83"/>
-      <c r="L157" s="83"/>
-      <c r="M157" s="83"/>
-      <c r="N157" s="83"/>
-      <c r="O157" s="83"/>
-      <c r="P157" s="83"/>
-      <c r="Q157" s="83"/>
-      <c r="R157" s="83"/>
+      <c r="E157" s="81"/>
+      <c r="F157" s="81"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="81"/>
+      <c r="I157" s="81"/>
+      <c r="J157" s="81"/>
+      <c r="K157" s="81"/>
+      <c r="L157" s="81"/>
+      <c r="M157" s="81"/>
+      <c r="N157" s="81"/>
+      <c r="O157" s="81"/>
+      <c r="P157" s="81"/>
+      <c r="Q157" s="81"/>
+      <c r="R157" s="81"/>
     </row>
     <row r="158">
       <c r="A158" s="72"/>
       <c r="B158" s="75"/>
       <c r="C158" s="75"/>
       <c r="D158" s="75"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
-      <c r="G158" s="83"/>
-      <c r="H158" s="83"/>
-      <c r="I158" s="83"/>
-      <c r="J158" s="83"/>
-      <c r="K158" s="83"/>
-      <c r="L158" s="83"/>
-      <c r="M158" s="83"/>
-      <c r="N158" s="83"/>
-      <c r="O158" s="83"/>
-      <c r="P158" s="83"/>
-      <c r="Q158" s="83"/>
-      <c r="R158" s="83"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="81"/>
+      <c r="H158" s="81"/>
+      <c r="I158" s="81"/>
+      <c r="J158" s="81"/>
+      <c r="K158" s="81"/>
+      <c r="L158" s="81"/>
+      <c r="M158" s="81"/>
+      <c r="N158" s="81"/>
+      <c r="O158" s="81"/>
+      <c r="P158" s="81"/>
+      <c r="Q158" s="81"/>
+      <c r="R158" s="81"/>
     </row>
     <row r="159">
       <c r="A159" s="72"/>
       <c r="B159" s="75"/>
       <c r="C159" s="75"/>
       <c r="D159" s="75"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
-      <c r="G159" s="83"/>
-      <c r="H159" s="83"/>
-      <c r="I159" s="83"/>
-      <c r="J159" s="83"/>
-      <c r="K159" s="83"/>
-      <c r="L159" s="83"/>
-      <c r="M159" s="83"/>
-      <c r="N159" s="83"/>
-      <c r="O159" s="83"/>
-      <c r="P159" s="83"/>
-      <c r="Q159" s="83"/>
-      <c r="R159" s="83"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="81"/>
+      <c r="G159" s="81"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="81"/>
+      <c r="J159" s="81"/>
+      <c r="K159" s="81"/>
+      <c r="L159" s="81"/>
+      <c r="M159" s="81"/>
+      <c r="N159" s="81"/>
+      <c r="O159" s="81"/>
+      <c r="P159" s="81"/>
+      <c r="Q159" s="81"/>
+      <c r="R159" s="81"/>
     </row>
     <row r="160">
       <c r="A160" s="72"/>
       <c r="B160" s="75"/>
       <c r="C160" s="75"/>
       <c r="D160" s="75"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
-      <c r="G160" s="83"/>
-      <c r="H160" s="83"/>
-      <c r="I160" s="83"/>
-      <c r="J160" s="83"/>
-      <c r="K160" s="83"/>
-      <c r="L160" s="83"/>
-      <c r="M160" s="83"/>
-      <c r="N160" s="83"/>
-      <c r="O160" s="83"/>
-      <c r="P160" s="83"/>
-      <c r="Q160" s="83"/>
-      <c r="R160" s="83"/>
+      <c r="E160" s="81"/>
+      <c r="F160" s="81"/>
+      <c r="G160" s="81"/>
+      <c r="H160" s="81"/>
+      <c r="I160" s="81"/>
+      <c r="J160" s="81"/>
+      <c r="K160" s="81"/>
+      <c r="L160" s="81"/>
+      <c r="M160" s="81"/>
+      <c r="N160" s="81"/>
+      <c r="O160" s="81"/>
+      <c r="P160" s="81"/>
+      <c r="Q160" s="81"/>
+      <c r="R160" s="81"/>
     </row>
     <row r="161">
       <c r="A161" s="72"/>
       <c r="B161" s="75"/>
       <c r="C161" s="75"/>
       <c r="D161" s="75"/>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="83"/>
-      <c r="H161" s="83"/>
-      <c r="I161" s="83"/>
-      <c r="J161" s="83"/>
-      <c r="K161" s="83"/>
-      <c r="L161" s="83"/>
-      <c r="M161" s="83"/>
-      <c r="N161" s="83"/>
-      <c r="O161" s="83"/>
-      <c r="P161" s="83"/>
-      <c r="Q161" s="83"/>
-      <c r="R161" s="83"/>
+      <c r="E161" s="81"/>
+      <c r="F161" s="81"/>
+      <c r="G161" s="81"/>
+      <c r="H161" s="81"/>
+      <c r="I161" s="81"/>
+      <c r="J161" s="81"/>
+      <c r="K161" s="81"/>
+      <c r="L161" s="81"/>
+      <c r="M161" s="81"/>
+      <c r="N161" s="81"/>
+      <c r="O161" s="81"/>
+      <c r="P161" s="81"/>
+      <c r="Q161" s="81"/>
+      <c r="R161" s="81"/>
     </row>
     <row r="162">
       <c r="A162" s="72"/>
       <c r="B162" s="75"/>
       <c r="C162" s="75"/>
       <c r="D162" s="75"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
-      <c r="G162" s="83"/>
-      <c r="H162" s="83"/>
-      <c r="I162" s="83"/>
-      <c r="J162" s="83"/>
-      <c r="K162" s="83"/>
-      <c r="L162" s="83"/>
-      <c r="M162" s="83"/>
-      <c r="N162" s="83"/>
-      <c r="O162" s="83"/>
-      <c r="P162" s="83"/>
-      <c r="Q162" s="83"/>
-      <c r="R162" s="83"/>
+      <c r="E162" s="81"/>
+      <c r="F162" s="81"/>
+      <c r="G162" s="81"/>
+      <c r="H162" s="81"/>
+      <c r="I162" s="81"/>
+      <c r="J162" s="81"/>
+      <c r="K162" s="81"/>
+      <c r="L162" s="81"/>
+      <c r="M162" s="81"/>
+      <c r="N162" s="81"/>
+      <c r="O162" s="81"/>
+      <c r="P162" s="81"/>
+      <c r="Q162" s="81"/>
+      <c r="R162" s="81"/>
     </row>
     <row r="163">
       <c r="A163" s="72"/>
       <c r="B163" s="75"/>
       <c r="C163" s="75"/>
       <c r="D163" s="75"/>
-      <c r="E163" s="83"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="83"/>
-      <c r="H163" s="83"/>
-      <c r="I163" s="83"/>
-      <c r="J163" s="83"/>
-      <c r="K163" s="83"/>
-      <c r="L163" s="83"/>
-      <c r="M163" s="83"/>
-      <c r="N163" s="83"/>
-      <c r="O163" s="83"/>
-      <c r="P163" s="83"/>
-      <c r="Q163" s="83"/>
-      <c r="R163" s="83"/>
+      <c r="E163" s="81"/>
+      <c r="F163" s="81"/>
+      <c r="G163" s="81"/>
+      <c r="H163" s="81"/>
+      <c r="I163" s="81"/>
+      <c r="J163" s="81"/>
+      <c r="K163" s="81"/>
+      <c r="L163" s="81"/>
+      <c r="M163" s="81"/>
+      <c r="N163" s="81"/>
+      <c r="O163" s="81"/>
+      <c r="P163" s="81"/>
+      <c r="Q163" s="81"/>
+      <c r="R163" s="81"/>
     </row>
     <row r="164">
       <c r="A164" s="72"/>
       <c r="B164" s="75"/>
       <c r="C164" s="75"/>
       <c r="D164" s="75"/>
-      <c r="E164" s="83"/>
-      <c r="F164" s="83"/>
-      <c r="G164" s="83"/>
-      <c r="H164" s="83"/>
-      <c r="I164" s="83"/>
-      <c r="J164" s="83"/>
-      <c r="K164" s="83"/>
-      <c r="L164" s="83"/>
-      <c r="M164" s="83"/>
-      <c r="N164" s="83"/>
-      <c r="O164" s="83"/>
-      <c r="P164" s="83"/>
-      <c r="Q164" s="83"/>
-      <c r="R164" s="83"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="81"/>
+      <c r="G164" s="81"/>
+      <c r="H164" s="81"/>
+      <c r="I164" s="81"/>
+      <c r="J164" s="81"/>
+      <c r="K164" s="81"/>
+      <c r="L164" s="81"/>
+      <c r="M164" s="81"/>
+      <c r="N164" s="81"/>
+      <c r="O164" s="81"/>
+      <c r="P164" s="81"/>
+      <c r="Q164" s="81"/>
+      <c r="R164" s="81"/>
     </row>
     <row r="165">
       <c r="A165" s="72"/>
       <c r="B165" s="75"/>
       <c r="C165" s="75"/>
       <c r="D165" s="75"/>
-      <c r="E165" s="83"/>
-      <c r="F165" s="83"/>
-      <c r="G165" s="83"/>
-      <c r="H165" s="83"/>
-      <c r="I165" s="83"/>
-      <c r="J165" s="83"/>
-      <c r="K165" s="83"/>
-      <c r="L165" s="83"/>
-      <c r="M165" s="83"/>
-      <c r="N165" s="83"/>
-      <c r="O165" s="83"/>
-      <c r="P165" s="83"/>
-      <c r="Q165" s="83"/>
-      <c r="R165" s="83"/>
+      <c r="E165" s="81"/>
+      <c r="F165" s="81"/>
+      <c r="G165" s="81"/>
+      <c r="H165" s="81"/>
+      <c r="I165" s="81"/>
+      <c r="J165" s="81"/>
+      <c r="K165" s="81"/>
+      <c r="L165" s="81"/>
+      <c r="M165" s="81"/>
+      <c r="N165" s="81"/>
+      <c r="O165" s="81"/>
+      <c r="P165" s="81"/>
+      <c r="Q165" s="81"/>
+      <c r="R165" s="81"/>
     </row>
     <row r="166">
       <c r="A166" s="72"/>
       <c r="B166" s="75"/>
       <c r="C166" s="75"/>
       <c r="D166" s="75"/>
-      <c r="E166" s="83"/>
-      <c r="F166" s="83"/>
-      <c r="G166" s="83"/>
-      <c r="H166" s="83"/>
-      <c r="I166" s="83"/>
-      <c r="J166" s="83"/>
-      <c r="K166" s="83"/>
-      <c r="L166" s="83"/>
-      <c r="M166" s="83"/>
-      <c r="N166" s="83"/>
-      <c r="O166" s="83"/>
-      <c r="P166" s="83"/>
-      <c r="Q166" s="83"/>
-      <c r="R166" s="83"/>
+      <c r="E166" s="81"/>
+      <c r="F166" s="81"/>
+      <c r="G166" s="81"/>
+      <c r="H166" s="81"/>
+      <c r="I166" s="81"/>
+      <c r="J166" s="81"/>
+      <c r="K166" s="81"/>
+      <c r="L166" s="81"/>
+      <c r="M166" s="81"/>
+      <c r="N166" s="81"/>
+      <c r="O166" s="81"/>
+      <c r="P166" s="81"/>
+      <c r="Q166" s="81"/>
+      <c r="R166" s="81"/>
     </row>
     <row r="167">
       <c r="A167" s="72"/>
       <c r="B167" s="75"/>
       <c r="C167" s="75"/>
       <c r="D167" s="75"/>
-      <c r="E167" s="83"/>
-      <c r="F167" s="83"/>
-      <c r="G167" s="83"/>
-      <c r="H167" s="83"/>
-      <c r="I167" s="83"/>
-      <c r="J167" s="83"/>
-      <c r="K167" s="83"/>
-      <c r="L167" s="83"/>
-      <c r="M167" s="83"/>
-      <c r="N167" s="83"/>
-      <c r="O167" s="83"/>
-      <c r="P167" s="83"/>
-      <c r="Q167" s="83"/>
-      <c r="R167" s="83"/>
+      <c r="E167" s="81"/>
+      <c r="F167" s="81"/>
+      <c r="G167" s="81"/>
+      <c r="H167" s="81"/>
+      <c r="I167" s="81"/>
+      <c r="J167" s="81"/>
+      <c r="K167" s="81"/>
+      <c r="L167" s="81"/>
+      <c r="M167" s="81"/>
+      <c r="N167" s="81"/>
+      <c r="O167" s="81"/>
+      <c r="P167" s="81"/>
+      <c r="Q167" s="81"/>
+      <c r="R167" s="81"/>
     </row>
     <row r="168">
       <c r="A168" s="72"/>
       <c r="B168" s="75"/>
       <c r="C168" s="75"/>
       <c r="D168" s="75"/>
-      <c r="E168" s="83"/>
-      <c r="F168" s="83"/>
-      <c r="G168" s="83"/>
-      <c r="H168" s="83"/>
-      <c r="I168" s="83"/>
-      <c r="J168" s="83"/>
-      <c r="K168" s="83"/>
-      <c r="L168" s="83"/>
-      <c r="M168" s="83"/>
-      <c r="N168" s="83"/>
-      <c r="O168" s="83"/>
-      <c r="P168" s="83"/>
-      <c r="Q168" s="83"/>
-      <c r="R168" s="83"/>
+      <c r="E168" s="81"/>
+      <c r="F168" s="81"/>
+      <c r="G168" s="81"/>
+      <c r="H168" s="81"/>
+      <c r="I168" s="81"/>
+      <c r="J168" s="81"/>
+      <c r="K168" s="81"/>
+      <c r="L168" s="81"/>
+      <c r="M168" s="81"/>
+      <c r="N168" s="81"/>
+      <c r="O168" s="81"/>
+      <c r="P168" s="81"/>
+      <c r="Q168" s="81"/>
+      <c r="R168" s="81"/>
     </row>
     <row r="169">
       <c r="A169" s="72"/>
       <c r="B169" s="75"/>
       <c r="C169" s="75"/>
       <c r="D169" s="75"/>
-      <c r="E169" s="83"/>
-      <c r="F169" s="83"/>
-      <c r="G169" s="83"/>
-      <c r="H169" s="83"/>
-      <c r="I169" s="83"/>
-      <c r="J169" s="83"/>
-      <c r="K169" s="83"/>
-      <c r="L169" s="83"/>
-      <c r="M169" s="83"/>
-      <c r="N169" s="83"/>
-      <c r="O169" s="83"/>
-      <c r="P169" s="83"/>
-      <c r="Q169" s="83"/>
-      <c r="R169" s="83"/>
+      <c r="E169" s="81"/>
+      <c r="F169" s="81"/>
+      <c r="G169" s="81"/>
+      <c r="H169" s="81"/>
+      <c r="I169" s="81"/>
+      <c r="J169" s="81"/>
+      <c r="K169" s="81"/>
+      <c r="L169" s="81"/>
+      <c r="M169" s="81"/>
+      <c r="N169" s="81"/>
+      <c r="O169" s="81"/>
+      <c r="P169" s="81"/>
+      <c r="Q169" s="81"/>
+      <c r="R169" s="81"/>
     </row>
     <row r="170">
       <c r="A170" s="72"/>
       <c r="B170" s="75"/>
       <c r="C170" s="75"/>
       <c r="D170" s="75"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="83"/>
-      <c r="G170" s="83"/>
-      <c r="H170" s="83"/>
-      <c r="I170" s="83"/>
-      <c r="J170" s="83"/>
-      <c r="K170" s="83"/>
-      <c r="L170" s="83"/>
-      <c r="M170" s="83"/>
-      <c r="N170" s="83"/>
-      <c r="O170" s="83"/>
-      <c r="P170" s="83"/>
-      <c r="Q170" s="83"/>
-      <c r="R170" s="83"/>
+      <c r="E170" s="81"/>
+      <c r="F170" s="81"/>
+      <c r="G170" s="81"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="81"/>
+      <c r="J170" s="81"/>
+      <c r="K170" s="81"/>
+      <c r="L170" s="81"/>
+      <c r="M170" s="81"/>
+      <c r="N170" s="81"/>
+      <c r="O170" s="81"/>
+      <c r="P170" s="81"/>
+      <c r="Q170" s="81"/>
+      <c r="R170" s="81"/>
     </row>
     <row r="171">
       <c r="A171" s="72"/>
       <c r="B171" s="75"/>
       <c r="C171" s="75"/>
       <c r="D171" s="75"/>
-      <c r="E171" s="83"/>
-      <c r="F171" s="83"/>
-      <c r="G171" s="83"/>
-      <c r="H171" s="83"/>
-      <c r="I171" s="83"/>
-      <c r="J171" s="83"/>
-      <c r="K171" s="83"/>
-      <c r="L171" s="83"/>
-      <c r="M171" s="83"/>
-      <c r="N171" s="83"/>
-      <c r="O171" s="83"/>
-      <c r="P171" s="83"/>
-      <c r="Q171" s="83"/>
-      <c r="R171" s="83"/>
+      <c r="E171" s="81"/>
+      <c r="F171" s="81"/>
+      <c r="G171" s="81"/>
+      <c r="H171" s="81"/>
+      <c r="I171" s="81"/>
+      <c r="J171" s="81"/>
+      <c r="K171" s="81"/>
+      <c r="L171" s="81"/>
+      <c r="M171" s="81"/>
+      <c r="N171" s="81"/>
+      <c r="O171" s="81"/>
+      <c r="P171" s="81"/>
+      <c r="Q171" s="81"/>
+      <c r="R171" s="81"/>
     </row>
     <row r="172">
       <c r="A172" s="72"/>
       <c r="B172" s="75"/>
       <c r="C172" s="75"/>
       <c r="D172" s="75"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="83"/>
-      <c r="G172" s="83"/>
-      <c r="H172" s="83"/>
-      <c r="I172" s="83"/>
-      <c r="J172" s="83"/>
-      <c r="K172" s="83"/>
-      <c r="L172" s="83"/>
-      <c r="M172" s="83"/>
-      <c r="N172" s="83"/>
-      <c r="O172" s="83"/>
-      <c r="P172" s="83"/>
-      <c r="Q172" s="83"/>
-      <c r="R172" s="83"/>
+      <c r="E172" s="81"/>
+      <c r="F172" s="81"/>
+      <c r="G172" s="81"/>
+      <c r="H172" s="81"/>
+      <c r="I172" s="81"/>
+      <c r="J172" s="81"/>
+      <c r="K172" s="81"/>
+      <c r="L172" s="81"/>
+      <c r="M172" s="81"/>
+      <c r="N172" s="81"/>
+      <c r="O172" s="81"/>
+      <c r="P172" s="81"/>
+      <c r="Q172" s="81"/>
+      <c r="R172" s="81"/>
     </row>
     <row r="173">
       <c r="A173" s="72"/>
       <c r="B173" s="75"/>
       <c r="C173" s="75"/>
       <c r="D173" s="75"/>
-      <c r="E173" s="83"/>
-      <c r="F173" s="83"/>
-      <c r="G173" s="83"/>
-      <c r="H173" s="83"/>
-      <c r="I173" s="83"/>
-      <c r="J173" s="83"/>
-      <c r="K173" s="83"/>
-      <c r="L173" s="83"/>
-      <c r="M173" s="83"/>
-      <c r="N173" s="83"/>
-      <c r="O173" s="83"/>
-      <c r="P173" s="83"/>
-      <c r="Q173" s="83"/>
-      <c r="R173" s="83"/>
+      <c r="E173" s="81"/>
+      <c r="F173" s="81"/>
+      <c r="G173" s="81"/>
+      <c r="H173" s="81"/>
+      <c r="I173" s="81"/>
+      <c r="J173" s="81"/>
+      <c r="K173" s="81"/>
+      <c r="L173" s="81"/>
+      <c r="M173" s="81"/>
+      <c r="N173" s="81"/>
+      <c r="O173" s="81"/>
+      <c r="P173" s="81"/>
+      <c r="Q173" s="81"/>
+      <c r="R173" s="81"/>
     </row>
     <row r="174">
       <c r="A174" s="72"/>
       <c r="B174" s="75"/>
       <c r="C174" s="75"/>
       <c r="D174" s="75"/>
-      <c r="E174" s="83"/>
-      <c r="F174" s="83"/>
-      <c r="G174" s="83"/>
-      <c r="H174" s="83"/>
-      <c r="I174" s="83"/>
-      <c r="J174" s="83"/>
-      <c r="K174" s="83"/>
-      <c r="L174" s="83"/>
-      <c r="M174" s="83"/>
-      <c r="N174" s="83"/>
-      <c r="O174" s="83"/>
-      <c r="P174" s="83"/>
-      <c r="Q174" s="83"/>
-      <c r="R174" s="83"/>
+      <c r="E174" s="81"/>
+      <c r="F174" s="81"/>
+      <c r="G174" s="81"/>
+      <c r="H174" s="81"/>
+      <c r="I174" s="81"/>
+      <c r="J174" s="81"/>
+      <c r="K174" s="81"/>
+      <c r="L174" s="81"/>
+      <c r="M174" s="81"/>
+      <c r="N174" s="81"/>
+      <c r="O174" s="81"/>
+      <c r="P174" s="81"/>
+      <c r="Q174" s="81"/>
+      <c r="R174" s="81"/>
     </row>
     <row r="175">
       <c r="A175" s="72"/>
       <c r="B175" s="75"/>
       <c r="C175" s="75"/>
       <c r="D175" s="75"/>
-      <c r="E175" s="83"/>
-      <c r="F175" s="83"/>
-      <c r="G175" s="83"/>
-      <c r="H175" s="83"/>
-      <c r="I175" s="83"/>
-      <c r="J175" s="83"/>
-      <c r="K175" s="83"/>
-      <c r="L175" s="83"/>
-      <c r="M175" s="83"/>
-      <c r="N175" s="83"/>
-      <c r="O175" s="83"/>
-      <c r="P175" s="83"/>
-      <c r="Q175" s="83"/>
-      <c r="R175" s="83"/>
+      <c r="E175" s="81"/>
+      <c r="F175" s="81"/>
+      <c r="G175" s="81"/>
+      <c r="H175" s="81"/>
+      <c r="I175" s="81"/>
+      <c r="J175" s="81"/>
+      <c r="K175" s="81"/>
+      <c r="L175" s="81"/>
+      <c r="M175" s="81"/>
+      <c r="N175" s="81"/>
+      <c r="O175" s="81"/>
+      <c r="P175" s="81"/>
+      <c r="Q175" s="81"/>
+      <c r="R175" s="81"/>
     </row>
     <row r="176">
       <c r="A176" s="72"/>
       <c r="B176" s="75"/>
       <c r="C176" s="75"/>
       <c r="D176" s="75"/>
-      <c r="E176" s="83"/>
-      <c r="F176" s="83"/>
-      <c r="G176" s="83"/>
-      <c r="H176" s="83"/>
-      <c r="I176" s="83"/>
-      <c r="J176" s="83"/>
-      <c r="K176" s="83"/>
-      <c r="L176" s="83"/>
-      <c r="M176" s="83"/>
-      <c r="N176" s="83"/>
-      <c r="O176" s="83"/>
-      <c r="P176" s="83"/>
-      <c r="Q176" s="83"/>
-      <c r="R176" s="83"/>
+      <c r="E176" s="81"/>
+      <c r="F176" s="81"/>
+      <c r="G176" s="81"/>
+      <c r="H176" s="81"/>
+      <c r="I176" s="81"/>
+      <c r="J176" s="81"/>
+      <c r="K176" s="81"/>
+      <c r="L176" s="81"/>
+      <c r="M176" s="81"/>
+      <c r="N176" s="81"/>
+      <c r="O176" s="81"/>
+      <c r="P176" s="81"/>
+      <c r="Q176" s="81"/>
+      <c r="R176" s="81"/>
     </row>
     <row r="177">
       <c r="A177" s="72"/>
       <c r="B177" s="75"/>
       <c r="C177" s="75"/>
       <c r="D177" s="75"/>
-      <c r="E177" s="83"/>
-      <c r="F177" s="83"/>
-      <c r="G177" s="83"/>
-      <c r="H177" s="83"/>
-      <c r="I177" s="83"/>
-      <c r="J177" s="83"/>
-      <c r="K177" s="83"/>
-      <c r="L177" s="83"/>
-      <c r="M177" s="83"/>
-      <c r="N177" s="83"/>
-      <c r="O177" s="83"/>
-      <c r="P177" s="83"/>
-      <c r="Q177" s="83"/>
-      <c r="R177" s="83"/>
+      <c r="E177" s="81"/>
+      <c r="F177" s="81"/>
+      <c r="G177" s="81"/>
+      <c r="H177" s="81"/>
+      <c r="I177" s="81"/>
+      <c r="J177" s="81"/>
+      <c r="K177" s="81"/>
+      <c r="L177" s="81"/>
+      <c r="M177" s="81"/>
+      <c r="N177" s="81"/>
+      <c r="O177" s="81"/>
+      <c r="P177" s="81"/>
+      <c r="Q177" s="81"/>
+      <c r="R177" s="81"/>
     </row>
     <row r="178">
       <c r="A178" s="72"/>
       <c r="B178" s="75"/>
       <c r="C178" s="75"/>
       <c r="D178" s="75"/>
-      <c r="E178" s="83"/>
-      <c r="F178" s="83"/>
-      <c r="G178" s="83"/>
-      <c r="H178" s="83"/>
-      <c r="I178" s="83"/>
-      <c r="J178" s="83"/>
-      <c r="K178" s="83"/>
-      <c r="L178" s="83"/>
-      <c r="M178" s="83"/>
-      <c r="N178" s="83"/>
-      <c r="O178" s="83"/>
-      <c r="P178" s="83"/>
-      <c r="Q178" s="83"/>
-      <c r="R178" s="83"/>
+      <c r="E178" s="81"/>
+      <c r="F178" s="81"/>
+      <c r="G178" s="81"/>
+      <c r="H178" s="81"/>
+      <c r="I178" s="81"/>
+      <c r="J178" s="81"/>
+      <c r="K178" s="81"/>
+      <c r="L178" s="81"/>
+      <c r="M178" s="81"/>
+      <c r="N178" s="81"/>
+      <c r="O178" s="81"/>
+      <c r="P178" s="81"/>
+      <c r="Q178" s="81"/>
+      <c r="R178" s="81"/>
     </row>
     <row r="179">
       <c r="A179" s="72"/>
       <c r="B179" s="75"/>
       <c r="C179" s="75"/>
       <c r="D179" s="75"/>
-      <c r="E179" s="83"/>
-      <c r="F179" s="83"/>
-      <c r="G179" s="83"/>
-      <c r="H179" s="83"/>
-      <c r="I179" s="83"/>
-      <c r="J179" s="83"/>
-      <c r="K179" s="83"/>
-      <c r="L179" s="83"/>
-      <c r="M179" s="83"/>
-      <c r="N179" s="83"/>
-      <c r="O179" s="83"/>
-      <c r="P179" s="83"/>
-      <c r="Q179" s="83"/>
-      <c r="R179" s="83"/>
+      <c r="E179" s="81"/>
+      <c r="F179" s="81"/>
+      <c r="G179" s="81"/>
+      <c r="H179" s="81"/>
+      <c r="I179" s="81"/>
+      <c r="J179" s="81"/>
+      <c r="K179" s="81"/>
+      <c r="L179" s="81"/>
+      <c r="M179" s="81"/>
+      <c r="N179" s="81"/>
+      <c r="O179" s="81"/>
+      <c r="P179" s="81"/>
+      <c r="Q179" s="81"/>
+      <c r="R179" s="81"/>
     </row>
     <row r="180">
       <c r="A180" s="72"/>
       <c r="B180" s="75"/>
       <c r="C180" s="75"/>
       <c r="D180" s="75"/>
-      <c r="E180" s="83"/>
-      <c r="F180" s="83"/>
-      <c r="G180" s="83"/>
-      <c r="H180" s="83"/>
-      <c r="I180" s="83"/>
-      <c r="J180" s="83"/>
-      <c r="K180" s="83"/>
-      <c r="L180" s="83"/>
-      <c r="M180" s="83"/>
-      <c r="N180" s="83"/>
-      <c r="O180" s="83"/>
-      <c r="P180" s="83"/>
-      <c r="Q180" s="83"/>
-      <c r="R180" s="83"/>
+      <c r="E180" s="81"/>
+      <c r="F180" s="81"/>
+      <c r="G180" s="81"/>
+      <c r="H180" s="81"/>
+      <c r="I180" s="81"/>
+      <c r="J180" s="81"/>
+      <c r="K180" s="81"/>
+      <c r="L180" s="81"/>
+      <c r="M180" s="81"/>
+      <c r="N180" s="81"/>
+      <c r="O180" s="81"/>
+      <c r="P180" s="81"/>
+      <c r="Q180" s="81"/>
+      <c r="R180" s="81"/>
     </row>
     <row r="181">
       <c r="A181" s="72"/>
       <c r="B181" s="75"/>
       <c r="C181" s="75"/>
       <c r="D181" s="75"/>
-      <c r="E181" s="83"/>
-      <c r="F181" s="83"/>
-      <c r="G181" s="83"/>
-      <c r="H181" s="83"/>
-      <c r="I181" s="83"/>
-      <c r="J181" s="83"/>
-      <c r="K181" s="83"/>
-      <c r="L181" s="83"/>
-      <c r="M181" s="83"/>
-      <c r="N181" s="83"/>
-      <c r="O181" s="83"/>
-      <c r="P181" s="83"/>
-      <c r="Q181" s="83"/>
-      <c r="R181" s="83"/>
+      <c r="E181" s="81"/>
+      <c r="F181" s="81"/>
+      <c r="G181" s="81"/>
+      <c r="H181" s="81"/>
+      <c r="I181" s="81"/>
+      <c r="J181" s="81"/>
+      <c r="K181" s="81"/>
+      <c r="L181" s="81"/>
+      <c r="M181" s="81"/>
+      <c r="N181" s="81"/>
+      <c r="O181" s="81"/>
+      <c r="P181" s="81"/>
+      <c r="Q181" s="81"/>
+      <c r="R181" s="81"/>
     </row>
     <row r="182">
       <c r="A182" s="72"/>
       <c r="B182" s="75"/>
       <c r="C182" s="75"/>
       <c r="D182" s="75"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="83"/>
-      <c r="G182" s="83"/>
-      <c r="H182" s="83"/>
-      <c r="I182" s="83"/>
-      <c r="J182" s="83"/>
-      <c r="K182" s="83"/>
-      <c r="L182" s="83"/>
-      <c r="M182" s="83"/>
-      <c r="N182" s="83"/>
-      <c r="O182" s="83"/>
-      <c r="P182" s="83"/>
-      <c r="Q182" s="83"/>
-      <c r="R182" s="83"/>
+      <c r="E182" s="81"/>
+      <c r="F182" s="81"/>
+      <c r="G182" s="81"/>
+      <c r="H182" s="81"/>
+      <c r="I182" s="81"/>
+      <c r="J182" s="81"/>
+      <c r="K182" s="81"/>
+      <c r="L182" s="81"/>
+      <c r="M182" s="81"/>
+      <c r="N182" s="81"/>
+      <c r="O182" s="81"/>
+      <c r="P182" s="81"/>
+      <c r="Q182" s="81"/>
+      <c r="R182" s="81"/>
     </row>
     <row r="183">
       <c r="A183" s="72"/>
       <c r="B183" s="75"/>
       <c r="C183" s="75"/>
       <c r="D183" s="75"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="83"/>
-      <c r="H183" s="83"/>
-      <c r="I183" s="83"/>
-      <c r="J183" s="83"/>
-      <c r="K183" s="83"/>
-      <c r="L183" s="83"/>
-      <c r="M183" s="83"/>
-      <c r="N183" s="83"/>
-      <c r="O183" s="83"/>
-      <c r="P183" s="83"/>
-      <c r="Q183" s="83"/>
-      <c r="R183" s="83"/>
+      <c r="E183" s="81"/>
+      <c r="F183" s="81"/>
+      <c r="G183" s="81"/>
+      <c r="H183" s="81"/>
+      <c r="I183" s="81"/>
+      <c r="J183" s="81"/>
+      <c r="K183" s="81"/>
+      <c r="L183" s="81"/>
+      <c r="M183" s="81"/>
+      <c r="N183" s="81"/>
+      <c r="O183" s="81"/>
+      <c r="P183" s="81"/>
+      <c r="Q183" s="81"/>
+      <c r="R183" s="81"/>
     </row>
     <row r="184">
       <c r="A184" s="72"/>
       <c r="B184" s="75"/>
       <c r="C184" s="75"/>
       <c r="D184" s="75"/>
-      <c r="E184" s="83"/>
-      <c r="F184" s="83"/>
-      <c r="G184" s="83"/>
-      <c r="H184" s="83"/>
-      <c r="I184" s="83"/>
-      <c r="J184" s="83"/>
-      <c r="K184" s="83"/>
-      <c r="L184" s="83"/>
-      <c r="M184" s="83"/>
-      <c r="N184" s="83"/>
-      <c r="O184" s="83"/>
-      <c r="P184" s="83"/>
-      <c r="Q184" s="83"/>
-      <c r="R184" s="83"/>
+      <c r="E184" s="81"/>
+      <c r="F184" s="81"/>
+      <c r="G184" s="81"/>
+      <c r="H184" s="81"/>
+      <c r="I184" s="81"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="81"/>
+      <c r="L184" s="81"/>
+      <c r="M184" s="81"/>
+      <c r="N184" s="81"/>
+      <c r="O184" s="81"/>
+      <c r="P184" s="81"/>
+      <c r="Q184" s="81"/>
+      <c r="R184" s="81"/>
     </row>
     <row r="185">
       <c r="A185" s="72"/>
       <c r="B185" s="75"/>
       <c r="C185" s="75"/>
       <c r="D185" s="75"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="83"/>
-      <c r="H185" s="83"/>
-      <c r="I185" s="83"/>
-      <c r="J185" s="83"/>
-      <c r="K185" s="83"/>
-      <c r="L185" s="83"/>
-      <c r="M185" s="83"/>
-      <c r="N185" s="83"/>
-      <c r="O185" s="83"/>
-      <c r="P185" s="83"/>
-      <c r="Q185" s="83"/>
-      <c r="R185" s="83"/>
+      <c r="E185" s="81"/>
+      <c r="F185" s="81"/>
+      <c r="G185" s="81"/>
+      <c r="H185" s="81"/>
+      <c r="I185" s="81"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="81"/>
+      <c r="L185" s="81"/>
+      <c r="M185" s="81"/>
+      <c r="N185" s="81"/>
+      <c r="O185" s="81"/>
+      <c r="P185" s="81"/>
+      <c r="Q185" s="81"/>
+      <c r="R185" s="81"/>
     </row>
     <row r="186">
       <c r="A186" s="72"/>
       <c r="B186" s="75"/>
       <c r="C186" s="75"/>
       <c r="D186" s="75"/>
-      <c r="E186" s="83"/>
-      <c r="F186" s="83"/>
-      <c r="G186" s="83"/>
-      <c r="H186" s="83"/>
-      <c r="I186" s="83"/>
-      <c r="J186" s="83"/>
-      <c r="K186" s="83"/>
-      <c r="L186" s="83"/>
-      <c r="M186" s="83"/>
-      <c r="N186" s="83"/>
-      <c r="O186" s="83"/>
-      <c r="P186" s="83"/>
-      <c r="Q186" s="83"/>
-      <c r="R186" s="83"/>
+      <c r="E186" s="81"/>
+      <c r="F186" s="81"/>
+      <c r="G186" s="81"/>
+      <c r="H186" s="81"/>
+      <c r="I186" s="81"/>
+      <c r="J186" s="81"/>
+      <c r="K186" s="81"/>
+      <c r="L186" s="81"/>
+      <c r="M186" s="81"/>
+      <c r="N186" s="81"/>
+      <c r="O186" s="81"/>
+      <c r="P186" s="81"/>
+      <c r="Q186" s="81"/>
+      <c r="R186" s="81"/>
     </row>
     <row r="187">
       <c r="A187" s="72"/>
       <c r="B187" s="75"/>
       <c r="C187" s="75"/>
       <c r="D187" s="75"/>
-      <c r="E187" s="83"/>
-      <c r="F187" s="83"/>
-      <c r="G187" s="83"/>
-      <c r="H187" s="83"/>
-      <c r="I187" s="83"/>
-      <c r="J187" s="83"/>
-      <c r="K187" s="83"/>
-      <c r="L187" s="83"/>
-      <c r="M187" s="83"/>
-      <c r="N187" s="83"/>
-      <c r="O187" s="83"/>
-      <c r="P187" s="83"/>
-      <c r="Q187" s="83"/>
-      <c r="R187" s="83"/>
+      <c r="E187" s="81"/>
+      <c r="F187" s="81"/>
+      <c r="G187" s="81"/>
+      <c r="H187" s="81"/>
+      <c r="I187" s="81"/>
+      <c r="J187" s="81"/>
+      <c r="K187" s="81"/>
+      <c r="L187" s="81"/>
+      <c r="M187" s="81"/>
+      <c r="N187" s="81"/>
+      <c r="O187" s="81"/>
+      <c r="P187" s="81"/>
+      <c r="Q187" s="81"/>
+      <c r="R187" s="81"/>
     </row>
     <row r="188">
       <c r="A188" s="72"/>
       <c r="B188" s="75"/>
       <c r="C188" s="75"/>
       <c r="D188" s="75"/>
-      <c r="E188" s="83"/>
-      <c r="F188" s="83"/>
-      <c r="G188" s="83"/>
-      <c r="H188" s="83"/>
-      <c r="I188" s="83"/>
-      <c r="J188" s="83"/>
-      <c r="K188" s="83"/>
-      <c r="L188" s="83"/>
-      <c r="M188" s="83"/>
-      <c r="N188" s="83"/>
-      <c r="O188" s="83"/>
-      <c r="P188" s="83"/>
-      <c r="Q188" s="83"/>
-      <c r="R188" s="83"/>
+      <c r="E188" s="81"/>
+      <c r="F188" s="81"/>
+      <c r="G188" s="81"/>
+      <c r="H188" s="81"/>
+      <c r="I188" s="81"/>
+      <c r="J188" s="81"/>
+      <c r="K188" s="81"/>
+      <c r="L188" s="81"/>
+      <c r="M188" s="81"/>
+      <c r="N188" s="81"/>
+      <c r="O188" s="81"/>
+      <c r="P188" s="81"/>
+      <c r="Q188" s="81"/>
+      <c r="R188" s="81"/>
     </row>
     <row r="189">
       <c r="A189" s="72"/>
       <c r="B189" s="75"/>
       <c r="C189" s="75"/>
       <c r="D189" s="75"/>
-      <c r="E189" s="83"/>
-      <c r="F189" s="83"/>
-      <c r="G189" s="83"/>
-      <c r="H189" s="83"/>
-      <c r="I189" s="83"/>
-      <c r="J189" s="83"/>
-      <c r="K189" s="83"/>
-      <c r="L189" s="83"/>
-      <c r="M189" s="83"/>
-      <c r="N189" s="83"/>
-      <c r="O189" s="83"/>
-      <c r="P189" s="83"/>
-      <c r="Q189" s="83"/>
-      <c r="R189" s="83"/>
+      <c r="E189" s="81"/>
+      <c r="F189" s="81"/>
+      <c r="G189" s="81"/>
+      <c r="H189" s="81"/>
+      <c r="I189" s="81"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="81"/>
+      <c r="L189" s="81"/>
+      <c r="M189" s="81"/>
+      <c r="N189" s="81"/>
+      <c r="O189" s="81"/>
+      <c r="P189" s="81"/>
+      <c r="Q189" s="81"/>
+      <c r="R189" s="81"/>
     </row>
     <row r="190">
       <c r="A190" s="72"/>
       <c r="B190" s="75"/>
       <c r="C190" s="75"/>
       <c r="D190" s="75"/>
-      <c r="E190" s="83"/>
-      <c r="F190" s="83"/>
-      <c r="G190" s="83"/>
-      <c r="H190" s="83"/>
-      <c r="I190" s="83"/>
-      <c r="J190" s="83"/>
-      <c r="K190" s="83"/>
-      <c r="L190" s="83"/>
-      <c r="M190" s="83"/>
-      <c r="N190" s="83"/>
-      <c r="O190" s="83"/>
-      <c r="P190" s="83"/>
-      <c r="Q190" s="83"/>
-      <c r="R190" s="83"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="72"/>
-      <c r="B191" s="75"/>
-      <c r="C191" s="75"/>
-      <c r="D191" s="75"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="83"/>
-      <c r="G191" s="83"/>
-      <c r="H191" s="83"/>
-      <c r="I191" s="83"/>
-      <c r="J191" s="83"/>
-      <c r="K191" s="83"/>
-      <c r="L191" s="83"/>
-      <c r="M191" s="83"/>
-      <c r="N191" s="83"/>
-      <c r="O191" s="83"/>
-      <c r="P191" s="83"/>
-      <c r="Q191" s="83"/>
-      <c r="R191" s="83"/>
+      <c r="E190" s="81"/>
+      <c r="F190" s="81"/>
+      <c r="G190" s="81"/>
+      <c r="H190" s="81"/>
+      <c r="I190" s="81"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="81"/>
+      <c r="L190" s="81"/>
+      <c r="M190" s="81"/>
+      <c r="N190" s="81"/>
+      <c r="O190" s="81"/>
+      <c r="P190" s="81"/>
+      <c r="Q190" s="81"/>
+      <c r="R190" s="81"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -8602,20 +8572,20 @@
       <c r="D1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
     </row>
     <row r="2">
       <c r="A2" s="71" t="s">
@@ -8624,7 +8594,7 @@
       <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="89" t="n">
+      <c r="C2" s="3" t="n">
         <v>1.537631999999E12</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -8641,7 +8611,7 @@
       <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="89" t="n">
+      <c r="C3" s="3" t="n">
         <v>1.537631999999E12</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -8810,7 +8780,7 @@
       <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="89" t="n">
+      <c r="C14" s="87" t="n">
         <v>1.529251199999E12</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -8861,7 +8831,7 @@
     <row r="21"/>
     <row r="22"/>
     <row r="23">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="86" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9441,24 +9411,24 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1.537632E12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9471,15 +9441,15 @@
         <v>81</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1.537632000001E12</v>
@@ -9490,11 +9460,11 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1.537632000002E12</v>
@@ -9505,7 +9475,7 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -9522,11 +9492,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1.554393600001E12</v>
@@ -9537,11 +9507,11 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.554393600002E12</v>
@@ -9552,7 +9522,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="89" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -9578,12 +9548,8 @@
     <row r="14"/>
     <row r="15"/>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17"/>
     <row r="18"/>
@@ -9831,7 +9797,7 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -9844,15 +9810,15 @@
         <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1.537632000001E12</v>
@@ -9863,11 +9829,11 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1.537632000002E12</v>
@@ -9878,24 +9844,24 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1.5543936E12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -9912,11 +9878,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1.554393600001E12</v>
@@ -9927,11 +9893,11 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="90" t="s">
         <v>159</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>1.554393600002E12</v>
@@ -9942,7 +9908,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="89" t="s">
         <v>171</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -10211,7 +10177,7 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -10224,15 +10190,15 @@
         <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1.537632000001E12</v>
@@ -10243,11 +10209,11 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>1.537632000002E12</v>
@@ -10258,20 +10224,20 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>1.5543936E12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6"/>
@@ -10535,16 +10501,16 @@
         <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1.5543936E12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3"/>
@@ -10807,24 +10773,24 @@
       <c r="R1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1.5543936E12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -10837,11 +10803,11 @@
         <v>68</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="91" t="s">
+      <c r="A4" s="89" t="s">
         <v>169</v>
       </c>
       <c r="B4" s="3" t="s">

--- a/server/测试数据.xlsx
+++ b/server/测试数据.xlsx
@@ -16,13 +16,14 @@
     <sheet name="G" r:id="rId10" sheetId="8"/>
     <sheet name="副本G" r:id="rId11" sheetId="9"/>
     <sheet name="测试用例汇总" r:id="rId12" sheetId="10"/>
+    <sheet name="祖_新增" r:id="rId13" sheetId="11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="254">
   <si>
     <t>content</t>
   </si>
@@ -927,7 +928,7 @@
     <numFmt numFmtId="164" formatCode="yyyy/m/d"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color indexed="8"/>
@@ -939,28 +940,24 @@
       <name val="等线"/>
       <sz val="11.0"/>
       <b val="true"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="11.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="11.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="true"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="9.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
     </font>
@@ -968,28 +965,34 @@
       <name val="等线"/>
       <sz val="9.0"/>
       <b val="true"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="10.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
+      <strike val="false"/>
+    </font>
+    <font>
+      <name val="-apple-system"/>
+      <sz val="11.0"/>
+      <strike val="false"/>
+    </font>
+    <font>
+      <name val="-apple-system"/>
+      <sz val="12.0"/>
       <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="12.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
     </font>
     <font>
       <name val="等线"/>
       <sz val="9.0"/>
-      <u val="none"/>
       <scheme val="minor"/>
       <strike val="false"/>
       <color rgb="FFFFFF"/>
@@ -1270,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
@@ -1395,22 +1398,25 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
@@ -1557,19 +1563,22 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
@@ -1596,7 +1605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyBorder="true" quotePrefix="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="31" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="49" fontId="10" fillId="31" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -5684,40 +5693,40 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="60" t="s">
         <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="69" t="s">
         <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="59" t="s">
+      <c r="J1" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="60" t="s">
         <v>219</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -5730,38 +5739,38 @@
       <c r="P1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-    </row>
-    <row r="2" ht="14.0">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49" t="s">
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" ht="16.0">
+      <c r="A2" s="50"/>
+      <c r="B2" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
       <c r="S2" s="26"/>
     </row>
-    <row r="3" ht="14.0">
+    <row r="3" ht="16.0">
       <c r="A3" s="20" t="s">
         <v>134</v>
       </c>
@@ -5771,8 +5780,8 @@
       <c r="C3" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20" t="s">
         <v>194</v>
@@ -5790,18 +5799,18 @@
       <c r="L3" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M3" s="84" t="n">
+      <c r="M3" s="85" t="n">
         <v>43467.0</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="O3" s="44" t="s">
+      <c r="N3" s="85"/>
+      <c r="O3" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P3" s="101" t="s">
+      <c r="P3" s="103" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="4" ht="17.0">
+    <row r="4" ht="28.0">
       <c r="A4" s="20" t="s">
         <v>123</v>
       </c>
@@ -5811,10 +5820,10 @@
       <c r="C4" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="71" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="20"/>
@@ -5828,18 +5837,18 @@
         <v>1.0</v>
       </c>
       <c r="L4" s="20"/>
-      <c r="M4" s="85" t="n">
+      <c r="M4" s="86" t="n">
         <v>43476.57146990741</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="44" t="s">
+      <c r="N4" s="86"/>
+      <c r="O4" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P4" s="37" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" ht="17.0">
+    <row r="5" ht="16.0">
       <c r="A5" s="20" t="s">
         <v>115</v>
       </c>
@@ -5849,10 +5858,10 @@
       <c r="C5" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="20"/>
@@ -5866,18 +5875,18 @@
         <v>1.0</v>
       </c>
       <c r="L5" s="20"/>
-      <c r="M5" s="85" t="n">
+      <c r="M5" s="86" t="n">
         <v>43488.531493055554</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="44" t="s">
+      <c r="N5" s="86"/>
+      <c r="O5" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" ht="35.0">
+    <row r="6" ht="28.0">
       <c r="A6" s="20" t="s">
         <v>147</v>
       </c>
@@ -5887,10 +5896,10 @@
       <c r="C6" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="71" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="20"/>
@@ -5908,18 +5917,18 @@
       <c r="L6" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M6" s="85" t="n">
+      <c r="M6" s="86" t="n">
         <v>43499.99998842592</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="44" t="s">
+      <c r="N6" s="86"/>
+      <c r="O6" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P6" s="37" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="7" ht="17.0">
+    <row r="7" ht="28.0">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -5929,10 +5938,10 @@
       <c r="C7" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="71" t="s">
         <v>184</v>
       </c>
       <c r="F7" s="20"/>
@@ -5948,18 +5957,18 @@
         <v>2.0</v>
       </c>
       <c r="L7" s="20"/>
-      <c r="M7" s="84" t="n">
+      <c r="M7" s="85" t="n">
         <v>43500.0</v>
       </c>
-      <c r="N7" s="84"/>
-      <c r="O7" s="44" t="s">
+      <c r="N7" s="85"/>
+      <c r="O7" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P7" s="37" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" ht="17.0">
+    <row r="8" ht="16.0">
       <c r="A8" s="20" t="s">
         <v>97</v>
       </c>
@@ -5969,10 +5978,10 @@
       <c r="C8" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="71" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="20"/>
@@ -5990,18 +5999,18 @@
         <v>2.0</v>
       </c>
       <c r="L8" s="20"/>
-      <c r="M8" s="84" t="n">
+      <c r="M8" s="85" t="n">
         <v>43511.0</v>
       </c>
-      <c r="N8" s="84"/>
-      <c r="O8" s="44" t="s">
+      <c r="N8" s="85"/>
+      <c r="O8" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P8" s="37" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="9" ht="17.0">
+    <row r="9" ht="28.0">
       <c r="A9" s="20" t="s">
         <v>123</v>
       </c>
@@ -6011,10 +6020,10 @@
       <c r="C9" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="71" t="s">
         <v>185</v>
       </c>
       <c r="F9" s="20"/>
@@ -6028,18 +6037,18 @@
         <v>3.0</v>
       </c>
       <c r="L9" s="20"/>
-      <c r="M9" s="84" t="n">
+      <c r="M9" s="85" t="n">
         <v>43525.0</v>
       </c>
-      <c r="N9" s="84"/>
-      <c r="O9" s="44" t="s">
+      <c r="N9" s="85"/>
+      <c r="O9" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P9" s="37" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" ht="17.0">
+    <row r="10" ht="16.0">
       <c r="A10" s="20" t="s">
         <v>122</v>
       </c>
@@ -6049,10 +6058,10 @@
       <c r="C10" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="71" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="20"/>
@@ -6066,18 +6075,18 @@
         <v>3.0</v>
       </c>
       <c r="L10" s="20"/>
-      <c r="M10" s="85" t="n">
+      <c r="M10" s="86" t="n">
         <v>43548.15660879629</v>
       </c>
-      <c r="N10" s="85"/>
-      <c r="O10" s="44" t="s">
+      <c r="N10" s="86"/>
+      <c r="O10" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P10" s="37" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" ht="17.0">
+    <row r="11" ht="16.0">
       <c r="A11" s="20" t="s">
         <v>122</v>
       </c>
@@ -6087,10 +6096,10 @@
       <c r="C11" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="71" t="s">
         <v>53</v>
       </c>
       <c r="F11" s="20"/>
@@ -6110,31 +6119,31 @@
       <c r="L11" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M11" s="84" t="n">
+      <c r="M11" s="85" t="n">
         <v>43560.0</v>
       </c>
-      <c r="N11" s="84"/>
-      <c r="O11" s="44" t="s">
+      <c r="N11" s="85"/>
+      <c r="O11" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P11" s="37" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="12" ht="17.0">
+    <row r="12" ht="28.0">
       <c r="A12" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C12" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="71" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="20"/>
@@ -6152,31 +6161,31 @@
         <v>4.0</v>
       </c>
       <c r="L12" s="20"/>
-      <c r="M12" s="84" t="n">
+      <c r="M12" s="85" t="n">
         <v>43561.0</v>
       </c>
-      <c r="N12" s="84"/>
-      <c r="O12" s="44" t="s">
+      <c r="N12" s="85"/>
+      <c r="O12" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P12" s="37" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="13" ht="35.0">
+    <row r="13" ht="28.0">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C13" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="70" t="s">
+      <c r="E13" s="71" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="20"/>
@@ -6194,18 +6203,18 @@
         <v>4.0</v>
       </c>
       <c r="L13" s="20"/>
-      <c r="M13" s="84" t="n">
+      <c r="M13" s="85" t="n">
         <v>43562.0</v>
       </c>
-      <c r="N13" s="84"/>
-      <c r="O13" s="44" t="s">
+      <c r="N13" s="85"/>
+      <c r="O13" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P13" s="37" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" ht="17.0">
+    <row r="14" ht="28.0">
       <c r="A14" s="20" t="s">
         <v>122</v>
       </c>
@@ -6215,10 +6224,10 @@
       <c r="C14" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="71" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="20"/>
@@ -6238,31 +6247,31 @@
       <c r="L14" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M14" s="84" t="n">
+      <c r="M14" s="85" t="n">
         <v>43586.0</v>
       </c>
-      <c r="N14" s="84"/>
-      <c r="O14" s="44" t="s">
+      <c r="N14" s="85"/>
+      <c r="O14" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P14" s="37" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="15" ht="35.0">
+    <row r="15" ht="28.0">
       <c r="A15" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="20" t="n">
         <v>3.0</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="70" t="s">
+      <c r="E15" s="71" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="20"/>
@@ -6278,31 +6287,31 @@
         <v>5.0</v>
       </c>
       <c r="L15" s="20"/>
-      <c r="M15" s="85" t="n">
+      <c r="M15" s="86" t="n">
         <v>43590.99998842592</v>
       </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="44" t="s">
+      <c r="N15" s="86"/>
+      <c r="O15" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P15" s="37" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" ht="35.0">
+    <row r="16" ht="28.0">
       <c r="A16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C16" s="20" t="n">
         <v>4.0</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="20"/>
@@ -6318,18 +6327,18 @@
         <v>5.0</v>
       </c>
       <c r="L16" s="20"/>
-      <c r="M16" s="84" t="n">
+      <c r="M16" s="85" t="n">
         <v>43591.0</v>
       </c>
-      <c r="N16" s="84"/>
-      <c r="O16" s="44" t="s">
+      <c r="N16" s="85"/>
+      <c r="O16" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P16" s="37" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="17" ht="35.0">
+    <row r="17" ht="28.0">
       <c r="A17" s="20" t="s">
         <v>108</v>
       </c>
@@ -6339,10 +6348,10 @@
       <c r="C17" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="72" t="s">
         <v>186</v>
       </c>
       <c r="F17" s="20"/>
@@ -6356,18 +6365,18 @@
         <v>5.0</v>
       </c>
       <c r="L17" s="20"/>
-      <c r="M17" s="85" t="n">
+      <c r="M17" s="86" t="n">
         <v>43602.3484375</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="44" t="s">
+      <c r="N17" s="86"/>
+      <c r="O17" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P17" s="37" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="18" ht="35.0">
+    <row r="18" ht="28.0">
       <c r="A18" s="20" t="s">
         <v>157</v>
       </c>
@@ -6377,10 +6386,10 @@
       <c r="C18" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>59</v>
       </c>
       <c r="F18" s="20"/>
@@ -6400,18 +6409,18 @@
       <c r="L18" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M18" s="86" t="n">
+      <c r="M18" s="87" t="n">
         <v>43268.99998842592</v>
       </c>
-      <c r="N18" s="86"/>
-      <c r="O18" s="44" t="s">
+      <c r="N18" s="87"/>
+      <c r="O18" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P18" s="37" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="19" ht="17.0">
+    <row r="19" ht="28.0">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>159</v>
@@ -6419,10 +6428,10 @@
       <c r="C19" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="72" t="s">
         <v>187</v>
       </c>
       <c r="F19" s="20"/>
@@ -6440,18 +6449,18 @@
         <v>6.0</v>
       </c>
       <c r="L19" s="20"/>
-      <c r="M19" s="87" t="n">
+      <c r="M19" s="88" t="n">
         <v>43269.0</v>
       </c>
-      <c r="N19" s="87"/>
-      <c r="O19" s="44" t="s">
+      <c r="N19" s="88"/>
+      <c r="O19" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P19" s="37" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20" ht="17.0">
+    <row r="20" ht="28.0">
       <c r="A20" s="20" t="s">
         <v>98</v>
       </c>
@@ -6461,10 +6470,10 @@
       <c r="C20" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="20"/>
@@ -6480,18 +6489,18 @@
       <c r="L20" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M20" s="87" t="n">
+      <c r="M20" s="88" t="n">
         <v>43282.0</v>
       </c>
-      <c r="N20" s="87"/>
-      <c r="O20" s="44" t="s">
+      <c r="N20" s="88"/>
+      <c r="O20" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P20" s="37" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="21" ht="35.0">
+    <row r="21" ht="28.0">
       <c r="A21" s="20" t="s">
         <v>97</v>
       </c>
@@ -6501,10 +6510,10 @@
       <c r="C21" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D21" s="63" t="s">
+      <c r="D21" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="71" t="s">
         <v>62</v>
       </c>
       <c r="F21" s="20"/>
@@ -6520,31 +6529,31 @@
         <v>8.0</v>
       </c>
       <c r="L21" s="20"/>
-      <c r="M21" s="86" t="n">
+      <c r="M21" s="87" t="n">
         <v>43318.99998842592</v>
       </c>
-      <c r="N21" s="86"/>
-      <c r="O21" s="44" t="s">
+      <c r="N21" s="87"/>
+      <c r="O21" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P21" s="37" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="22" ht="17.0">
+    <row r="22" ht="16.0">
       <c r="A22" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C22" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="70" t="s">
+      <c r="E22" s="71" t="s">
         <v>188</v>
       </c>
       <c r="F22" s="20"/>
@@ -6560,18 +6569,18 @@
         <v>8.0</v>
       </c>
       <c r="L22" s="20"/>
-      <c r="M22" s="87" t="n">
+      <c r="M22" s="88" t="n">
         <v>43319.0</v>
       </c>
-      <c r="N22" s="87"/>
-      <c r="O22" s="44" t="s">
+      <c r="N22" s="88"/>
+      <c r="O22" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P22" s="37" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="23" ht="17.0">
+    <row r="23" ht="28.0">
       <c r="A23" s="20" t="s">
         <v>120</v>
       </c>
@@ -6581,10 +6590,10 @@
       <c r="C23" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D23" s="63" t="s">
+      <c r="D23" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="71" t="s">
         <v>189</v>
       </c>
       <c r="F23" s="20"/>
@@ -6598,25 +6607,25 @@
         <v>9.0</v>
       </c>
       <c r="L23" s="20"/>
-      <c r="M23" s="86" t="n">
+      <c r="M23" s="87" t="n">
         <v>43348.96763888889</v>
       </c>
-      <c r="N23" s="86"/>
-      <c r="O23" s="44" t="s">
+      <c r="N23" s="87"/>
+      <c r="O23" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P23" s="37" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" ht="14.0">
+    <row r="24" ht="16.0">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="70"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20" t="s">
         <v>202</v>
@@ -6630,14 +6639,14 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
-      <c r="O24" s="44" t="s">
+      <c r="O24" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P24" s="101" t="s">
+      <c r="P24" s="103" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="25" ht="17.0">
+    <row r="25" ht="28.0">
       <c r="A25" s="20" t="s">
         <v>120</v>
       </c>
@@ -6647,10 +6656,10 @@
       <c r="C25" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="71" t="s">
         <v>63</v>
       </c>
       <c r="F25" s="20"/>
@@ -6670,31 +6679,31 @@
       <c r="L25" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M25" s="86" t="n">
+      <c r="M25" s="87" t="n">
         <v>43365.99998842592</v>
       </c>
-      <c r="N25" s="86"/>
-      <c r="O25" s="44" t="s">
+      <c r="N25" s="87"/>
+      <c r="O25" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P25" s="101" t="s">
+      <c r="P25" s="103" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" ht="17.0">
+    <row r="26" ht="16.0">
       <c r="A26" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D26" s="63" t="s">
+      <c r="D26" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="71" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="20"/>
@@ -6714,18 +6723,18 @@
       <c r="L26" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M26" s="87" t="n">
+      <c r="M26" s="88" t="n">
         <v>43380.0</v>
       </c>
-      <c r="N26" s="87"/>
-      <c r="O26" s="44" t="s">
+      <c r="N26" s="88"/>
+      <c r="O26" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P26" s="37" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="27" ht="17.0">
+    <row r="27" ht="28.0">
       <c r="A27" s="20" t="s">
         <v>116</v>
       </c>
@@ -6735,10 +6744,10 @@
       <c r="C27" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="71" t="s">
         <v>184</v>
       </c>
       <c r="F27" s="20"/>
@@ -6756,18 +6765,18 @@
         <v>10.0</v>
       </c>
       <c r="L27" s="20"/>
-      <c r="M27" s="87" t="n">
+      <c r="M27" s="88" t="n">
         <v>43381.0</v>
       </c>
-      <c r="N27" s="87"/>
-      <c r="O27" s="44" t="s">
+      <c r="N27" s="88"/>
+      <c r="O27" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P27" s="37" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" ht="17.0">
+    <row r="28" ht="28.0">
       <c r="A28" s="20" t="s">
         <v>99</v>
       </c>
@@ -6777,10 +6786,10 @@
       <c r="C28" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="72" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="20"/>
@@ -6798,11 +6807,11 @@
       <c r="L28" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M28" s="86" t="n">
+      <c r="M28" s="87" t="n">
         <v>43410.99998842592</v>
       </c>
-      <c r="N28" s="86"/>
-      <c r="O28" s="44" t="s">
+      <c r="N28" s="87"/>
+      <c r="O28" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P28" s="37" t="s">
@@ -6819,10 +6828,10 @@
       <c r="C29" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="71" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="20"/>
@@ -6838,31 +6847,31 @@
         <v>11.0</v>
       </c>
       <c r="L29" s="20"/>
-      <c r="M29" s="87" t="n">
+      <c r="M29" s="88" t="n">
         <v>43411.0</v>
       </c>
-      <c r="N29" s="87"/>
-      <c r="O29" s="44" t="s">
+      <c r="N29" s="88"/>
+      <c r="O29" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P29" s="37" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="30" ht="17.0">
+    <row r="30" ht="16.0">
       <c r="A30" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="20" t="n">
         <v>3.0</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="72" t="s">
         <v>66</v>
       </c>
       <c r="F30" s="20"/>
@@ -6876,31 +6885,31 @@
         <v>12.0</v>
       </c>
       <c r="L30" s="20"/>
-      <c r="M30" s="87" t="n">
+      <c r="M30" s="88" t="n">
         <v>43435.0</v>
       </c>
-      <c r="N30" s="87"/>
-      <c r="O30" s="44" t="s">
+      <c r="N30" s="88"/>
+      <c r="O30" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P30" s="101" t="s">
+      <c r="P30" s="103" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="31" ht="17.0">
+    <row r="31" ht="16.0">
       <c r="A31" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="56" t="s">
         <v>171</v>
       </c>
       <c r="C31" s="20" t="n">
         <v>4.0</v>
       </c>
-      <c r="D31" s="62" t="s">
+      <c r="D31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="72" t="s">
         <v>67</v>
       </c>
       <c r="F31" s="20"/>
@@ -6914,18 +6923,18 @@
         <v>12.0</v>
       </c>
       <c r="L31" s="20"/>
-      <c r="M31" s="86" t="n">
+      <c r="M31" s="87" t="n">
         <v>43437.83976851852</v>
       </c>
-      <c r="N31" s="86"/>
-      <c r="O31" s="44" t="s">
+      <c r="N31" s="87"/>
+      <c r="O31" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P31" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="32" ht="17.0">
+    <row r="32" ht="28.0">
       <c r="A32" s="20" t="s">
         <v>134</v>
       </c>
@@ -6935,10 +6944,10 @@
       <c r="C32" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="70" t="s">
+      <c r="E32" s="71" t="s">
         <v>190</v>
       </c>
       <c r="F32" s="20"/>
@@ -6954,11 +6963,11 @@
       <c r="L32" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M32" s="86" t="n">
+      <c r="M32" s="87" t="n">
         <v>43465.99998842592</v>
       </c>
-      <c r="N32" s="86"/>
-      <c r="O32" s="44" t="s">
+      <c r="N32" s="87"/>
+      <c r="O32" s="97" t="s">
         <v>222</v>
       </c>
       <c r="P32" s="37" t="s">
@@ -6970,7 +6979,7 @@
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="72"/>
+      <c r="E33" s="73"/>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>
       <c r="H33" s="26"/>
@@ -6984,95 +6993,95 @@
       <c r="P33" s="26"/>
     </row>
     <row r="34">
-      <c r="E34" s="72"/>
+      <c r="E34" s="73"/>
       <c r="N34" s="26"/>
     </row>
     <row r="35">
-      <c r="E35" s="72"/>
+      <c r="E35" s="73"/>
       <c r="N35" s="26"/>
     </row>
     <row r="36">
-      <c r="E36" s="72"/>
+      <c r="E36" s="73"/>
       <c r="N36" s="26"/>
     </row>
-    <row r="37" ht="17.0">
-      <c r="A37" s="50" t="s">
+    <row r="37" ht="28.0">
+      <c r="A37" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="56" t="n">
+      <c r="C37" s="57" t="n">
         <v>2.0</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="73" t="s">
+      <c r="E37" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="79" t="s">
+      <c r="F37" s="57"/>
+      <c r="G37" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="H37" s="56" t="s">
+      <c r="H37" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="82" t="s">
+      <c r="I37" s="83" t="s">
         <v>216</v>
       </c>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82" t="n">
+      <c r="J37" s="83"/>
+      <c r="K37" s="83" t="n">
         <v>9.0</v>
       </c>
-      <c r="L37" s="82" t="s">
+      <c r="L37" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="M37" s="88" t="n">
+      <c r="M37" s="89" t="n">
         <v>43367.99998842592</v>
       </c>
-      <c r="N37" s="88" t="n">
+      <c r="N37" s="89" t="n">
         <v>1.537804799E12</v>
       </c>
-      <c r="O37" s="96" t="s">
+      <c r="O37" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="P37" s="102" t="s">
+      <c r="P37" s="104" t="s">
         <v>246</v>
       </c>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
     </row>
-    <row r="38" ht="14.0">
-      <c r="A38" s="50" t="s">
+    <row r="38" ht="16.0">
+      <c r="A38" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="97" t="s">
+      <c r="E38" s="75"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="P38" s="103"/>
+      <c r="P38" s="105"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
     </row>
-    <row r="39" ht="17.0">
-      <c r="A39" s="51" t="s">
+    <row r="39" ht="16.0">
+      <c r="A39" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B39" s="20" t="s">
@@ -7081,10 +7090,10 @@
       <c r="C39" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="71" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="20"/>
@@ -7098,24 +7107,24 @@
         <v>1.0</v>
       </c>
       <c r="L39" s="20"/>
-      <c r="M39" s="86" t="n">
+      <c r="M39" s="87" t="n">
         <v>43488.531493055554</v>
       </c>
-      <c r="N39" s="86" t="n">
+      <c r="N39" s="87" t="n">
         <v>1.548218721E12</v>
       </c>
-      <c r="O39" s="44" t="s">
+      <c r="O39" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P39" s="104" t="s">
+      <c r="P39" s="106" t="s">
         <v>226</v>
       </c>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" ht="17.0">
-      <c r="A40" s="51" t="s">
+    <row r="40" ht="28.0">
+      <c r="A40" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -7127,7 +7136,7 @@
       <c r="D40" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="70" t="s">
+      <c r="E40" s="71" t="s">
         <v>65</v>
       </c>
       <c r="F40" s="20"/>
@@ -7143,24 +7152,24 @@
         <v>11.0</v>
       </c>
       <c r="L40" s="20"/>
-      <c r="M40" s="87" t="n">
+      <c r="M40" s="88" t="n">
         <v>43411.0</v>
       </c>
-      <c r="N40" s="87" t="n">
+      <c r="N40" s="88" t="n">
         <v>1.541565921E12</v>
       </c>
-      <c r="O40" s="44" t="s">
+      <c r="O40" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P40" s="104" t="s">
+      <c r="P40" s="106" t="s">
         <v>250</v>
       </c>
       <c r="Q40" s="26"/>
       <c r="R40" s="26"/>
       <c r="S40" s="26"/>
     </row>
-    <row r="41" ht="17.0">
-      <c r="A41" s="51" t="s">
+    <row r="41" ht="16.0">
+      <c r="A41" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="20" t="s">
@@ -7169,14 +7178,14 @@
       <c r="C41" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D41" s="62" t="s">
+      <c r="D41" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="71" t="s">
         <v>50</v>
       </c>
       <c r="F41" s="20"/>
-      <c r="G41" s="80" t="s">
+      <c r="G41" s="81" t="s">
         <v>195</v>
       </c>
       <c r="H41" s="20" t="s">
@@ -7190,24 +7199,24 @@
         <v>2.0</v>
       </c>
       <c r="L41" s="20"/>
-      <c r="M41" s="87" t="n">
+      <c r="M41" s="88" t="n">
         <v>43511.0</v>
       </c>
-      <c r="N41" s="87" t="n">
+      <c r="N41" s="88" t="n">
         <v>1.550205921E12</v>
       </c>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P41" s="104" t="s">
+      <c r="P41" s="106" t="s">
         <v>229</v>
       </c>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
     </row>
-    <row r="42" ht="35.0">
-      <c r="A42" s="51" t="s">
+    <row r="42" ht="28.0">
+      <c r="A42" s="52" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="20" t="s">
@@ -7219,7 +7228,7 @@
       <c r="D42" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="70" t="s">
+      <c r="E42" s="71" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="20"/>
@@ -7235,24 +7244,24 @@
         <v>8.0</v>
       </c>
       <c r="L42" s="20"/>
-      <c r="M42" s="86" t="n">
+      <c r="M42" s="87" t="n">
         <v>43318.99998842592</v>
       </c>
-      <c r="N42" s="86" t="n">
+      <c r="N42" s="87" t="n">
         <v>1.533571199E12</v>
       </c>
-      <c r="O42" s="44" t="s">
+      <c r="O42" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P42" s="104" t="s">
+      <c r="P42" s="106" t="s">
         <v>242</v>
       </c>
       <c r="Q42" s="26"/>
       <c r="R42" s="26"/>
       <c r="S42" s="26"/>
     </row>
-    <row r="43" ht="17.0">
-      <c r="A43" s="51" t="s">
+    <row r="43" ht="28.0">
+      <c r="A43" s="52" t="s">
         <v>98</v>
       </c>
       <c r="B43" s="20" t="s">
@@ -7264,40 +7273,40 @@
       <c r="D43" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="71" t="s">
         <v>61</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="83" t="s">
+      <c r="I43" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83" t="n">
+      <c r="J43" s="84"/>
+      <c r="K43" s="84" t="n">
         <v>7.0</v>
       </c>
-      <c r="L43" s="83" t="s">
+      <c r="L43" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="M43" s="90" t="n">
+      <c r="M43" s="91" t="n">
         <v>43282.0</v>
       </c>
-      <c r="N43" s="90" t="n">
+      <c r="N43" s="91" t="n">
         <v>1.530460799E12</v>
       </c>
-      <c r="O43" s="44" t="s">
+      <c r="O43" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P43" s="104" t="s">
+      <c r="P43" s="106" t="s">
         <v>241</v>
       </c>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
     </row>
-    <row r="44" ht="17.0">
-      <c r="A44" s="51" t="s">
+    <row r="44" ht="16.0">
+      <c r="A44" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B44" s="20" t="s">
@@ -7306,10 +7315,10 @@
       <c r="C44" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D44" s="62" t="s">
+      <c r="D44" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="71" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="20"/>
@@ -7323,24 +7332,24 @@
         <v>3.0</v>
       </c>
       <c r="L44" s="20"/>
-      <c r="M44" s="86" t="n">
+      <c r="M44" s="87" t="n">
         <v>43548.15660879629</v>
       </c>
-      <c r="N44" s="86" t="n">
+      <c r="N44" s="87" t="n">
         <v>1.553370331E12</v>
       </c>
-      <c r="O44" s="44" t="s">
+      <c r="O44" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P44" s="104" t="s">
+      <c r="P44" s="106" t="s">
         <v>231</v>
       </c>
       <c r="Q44" s="26"/>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
     </row>
-    <row r="45" ht="17.0">
-      <c r="A45" s="51" t="s">
+    <row r="45" ht="16.0">
+      <c r="A45" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -7349,14 +7358,14 @@
       <c r="C45" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D45" s="62" t="s">
+      <c r="D45" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="71" t="s">
         <v>53</v>
       </c>
       <c r="F45" s="20"/>
-      <c r="G45" s="80" t="s">
+      <c r="G45" s="81" t="s">
         <v>196</v>
       </c>
       <c r="H45" s="20" t="s">
@@ -7372,49 +7381,49 @@
       <c r="L45" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M45" s="87" t="n">
+      <c r="M45" s="88" t="n">
         <v>43560.0</v>
       </c>
-      <c r="N45" s="87" t="n">
+      <c r="N45" s="88" t="n">
         <v>1.554407131E12</v>
       </c>
-      <c r="O45" s="44" t="s">
+      <c r="O45" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P45" s="104" t="s">
+      <c r="P45" s="106" t="s">
         <v>232</v>
       </c>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
     </row>
-    <row r="46" ht="14.0">
-      <c r="A46" s="51" t="s">
+    <row r="46" ht="16.0">
+      <c r="A46" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="60"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="98"/>
-      <c r="P46" s="105"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="100"/>
+      <c r="P46" s="107"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
       <c r="S46" s="26"/>
     </row>
-    <row r="47" ht="17.0">
-      <c r="A47" s="51" t="s">
+    <row r="47" ht="28.0">
+      <c r="A47" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B47" s="20" t="s">
@@ -7423,10 +7432,10 @@
       <c r="C47" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D47" s="62" t="s">
+      <c r="D47" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="71" t="s">
         <v>54</v>
       </c>
       <c r="F47" s="20"/>
@@ -7444,24 +7453,24 @@
         <v>4.0</v>
       </c>
       <c r="L47" s="20"/>
-      <c r="M47" s="87" t="n">
+      <c r="M47" s="88" t="n">
         <v>43561.0</v>
       </c>
-      <c r="N47" s="87" t="n">
+      <c r="N47" s="88" t="n">
         <v>1.554493531E12</v>
       </c>
-      <c r="O47" s="44" t="s">
+      <c r="O47" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P47" s="104" t="s">
+      <c r="P47" s="106" t="s">
         <v>233</v>
       </c>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
     </row>
-    <row r="48" ht="35.0">
-      <c r="A48" s="51" t="s">
+    <row r="48" ht="28.0">
+      <c r="A48" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B48" s="20" t="s">
@@ -7470,10 +7479,10 @@
       <c r="C48" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D48" s="62" t="s">
+      <c r="D48" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="70" t="s">
+      <c r="E48" s="71" t="s">
         <v>55</v>
       </c>
       <c r="F48" s="20"/>
@@ -7491,49 +7500,49 @@
         <v>4.0</v>
       </c>
       <c r="L48" s="20"/>
-      <c r="M48" s="87" t="n">
+      <c r="M48" s="88" t="n">
         <v>43562.0</v>
       </c>
-      <c r="N48" s="87" t="n">
+      <c r="N48" s="88" t="n">
         <v>1.554579931E12</v>
       </c>
-      <c r="O48" s="44" t="s">
+      <c r="O48" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P48" s="104" t="s">
+      <c r="P48" s="106" t="s">
         <v>234</v>
       </c>
       <c r="Q48" s="26"/>
       <c r="R48" s="26"/>
       <c r="S48" s="26"/>
     </row>
-    <row r="49" ht="14.0">
-      <c r="A49" s="51" t="s">
+    <row r="49" ht="16.0">
+      <c r="A49" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
-      <c r="M49" s="91"/>
-      <c r="N49" s="91"/>
-      <c r="O49" s="98"/>
-      <c r="P49" s="105"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="92"/>
+      <c r="N49" s="92"/>
+      <c r="O49" s="100"/>
+      <c r="P49" s="107"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
     </row>
-    <row r="50" ht="17.0">
-      <c r="A50" s="51" t="s">
+    <row r="50" ht="28.0">
+      <c r="A50" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B50" s="20" t="s">
@@ -7542,14 +7551,14 @@
       <c r="C50" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D50" s="62" t="s">
+      <c r="D50" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="70" t="s">
+      <c r="E50" s="71" t="s">
         <v>56</v>
       </c>
       <c r="F50" s="20"/>
-      <c r="G50" s="80" t="s">
+      <c r="G50" s="81" t="s">
         <v>199</v>
       </c>
       <c r="H50" s="20" t="s">
@@ -7565,24 +7574,24 @@
       <c r="L50" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M50" s="87" t="n">
+      <c r="M50" s="88" t="n">
         <v>43586.0</v>
       </c>
-      <c r="N50" s="87" t="n">
+      <c r="N50" s="88" t="n">
         <v>1.556653531E12</v>
       </c>
-      <c r="O50" s="44" t="s">
+      <c r="O50" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P50" s="104" t="s">
+      <c r="P50" s="106" t="s">
         <v>235</v>
       </c>
       <c r="Q50" s="26"/>
       <c r="R50" s="26"/>
       <c r="S50" s="26"/>
     </row>
-    <row r="51" ht="35.0">
-      <c r="A51" s="51" t="s">
+    <row r="51" ht="28.0">
+      <c r="A51" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -7591,10 +7600,10 @@
       <c r="C51" s="20" t="n">
         <v>3.0</v>
       </c>
-      <c r="D51" s="62" t="s">
+      <c r="D51" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" s="71" t="s">
         <v>57</v>
       </c>
       <c r="F51" s="20"/>
@@ -7610,74 +7619,74 @@
         <v>5.0</v>
       </c>
       <c r="L51" s="20"/>
-      <c r="M51" s="86" t="n">
+      <c r="M51" s="87" t="n">
         <v>43590.99998842592</v>
       </c>
-      <c r="N51" s="86" t="n">
+      <c r="N51" s="87" t="n">
         <v>1.557071999E12</v>
       </c>
-      <c r="O51" s="44" t="s">
+      <c r="O51" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P51" s="104" t="s">
+      <c r="P51" s="106" t="s">
         <v>236</v>
       </c>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
     </row>
-    <row r="52" ht="14.0">
-      <c r="A52" s="51" t="s">
+    <row r="52" ht="16.0">
+      <c r="A52" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C52" s="60"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="98"/>
-      <c r="P52" s="105"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="93"/>
+      <c r="N52" s="93"/>
+      <c r="O52" s="100"/>
+      <c r="P52" s="107"/>
       <c r="Q52" s="26"/>
       <c r="R52" s="26"/>
       <c r="S52" s="26"/>
     </row>
-    <row r="53" ht="14.0">
-      <c r="A53" s="51" t="s">
+    <row r="53" ht="16.0">
+      <c r="A53" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="105"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="93"/>
+      <c r="N53" s="93"/>
+      <c r="O53" s="100"/>
+      <c r="P53" s="107"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
     </row>
-    <row r="54" ht="35.0">
-      <c r="A54" s="51" t="s">
+    <row r="54" ht="28.0">
+      <c r="A54" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B54" s="20" t="s">
@@ -7686,10 +7695,10 @@
       <c r="C54" s="20" t="n">
         <v>4.0</v>
       </c>
-      <c r="D54" s="62" t="s">
+      <c r="D54" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="70" t="s">
+      <c r="E54" s="71" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="20"/>
@@ -7705,24 +7714,24 @@
         <v>5.0</v>
       </c>
       <c r="L54" s="20"/>
-      <c r="M54" s="87" t="n">
+      <c r="M54" s="88" t="n">
         <v>43591.0</v>
       </c>
-      <c r="N54" s="87" t="n">
+      <c r="N54" s="88" t="n">
         <v>1.557158399E12</v>
       </c>
-      <c r="O54" s="44" t="s">
+      <c r="O54" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P54" s="104" t="s">
+      <c r="P54" s="106" t="s">
         <v>237</v>
       </c>
       <c r="Q54" s="26"/>
       <c r="R54" s="26"/>
       <c r="S54" s="26"/>
     </row>
-    <row r="55" ht="17.0">
-      <c r="A55" s="51" t="s">
+    <row r="55" ht="28.0">
+      <c r="A55" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -7731,41 +7740,41 @@
       <c r="C55" s="20" t="n">
         <v>2.0</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="71" t="s">
         <v>185</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="83" t="s">
+      <c r="I55" s="84" t="s">
         <v>214</v>
       </c>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83" t="n">
+      <c r="J55" s="84"/>
+      <c r="K55" s="84" t="n">
         <v>3.0</v>
       </c>
-      <c r="L55" s="83"/>
-      <c r="M55" s="90" t="n">
+      <c r="L55" s="84"/>
+      <c r="M55" s="91" t="n">
         <v>43160.0</v>
       </c>
-      <c r="N55" s="90" t="n">
+      <c r="N55" s="91" t="n">
         <v>1.519919999E12</v>
       </c>
-      <c r="O55" s="44" t="s">
+      <c r="O55" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P55" s="104" t="s">
+      <c r="P55" s="106" t="s">
         <v>230</v>
       </c>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
     </row>
-    <row r="56" ht="17.0">
-      <c r="A56" s="51" t="s">
+    <row r="56" ht="28.0">
+      <c r="A56" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B56" s="20" t="s">
@@ -7774,10 +7783,10 @@
       <c r="C56" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D56" s="62" t="s">
+      <c r="D56" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="70" t="s">
+      <c r="E56" s="71" t="s">
         <v>47</v>
       </c>
       <c r="F56" s="20"/>
@@ -7791,24 +7800,24 @@
         <v>1.0</v>
       </c>
       <c r="L56" s="20"/>
-      <c r="M56" s="86" t="n">
+      <c r="M56" s="87" t="n">
         <v>43476.57146990741</v>
       </c>
-      <c r="N56" s="86" t="n">
+      <c r="N56" s="87" t="n">
         <v>1.547185375E12</v>
       </c>
-      <c r="O56" s="44" t="s">
+      <c r="O56" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P56" s="104" t="s">
+      <c r="P56" s="106" t="s">
         <v>225</v>
       </c>
       <c r="Q56" s="26"/>
       <c r="R56" s="26"/>
       <c r="S56" s="26"/>
     </row>
-    <row r="57" ht="35.0">
-      <c r="A57" s="51" t="s">
+    <row r="57" ht="28.0">
+      <c r="A57" s="52" t="s">
         <v>157</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -7820,11 +7829,11 @@
       <c r="D57" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="71" t="s">
         <v>59</v>
       </c>
       <c r="F57" s="20"/>
-      <c r="G57" s="80" t="s">
+      <c r="G57" s="81" t="s">
         <v>207</v>
       </c>
       <c r="H57" s="20" t="s">
@@ -7840,71 +7849,71 @@
       <c r="L57" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M57" s="86" t="n">
+      <c r="M57" s="87" t="n">
         <v>43269.99998842592</v>
       </c>
-      <c r="N57" s="86" t="n">
+      <c r="N57" s="87" t="n">
         <v>1.529337599E12</v>
       </c>
-      <c r="O57" s="44" t="s">
+      <c r="O57" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P57" s="104" t="s">
+      <c r="P57" s="106" t="s">
         <v>239</v>
       </c>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
     </row>
-    <row r="58" ht="16.0">
-      <c r="A58" s="52" t="s">
+    <row r="58" ht="26.0">
+      <c r="A58" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="57" t="n">
+      <c r="C58" s="58" t="n">
         <v>1.0</v>
       </c>
-      <c r="D58" s="66" t="s">
+      <c r="D58" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="76" t="s">
+      <c r="E58" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57" t="s">
+      <c r="F58" s="58"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58" t="s">
         <v>216</v>
       </c>
-      <c r="J58" s="57" t="s">
+      <c r="J58" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="K58" s="57" t="n">
+      <c r="K58" s="58" t="n">
         <v>11.0</v>
       </c>
-      <c r="L58" s="57" t="s">
+      <c r="L58" s="58" t="s">
         <v>210</v>
       </c>
-      <c r="M58" s="93" t="n">
+      <c r="M58" s="94" t="n">
         <v>43410.99998842592</v>
       </c>
-      <c r="N58" s="93" t="n">
+      <c r="N58" s="94" t="n">
         <v>1.541519999E12</v>
       </c>
-      <c r="O58" s="99" t="s">
+      <c r="O58" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="P58" s="106" t="s">
+      <c r="P58" s="108" t="s">
         <v>249</v>
       </c>
-      <c r="Q58" s="66"/>
-      <c r="R58" s="66"/>
-      <c r="S58" s="66"/>
-    </row>
-    <row r="59" ht="35.0">
-      <c r="A59" s="51" t="s">
+      <c r="Q58" s="67"/>
+      <c r="R58" s="67"/>
+      <c r="S58" s="67"/>
+    </row>
+    <row r="59" ht="28.0">
+      <c r="A59" s="52" t="s">
         <v>147</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -7913,10 +7922,10 @@
       <c r="C59" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D59" s="62" t="s">
+      <c r="D59" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="70" t="s">
+      <c r="E59" s="71" t="s">
         <v>49</v>
       </c>
       <c r="F59" s="20"/>
@@ -7934,24 +7943,24 @@
       <c r="L59" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M59" s="86" t="n">
+      <c r="M59" s="87" t="n">
         <v>43499.99998842592</v>
       </c>
-      <c r="N59" s="86" t="n">
+      <c r="N59" s="87" t="n">
         <v>1.549209599E12</v>
       </c>
-      <c r="O59" s="44" t="s">
+      <c r="O59" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P59" s="104" t="s">
+      <c r="P59" s="106" t="s">
         <v>227</v>
       </c>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
     </row>
-    <row r="60" ht="17.0">
-      <c r="A60" s="51" t="s">
+    <row r="60" ht="28.0">
+      <c r="A60" s="52" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="20" t="s">
@@ -7960,10 +7969,10 @@
       <c r="C60" s="20" t="n">
         <v>1.0</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="71" t="s">
+      <c r="E60" s="72" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="20"/>
@@ -7981,24 +7990,24 @@
       <c r="L60" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="M60" s="86" t="n">
+      <c r="M60" s="87" t="n">
         <v>43410.99998842592</v>
       </c>
-      <c r="N60" s="86" t="n">
+      <c r="N60" s="87" t="n">
         <v>1.541519999E12</v>
       </c>
-      <c r="O60" s="44" t="s">
+      <c r="O60" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P60" s="104" t="s">
+      <c r="P60" s="106" t="s">
         <v>249</v>
       </c>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
       <c r="S60" s="26"/>
     </row>
-    <row r="61" ht="17.0">
-      <c r="A61" s="51" t="s">
+    <row r="61" ht="16.0">
+      <c r="A61" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -8007,41 +8016,41 @@
       <c r="C61" s="20" t="n">
         <v>3.0</v>
       </c>
-      <c r="D61" s="62" t="s">
+      <c r="D61" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="E61" s="71" t="s">
+      <c r="E61" s="72" t="s">
         <v>66</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="83" t="s">
+      <c r="I61" s="84" t="s">
         <v>213</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83" t="n">
+      <c r="J61" s="84"/>
+      <c r="K61" s="84" t="n">
         <v>12.0</v>
       </c>
-      <c r="L61" s="83"/>
-      <c r="M61" s="90" t="n">
+      <c r="L61" s="84"/>
+      <c r="M61" s="91" t="n">
         <v>43435.0</v>
       </c>
-      <c r="N61" s="90" t="n">
+      <c r="N61" s="91" t="n">
         <v>1.543679999E12</v>
       </c>
-      <c r="O61" s="44" t="s">
+      <c r="O61" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P61" s="107" t="s">
+      <c r="P61" s="109" t="s">
         <v>251</v>
       </c>
       <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
     </row>
-    <row r="62" ht="17.0">
-      <c r="A62" s="51" t="s">
+    <row r="62" ht="16.0">
+      <c r="A62" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -8050,10 +8059,10 @@
       <c r="C62" s="20" t="n">
         <v>4.0</v>
       </c>
-      <c r="D62" s="62" t="s">
+      <c r="D62" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="71" t="s">
+      <c r="E62" s="72" t="s">
         <v>67</v>
       </c>
       <c r="F62" s="20"/>
@@ -8067,65 +8076,65 @@
         <v>12.0</v>
       </c>
       <c r="L62" s="20"/>
-      <c r="M62" s="86" t="n">
+      <c r="M62" s="87" t="n">
         <v>43437.83976851852</v>
       </c>
-      <c r="N62" s="86" t="n">
+      <c r="N62" s="87" t="n">
         <v>1.543838956E12</v>
       </c>
-      <c r="O62" s="44" t="s">
+      <c r="O62" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="P62" s="104" t="s">
+      <c r="P62" s="106" t="s">
         <v>252</v>
       </c>
       <c r="Q62" s="26"/>
       <c r="R62" s="26"/>
       <c r="S62" s="26"/>
     </row>
-    <row r="63" ht="17.0">
-      <c r="A63" s="53" t="s">
+    <row r="63" ht="16.0">
+      <c r="A63" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="58" t="s">
+      <c r="B63" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="58" t="n">
+      <c r="C63" s="59" t="n">
         <v>2.0</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D63" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="E63" s="77" t="s">
+      <c r="E63" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="81" t="s">
+      <c r="F63" s="59"/>
+      <c r="G63" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="H63" s="58" t="s">
+      <c r="H63" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="I63" s="58" t="s">
+      <c r="I63" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="J63" s="58"/>
-      <c r="K63" s="58" t="n">
+      <c r="J63" s="59"/>
+      <c r="K63" s="59" t="n">
         <v>10.0</v>
       </c>
-      <c r="L63" s="58" t="s">
+      <c r="L63" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="M63" s="94" t="n">
+      <c r="M63" s="95" t="n">
         <v>43380.0</v>
       </c>
-      <c r="N63" s="94" t="n">
+      <c r="N63" s="95" t="n">
         <v>1.538914156E12</v>
       </c>
-      <c r="O63" s="100" t="s">
+      <c r="O63" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="P63" s="108" t="s">
+      <c r="P63" s="110" t="s">
         <v>247</v>
       </c>
       <c r="Q63" s="26"/>
@@ -8133,577 +8142,881 @@
       <c r="S63" s="26"/>
     </row>
     <row r="64">
-      <c r="E64" s="72"/>
+      <c r="E64" s="73"/>
       <c r="N64" s="26"/>
     </row>
     <row r="65">
-      <c r="E65" s="72"/>
+      <c r="E65" s="73"/>
       <c r="N65" s="26"/>
     </row>
     <row r="66">
-      <c r="E66" s="72"/>
+      <c r="E66" s="73"/>
       <c r="N66" s="26"/>
     </row>
     <row r="67">
-      <c r="E67" s="72"/>
+      <c r="E67" s="73"/>
       <c r="N67" s="26"/>
     </row>
     <row r="68">
-      <c r="E68" s="72"/>
+      <c r="E68" s="73"/>
       <c r="N68" s="26"/>
     </row>
     <row r="69">
-      <c r="E69" s="72"/>
+      <c r="E69" s="73"/>
       <c r="N69" s="26"/>
     </row>
     <row r="70">
-      <c r="E70" s="72"/>
+      <c r="E70" s="73"/>
       <c r="N70" s="26"/>
     </row>
     <row r="71">
-      <c r="E71" s="72"/>
+      <c r="E71" s="73"/>
       <c r="N71" s="26"/>
     </row>
     <row r="72">
-      <c r="E72" s="72"/>
+      <c r="E72" s="73"/>
       <c r="N72" s="26"/>
     </row>
     <row r="73">
-      <c r="E73" s="72"/>
+      <c r="E73" s="73"/>
       <c r="N73" s="26"/>
     </row>
     <row r="74">
-      <c r="E74" s="72"/>
+      <c r="E74" s="73"/>
       <c r="N74" s="26"/>
     </row>
     <row r="75">
-      <c r="E75" s="72"/>
+      <c r="E75" s="73"/>
       <c r="N75" s="26"/>
     </row>
     <row r="76">
-      <c r="E76" s="72"/>
+      <c r="E76" s="73"/>
       <c r="N76" s="26"/>
     </row>
     <row r="77">
-      <c r="E77" s="72"/>
+      <c r="E77" s="73"/>
       <c r="N77" s="26"/>
     </row>
     <row r="78">
-      <c r="E78" s="72"/>
+      <c r="E78" s="73"/>
       <c r="N78" s="26"/>
     </row>
     <row r="79">
-      <c r="E79" s="72"/>
+      <c r="E79" s="73"/>
       <c r="N79" s="26"/>
     </row>
     <row r="80">
-      <c r="E80" s="72"/>
+      <c r="E80" s="73"/>
       <c r="N80" s="26"/>
     </row>
     <row r="81">
-      <c r="E81" s="72"/>
+      <c r="E81" s="73"/>
       <c r="N81" s="26"/>
     </row>
     <row r="82">
-      <c r="E82" s="72"/>
+      <c r="E82" s="73"/>
       <c r="N82" s="26"/>
     </row>
     <row r="83">
-      <c r="E83" s="72"/>
+      <c r="E83" s="73"/>
       <c r="N83" s="26"/>
     </row>
     <row r="84">
-      <c r="E84" s="72"/>
+      <c r="E84" s="73"/>
       <c r="N84" s="26"/>
     </row>
     <row r="85">
-      <c r="E85" s="72"/>
+      <c r="E85" s="73"/>
       <c r="N85" s="26"/>
     </row>
     <row r="86">
-      <c r="E86" s="72"/>
+      <c r="E86" s="73"/>
       <c r="N86" s="26"/>
     </row>
     <row r="87">
-      <c r="E87" s="72"/>
+      <c r="E87" s="73"/>
       <c r="N87" s="26"/>
     </row>
     <row r="88">
-      <c r="E88" s="72"/>
+      <c r="E88" s="73"/>
       <c r="N88" s="26"/>
     </row>
     <row r="89">
-      <c r="E89" s="72"/>
+      <c r="E89" s="73"/>
       <c r="N89" s="26"/>
     </row>
     <row r="90">
-      <c r="E90" s="72"/>
+      <c r="E90" s="73"/>
       <c r="N90" s="26"/>
     </row>
     <row r="91">
-      <c r="E91" s="72"/>
+      <c r="E91" s="73"/>
       <c r="N91" s="26"/>
     </row>
     <row r="92">
-      <c r="E92" s="72"/>
+      <c r="E92" s="73"/>
       <c r="N92" s="26"/>
     </row>
     <row r="93">
-      <c r="E93" s="72"/>
+      <c r="E93" s="73"/>
       <c r="N93" s="26"/>
     </row>
     <row r="94">
-      <c r="E94" s="72"/>
+      <c r="E94" s="73"/>
       <c r="N94" s="26"/>
     </row>
     <row r="95">
-      <c r="E95" s="72"/>
+      <c r="E95" s="73"/>
       <c r="N95" s="26"/>
     </row>
     <row r="96">
-      <c r="E96" s="72"/>
+      <c r="E96" s="73"/>
       <c r="N96" s="26"/>
     </row>
     <row r="97">
-      <c r="E97" s="72"/>
+      <c r="E97" s="73"/>
       <c r="N97" s="26"/>
     </row>
     <row r="98">
-      <c r="E98" s="72"/>
+      <c r="E98" s="73"/>
       <c r="N98" s="26"/>
     </row>
     <row r="99">
-      <c r="E99" s="72"/>
+      <c r="E99" s="73"/>
       <c r="N99" s="26"/>
     </row>
     <row r="100">
-      <c r="E100" s="72"/>
+      <c r="E100" s="73"/>
       <c r="N100" s="26"/>
     </row>
     <row r="101">
-      <c r="E101" s="72"/>
+      <c r="E101" s="73"/>
       <c r="N101" s="26"/>
     </row>
     <row r="102">
-      <c r="E102" s="72"/>
+      <c r="E102" s="73"/>
       <c r="N102" s="26"/>
     </row>
     <row r="103">
-      <c r="E103" s="72"/>
+      <c r="E103" s="73"/>
       <c r="N103" s="26"/>
     </row>
     <row r="104">
-      <c r="E104" s="72"/>
+      <c r="E104" s="73"/>
       <c r="N104" s="26"/>
     </row>
     <row r="105">
-      <c r="E105" s="72"/>
+      <c r="E105" s="73"/>
       <c r="N105" s="26"/>
     </row>
     <row r="106">
-      <c r="E106" s="72"/>
+      <c r="E106" s="73"/>
       <c r="N106" s="26"/>
     </row>
     <row r="107">
-      <c r="E107" s="72"/>
+      <c r="E107" s="73"/>
       <c r="N107" s="26"/>
     </row>
     <row r="108">
-      <c r="E108" s="72"/>
+      <c r="E108" s="73"/>
       <c r="N108" s="26"/>
     </row>
     <row r="109">
-      <c r="E109" s="72"/>
+      <c r="E109" s="73"/>
       <c r="N109" s="26"/>
     </row>
     <row r="110">
-      <c r="E110" s="72"/>
+      <c r="E110" s="73"/>
       <c r="N110" s="26"/>
     </row>
     <row r="111">
-      <c r="E111" s="72"/>
+      <c r="E111" s="73"/>
       <c r="N111" s="26"/>
     </row>
     <row r="112">
-      <c r="E112" s="72"/>
+      <c r="E112" s="73"/>
       <c r="N112" s="26"/>
     </row>
     <row r="113">
-      <c r="E113" s="72"/>
+      <c r="E113" s="73"/>
       <c r="N113" s="26"/>
     </row>
     <row r="114">
-      <c r="E114" s="72"/>
+      <c r="E114" s="73"/>
       <c r="N114" s="26"/>
     </row>
     <row r="115">
-      <c r="E115" s="72"/>
+      <c r="E115" s="73"/>
       <c r="N115" s="26"/>
     </row>
     <row r="116">
-      <c r="E116" s="72"/>
+      <c r="E116" s="73"/>
       <c r="N116" s="26"/>
     </row>
     <row r="117">
-      <c r="E117" s="72"/>
+      <c r="E117" s="73"/>
       <c r="N117" s="26"/>
     </row>
     <row r="118">
-      <c r="E118" s="72"/>
+      <c r="E118" s="73"/>
       <c r="N118" s="26"/>
     </row>
     <row r="119">
-      <c r="E119" s="72"/>
+      <c r="E119" s="73"/>
       <c r="N119" s="26"/>
     </row>
     <row r="120">
-      <c r="E120" s="72"/>
+      <c r="E120" s="73"/>
       <c r="N120" s="26"/>
     </row>
     <row r="121">
-      <c r="E121" s="72"/>
+      <c r="E121" s="73"/>
       <c r="N121" s="26"/>
     </row>
     <row r="122">
-      <c r="E122" s="72"/>
+      <c r="E122" s="73"/>
       <c r="N122" s="26"/>
     </row>
     <row r="123">
-      <c r="E123" s="72"/>
+      <c r="E123" s="73"/>
       <c r="N123" s="26"/>
     </row>
     <row r="124">
-      <c r="E124" s="72"/>
+      <c r="E124" s="73"/>
       <c r="N124" s="26"/>
     </row>
     <row r="125">
-      <c r="E125" s="72"/>
+      <c r="E125" s="73"/>
       <c r="N125" s="26"/>
     </row>
     <row r="126">
-      <c r="E126" s="72"/>
+      <c r="E126" s="73"/>
       <c r="N126" s="26"/>
     </row>
     <row r="127">
-      <c r="E127" s="72"/>
+      <c r="E127" s="73"/>
       <c r="N127" s="26"/>
     </row>
     <row r="128">
-      <c r="E128" s="72"/>
+      <c r="E128" s="73"/>
       <c r="N128" s="26"/>
     </row>
     <row r="129">
-      <c r="E129" s="72"/>
+      <c r="E129" s="73"/>
       <c r="N129" s="26"/>
     </row>
     <row r="130">
-      <c r="E130" s="72"/>
+      <c r="E130" s="73"/>
       <c r="N130" s="26"/>
     </row>
     <row r="131">
-      <c r="E131" s="72"/>
+      <c r="E131" s="73"/>
       <c r="N131" s="26"/>
     </row>
     <row r="132">
-      <c r="E132" s="72"/>
+      <c r="E132" s="73"/>
       <c r="N132" s="26"/>
     </row>
     <row r="133">
-      <c r="E133" s="72"/>
+      <c r="E133" s="73"/>
       <c r="N133" s="26"/>
     </row>
     <row r="134">
-      <c r="E134" s="72"/>
+      <c r="E134" s="73"/>
       <c r="N134" s="26"/>
     </row>
     <row r="135">
-      <c r="E135" s="72"/>
+      <c r="E135" s="73"/>
       <c r="N135" s="26"/>
     </row>
     <row r="136">
-      <c r="E136" s="72"/>
+      <c r="E136" s="73"/>
       <c r="N136" s="26"/>
     </row>
     <row r="137">
-      <c r="E137" s="72"/>
+      <c r="E137" s="73"/>
       <c r="N137" s="26"/>
     </row>
     <row r="138">
-      <c r="E138" s="72"/>
+      <c r="E138" s="73"/>
       <c r="N138" s="26"/>
     </row>
     <row r="139">
-      <c r="E139" s="72"/>
+      <c r="E139" s="73"/>
       <c r="N139" s="26"/>
     </row>
     <row r="140">
-      <c r="E140" s="72"/>
+      <c r="E140" s="73"/>
       <c r="N140" s="26"/>
     </row>
     <row r="141">
-      <c r="E141" s="72"/>
+      <c r="E141" s="73"/>
       <c r="N141" s="26"/>
     </row>
     <row r="142">
-      <c r="E142" s="72"/>
+      <c r="E142" s="73"/>
       <c r="N142" s="26"/>
     </row>
     <row r="143">
-      <c r="E143" s="72"/>
+      <c r="E143" s="73"/>
       <c r="N143" s="26"/>
     </row>
     <row r="144">
-      <c r="E144" s="72"/>
+      <c r="E144" s="73"/>
       <c r="N144" s="26"/>
     </row>
     <row r="145">
-      <c r="E145" s="72"/>
+      <c r="E145" s="73"/>
       <c r="N145" s="26"/>
     </row>
     <row r="146">
-      <c r="E146" s="72"/>
+      <c r="E146" s="73"/>
       <c r="N146" s="26"/>
     </row>
     <row r="147">
-      <c r="E147" s="72"/>
+      <c r="E147" s="73"/>
       <c r="N147" s="26"/>
     </row>
     <row r="148">
-      <c r="E148" s="72"/>
+      <c r="E148" s="73"/>
       <c r="N148" s="26"/>
     </row>
     <row r="149">
-      <c r="E149" s="72"/>
+      <c r="E149" s="73"/>
       <c r="N149" s="26"/>
     </row>
     <row r="150">
-      <c r="E150" s="72"/>
+      <c r="E150" s="73"/>
       <c r="N150" s="26"/>
     </row>
     <row r="151">
-      <c r="E151" s="72"/>
+      <c r="E151" s="73"/>
       <c r="N151" s="26"/>
     </row>
     <row r="152">
-      <c r="E152" s="72"/>
+      <c r="E152" s="73"/>
       <c r="N152" s="26"/>
     </row>
     <row r="153">
-      <c r="E153" s="72"/>
+      <c r="E153" s="73"/>
       <c r="N153" s="26"/>
     </row>
     <row r="154">
-      <c r="E154" s="72"/>
+      <c r="E154" s="73"/>
       <c r="N154" s="26"/>
     </row>
     <row r="155">
-      <c r="E155" s="72"/>
+      <c r="E155" s="73"/>
       <c r="N155" s="26"/>
     </row>
     <row r="156">
-      <c r="E156" s="72"/>
+      <c r="E156" s="73"/>
       <c r="N156" s="26"/>
     </row>
     <row r="157">
-      <c r="E157" s="72"/>
+      <c r="E157" s="73"/>
       <c r="N157" s="26"/>
     </row>
     <row r="158">
-      <c r="E158" s="72"/>
+      <c r="E158" s="73"/>
       <c r="N158" s="26"/>
     </row>
     <row r="159">
-      <c r="E159" s="72"/>
+      <c r="E159" s="73"/>
       <c r="N159" s="26"/>
     </row>
     <row r="160">
-      <c r="E160" s="72"/>
+      <c r="E160" s="73"/>
       <c r="N160" s="26"/>
     </row>
     <row r="161">
-      <c r="E161" s="72"/>
+      <c r="E161" s="73"/>
       <c r="N161" s="26"/>
     </row>
     <row r="162">
-      <c r="E162" s="72"/>
+      <c r="E162" s="73"/>
       <c r="N162" s="26"/>
     </row>
     <row r="163">
-      <c r="E163" s="72"/>
+      <c r="E163" s="73"/>
       <c r="N163" s="26"/>
     </row>
     <row r="164">
-      <c r="E164" s="72"/>
+      <c r="E164" s="73"/>
       <c r="N164" s="26"/>
     </row>
     <row r="165">
-      <c r="E165" s="72"/>
+      <c r="E165" s="73"/>
       <c r="N165" s="26"/>
     </row>
     <row r="166">
-      <c r="E166" s="72"/>
+      <c r="E166" s="73"/>
       <c r="N166" s="26"/>
     </row>
     <row r="167">
-      <c r="E167" s="72"/>
+      <c r="E167" s="73"/>
       <c r="N167" s="26"/>
     </row>
     <row r="168">
-      <c r="E168" s="72"/>
+      <c r="E168" s="73"/>
       <c r="N168" s="26"/>
     </row>
     <row r="169">
-      <c r="E169" s="72"/>
+      <c r="E169" s="73"/>
       <c r="N169" s="26"/>
     </row>
     <row r="170">
-      <c r="E170" s="72"/>
+      <c r="E170" s="73"/>
       <c r="N170" s="26"/>
     </row>
     <row r="171">
-      <c r="E171" s="72"/>
+      <c r="E171" s="73"/>
       <c r="N171" s="26"/>
     </row>
     <row r="172">
-      <c r="E172" s="72"/>
+      <c r="E172" s="73"/>
       <c r="N172" s="26"/>
     </row>
     <row r="173">
-      <c r="E173" s="72"/>
+      <c r="E173" s="73"/>
       <c r="N173" s="26"/>
     </row>
     <row r="174">
-      <c r="E174" s="72"/>
+      <c r="E174" s="73"/>
       <c r="N174" s="26"/>
     </row>
     <row r="175">
-      <c r="E175" s="72"/>
+      <c r="E175" s="73"/>
       <c r="N175" s="26"/>
     </row>
     <row r="176">
-      <c r="E176" s="72"/>
+      <c r="E176" s="73"/>
       <c r="N176" s="26"/>
     </row>
     <row r="177">
-      <c r="E177" s="72"/>
+      <c r="E177" s="73"/>
       <c r="N177" s="26"/>
     </row>
     <row r="178">
-      <c r="E178" s="72"/>
+      <c r="E178" s="73"/>
       <c r="N178" s="26"/>
     </row>
     <row r="179">
-      <c r="E179" s="72"/>
+      <c r="E179" s="73"/>
       <c r="N179" s="26"/>
     </row>
     <row r="180">
-      <c r="E180" s="72"/>
+      <c r="E180" s="73"/>
       <c r="N180" s="26"/>
     </row>
     <row r="181">
-      <c r="E181" s="72"/>
+      <c r="E181" s="73"/>
       <c r="N181" s="26"/>
     </row>
     <row r="182">
-      <c r="E182" s="72"/>
+      <c r="E182" s="73"/>
       <c r="N182" s="26"/>
     </row>
     <row r="183">
-      <c r="E183" s="72"/>
+      <c r="E183" s="73"/>
       <c r="N183" s="26"/>
     </row>
     <row r="184">
-      <c r="E184" s="72"/>
+      <c r="E184" s="73"/>
       <c r="N184" s="26"/>
     </row>
     <row r="185">
-      <c r="E185" s="72"/>
+      <c r="E185" s="73"/>
       <c r="N185" s="26"/>
     </row>
     <row r="186">
-      <c r="E186" s="72"/>
+      <c r="E186" s="73"/>
       <c r="N186" s="26"/>
     </row>
     <row r="187">
-      <c r="E187" s="72"/>
+      <c r="E187" s="73"/>
       <c r="N187" s="26"/>
     </row>
     <row r="188">
-      <c r="E188" s="72"/>
+      <c r="E188" s="73"/>
       <c r="N188" s="26"/>
     </row>
     <row r="189">
-      <c r="E189" s="72"/>
+      <c r="E189" s="73"/>
       <c r="N189" s="26"/>
     </row>
     <row r="190">
-      <c r="E190" s="72"/>
+      <c r="E190" s="73"/>
       <c r="N190" s="26"/>
     </row>
     <row r="191">
-      <c r="E191" s="72"/>
+      <c r="E191" s="73"/>
       <c r="N191" s="26"/>
     </row>
     <row r="192">
-      <c r="E192" s="72"/>
+      <c r="E192" s="73"/>
       <c r="N192" s="26"/>
     </row>
     <row r="193">
-      <c r="E193" s="72"/>
+      <c r="E193" s="73"/>
       <c r="N193" s="26"/>
     </row>
     <row r="194">
-      <c r="E194" s="72"/>
+      <c r="E194" s="73"/>
       <c r="N194" s="26"/>
     </row>
     <row r="195">
-      <c r="E195" s="72"/>
+      <c r="E195" s="73"/>
       <c r="N195" s="26"/>
     </row>
     <row r="196">
-      <c r="E196" s="72"/>
+      <c r="E196" s="73"/>
       <c r="N196" s="26"/>
     </row>
     <row r="197">
-      <c r="E197" s="72"/>
+      <c r="E197" s="73"/>
       <c r="N197" s="26"/>
     </row>
     <row r="198">
-      <c r="E198" s="72"/>
+      <c r="E198" s="73"/>
       <c r="N198" s="26"/>
     </row>
     <row r="199">
-      <c r="E199" s="72"/>
+      <c r="E199" s="73"/>
       <c r="N199" s="26"/>
     </row>
     <row r="200">
-      <c r="E200" s="72"/>
+      <c r="E200" s="73"/>
       <c r="N200" s="26"/>
     </row>
     <row r="201">
-      <c r="E201" s="72"/>
+      <c r="E201" s="73"/>
       <c r="N201" s="26"/>
     </row>
     <row r="202">
-      <c r="E202" s="72"/>
+      <c r="E202" s="73"/>
       <c r="N202" s="26"/>
     </row>
     <row r="203">
-      <c r="E203" s="72"/>
+      <c r="E203" s="73"/>
       <c r="N203" s="26"/>
     </row>
     <row r="204">
-      <c r="E204" s="72"/>
+      <c r="E204" s="73"/>
       <c r="N204" s="26"/>
     </row>
     <row r="205">
-      <c r="E205" s="72"/>
+      <c r="E205" s="73"/>
       <c r="N205" s="26"/>
     </row>
     <row r="206">
-      <c r="E206" s="72"/>
+      <c r="E206" s="73"/>
       <c r="N206" s="26"/>
     </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:R201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="37.0"/>
+    <col min="2" max="2" width="25.666666666666668"/>
+    <col min="3" max="3" width="22.0"/>
+    <col min="4" max="4" width="39.833333333333336"/>
+    <col min="5" max="5" width="10.833333333333334"/>
+    <col min="6" max="6" width="10.833333333333334"/>
+    <col min="7" max="7" width="10.833333333333334"/>
+    <col min="8" max="8" width="10.833333333333334"/>
+    <col min="9" max="9" width="10.833333333333334"/>
+    <col min="10" max="10" width="10.833333333333334"/>
+    <col min="11" max="11" width="10.833333333333334"/>
+    <col min="12" max="12" width="10.833333333333334"/>
+    <col min="13" max="13" width="10.833333333333334"/>
+    <col min="14" max="14" width="10.833333333333334"/>
+    <col min="15" max="15" width="10.833333333333334"/>
+    <col min="16" max="16" width="10.833333333333334"/>
+    <col min="17" max="17" width="10.833333333333334"/>
+    <col min="18" max="18" width="10.833333333333334"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>1.546284262999E12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="32"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="32"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="32"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="32"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -12905,7 +13218,9 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
@@ -15970,7 +16285,7 @@
       <c r="E2" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="43"/>
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
@@ -16000,7 +16315,7 @@
       <c r="E3" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="42"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
@@ -16015,10 +16330,10 @@
       <c r="D4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -16045,7 +16360,7 @@
       <c r="D5" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="42" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16062,7 +16377,7 @@
       <c r="D6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="42" t="s">
         <v>97</v>
       </c>
     </row>
@@ -16732,963 +17047,963 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="42" t="s">
+      <c r="U1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="42" t="s">
+      <c r="V1" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="Y1" s="42" t="s">
+      <c r="Y1" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="AA1" s="42" t="s">
+      <c r="AA1" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="AB1" s="42" t="s">
+      <c r="AB1" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="AC1" s="42" t="s">
+      <c r="AC1" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="AD1" s="42" t="s">
+      <c r="AD1" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="AE1" s="42" t="s">
+      <c r="AE1" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="AF1" s="42" t="s">
+      <c r="AF1" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="AG1" s="42" t="s">
+      <c r="AG1" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="AH1" s="42" t="s">
+      <c r="AH1" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="42" t="s">
+      <c r="AI1" s="43" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="46" t="n">
+      <c r="B2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="46" t="n">
+      <c r="G2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="J2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="46" t="n">
+      <c r="J2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="O2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="46" t="n">
+      <c r="O2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q2" s="46" t="n">
+      <c r="Q2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="46" t="n">
+      <c r="R2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="X2" s="46" t="n">
+      <c r="X2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Y2" s="46" t="n">
+      <c r="Y2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" s="46" t="n">
+      <c r="Z2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AE2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH2" s="46" t="n">
+      <c r="AE2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG2" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH2" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI2" s="44" t="n">
+      <c r="AI2" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="46" t="n">
+      <c r="B3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="46" t="n">
+      <c r="G3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="J3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q3" s="46" t="n">
+      <c r="J3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U3" s="46" t="n">
+      <c r="R3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="V3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W3" s="46" t="n">
+      <c r="V3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="X3" s="46" t="n">
+      <c r="X3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Y3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG3" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH3" s="46" t="n">
+      <c r="Y3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG3" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH3" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI3" s="44" t="n">
+      <c r="AI3" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F4" s="46" t="n">
+      <c r="B4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N4" s="46" t="n">
+      <c r="G4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="O4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P4" s="46" t="n">
+      <c r="O4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q4" s="46" t="n">
+      <c r="Q4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD4" s="46" t="n">
+      <c r="R4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AE4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG4" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH4" s="46" t="n">
+      <c r="AE4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG4" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH4" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI4" s="44" t="n">
+      <c r="AI4" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="46" t="n">
+      <c r="B5" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="C5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="46" t="n">
+      <c r="C5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="46" t="n">
+      <c r="G5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="J5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N5" s="47" t="n">
+      <c r="J5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="O5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P5" s="47" t="n">
+      <c r="O5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="46" t="n">
+      <c r="Q5" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="47" t="n">
+      <c r="R5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="X5" s="47" t="n">
+      <c r="X5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="Y5" s="47" t="n">
+      <c r="Y5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD5" s="47" t="n">
+      <c r="Z5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD5" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="AE5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG5" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH5" s="46" t="n">
+      <c r="AE5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG5" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH5" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI5" s="44" t="n">
+      <c r="AI5" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="46" t="n">
+      <c r="B6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="D6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="46" t="n">
+      <c r="D6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="G6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="46" t="n">
+      <c r="G6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="J6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N6" s="46" t="n">
+      <c r="J6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="O6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="46" t="n">
+      <c r="O6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q6" s="46" t="n">
+      <c r="Q6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W6" s="46" t="n">
+      <c r="R6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="X6" s="46" t="n">
+      <c r="X6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Y6" s="46" t="n">
+      <c r="Y6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="Z6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD6" s="46" t="n">
+      <c r="Z6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AE6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="46" t="n">
+      <c r="AE6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG6" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH6" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI6" s="44" t="n">
+      <c r="AI6" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="47" t="n">
+      <c r="B7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="J7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="46" t="n">
+      <c r="J7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U7" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="V7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG7" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH7" s="47" t="n">
+      <c r="V7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG7" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH7" s="48" t="n">
         <v>1.0</v>
       </c>
-      <c r="AI7" s="44" t="n">
+      <c r="AI7" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AE8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH8" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI8" s="46" t="n">
+      <c r="B8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH8" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI8" s="47" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="44" t="n">
+      <c r="B9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="D9" s="46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="44" t="n">
+      <c r="D9" s="47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="G9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="44" t="n">
+      <c r="G9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="J9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N9" s="44" t="n">
+      <c r="J9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="O9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" s="46" t="n">
+      <c r="O9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="47" t="n">
         <v>1.0</v>
       </c>
-      <c r="R9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W9" s="44" t="n">
+      <c r="R9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="X9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AB9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AC9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AD9" s="44" t="n">
+      <c r="X9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" s="45" t="n">
         <v>1.0</v>
       </c>
-      <c r="AE9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AF9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="44" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AH9" s="46" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AI9" s="44" t="n">
+      <c r="AE9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" s="45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" s="47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="45" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -17707,132 +18022,132 @@
       <c r="L10" s="26"/>
     </row>
     <row r="11">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
     </row>
     <row r="12">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
     </row>
     <row r="13">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
     </row>
     <row r="14">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
     </row>
     <row r="15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
     </row>
     <row r="17">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
     </row>
     <row r="18">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20"/>
     <row r="21"/>
